--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R325"/>
+  <dimension ref="A1:R327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K140" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L140" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M140" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K141" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M141" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="K142" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L142" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M142" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K143" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M143" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="K144" t="n">
         <v>650</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K145" t="n">
         <v>550</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="K146" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L146" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M146" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>1360</v>
+        <v>2000</v>
       </c>
       <c r="K147" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L147" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M147" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="K148" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L148" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M148" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K149" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L149" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M149" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K150" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L150" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M150" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K151" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L151" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M151" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="K152" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L152" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M152" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K153" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L153" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M153" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K154" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L154" t="n">
         <v>700</v>
       </c>
       <c r="M154" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11589,7 +11589,7 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K156" t="n">
         <v>650</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="K157" t="n">
+        <v>500</v>
+      </c>
+      <c r="L157" t="n">
         <v>550</v>
       </c>
-      <c r="L157" t="n">
-        <v>600</v>
-      </c>
       <c r="M157" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K158" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L158" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M158" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>1400</v>
+        <v>1640</v>
       </c>
       <c r="K159" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L159" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M159" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K160" t="n">
+        <v>550</v>
+      </c>
+      <c r="L160" t="n">
         <v>600</v>
       </c>
-      <c r="L160" t="n">
-        <v>700</v>
-      </c>
       <c r="M160" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11952,13 +11952,13 @@
         <v>1400</v>
       </c>
       <c r="K161" t="n">
+        <v>450</v>
+      </c>
+      <c r="L161" t="n">
         <v>500</v>
       </c>
-      <c r="L161" t="n">
-        <v>550</v>
-      </c>
       <c r="M161" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K162" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L162" t="n">
         <v>700</v>
       </c>
       <c r="M162" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12093,7 +12093,7 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K163" t="n">
         <v>500</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12165,7 +12165,7 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K164" t="n">
         <v>650</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>1480</v>
+        <v>1800</v>
       </c>
       <c r="K165" t="n">
+        <v>500</v>
+      </c>
+      <c r="L165" t="n">
         <v>550</v>
       </c>
-      <c r="L165" t="n">
-        <v>600</v>
-      </c>
       <c r="M165" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K166" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L166" t="n">
         <v>700</v>
       </c>
       <c r="M166" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>1300</v>
+        <v>1480</v>
       </c>
       <c r="K167" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L167" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M167" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12453,7 +12453,7 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>3080</v>
+        <v>2200</v>
       </c>
       <c r="K168" t="n">
         <v>600</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12525,7 +12525,7 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K169" t="n">
         <v>500</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>3000</v>
+        <v>3080</v>
       </c>
       <c r="K170" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L170" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M170" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K171" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L171" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M171" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="K172" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L172" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M172" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K173" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L173" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M173" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K174" t="n">
         <v>650</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12957,7 +12957,7 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K175" t="n">
         <v>550</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>2480</v>
+        <v>3200</v>
       </c>
       <c r="K176" t="n">
         <v>650</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>1360</v>
+        <v>1700</v>
       </c>
       <c r="K177" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L177" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M177" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13173,7 +13173,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>3400</v>
+        <v>2480</v>
       </c>
       <c r="K178" t="n">
         <v>650</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K179" t="n">
+        <v>500</v>
+      </c>
+      <c r="L179" t="n">
         <v>550</v>
       </c>
-      <c r="L179" t="n">
-        <v>600</v>
-      </c>
       <c r="M179" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K180" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L180" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M180" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>1520</v>
+        <v>1800</v>
       </c>
       <c r="K181" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L181" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M181" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="K182" t="n">
+        <v>550</v>
+      </c>
+      <c r="L182" t="n">
         <v>600</v>
       </c>
-      <c r="L182" t="n">
-        <v>650</v>
-      </c>
       <c r="M182" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>1600</v>
+        <v>1520</v>
       </c>
       <c r="K183" t="n">
+        <v>450</v>
+      </c>
+      <c r="L183" t="n">
         <v>500</v>
       </c>
-      <c r="L183" t="n">
-        <v>550</v>
-      </c>
       <c r="M183" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K184" t="n">
         <v>600</v>
       </c>
       <c r="L184" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M184" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13677,7 +13677,7 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>1380</v>
+        <v>1600</v>
       </c>
       <c r="K185" t="n">
         <v>500</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K186" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L186" t="n">
         <v>700</v>
       </c>
       <c r="M186" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>1400</v>
+        <v>1380</v>
       </c>
       <c r="K187" t="n">
+        <v>500</v>
+      </c>
+      <c r="L187" t="n">
         <v>550</v>
       </c>
-      <c r="L187" t="n">
-        <v>600</v>
-      </c>
       <c r="M187" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K188" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L188" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M188" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>1680</v>
+        <v>1400</v>
       </c>
       <c r="K189" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L189" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M189" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>2680</v>
+        <v>3400</v>
       </c>
       <c r="K190" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L190" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M190" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>1500</v>
+        <v>1680</v>
       </c>
       <c r="K191" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L191" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M191" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14181,7 +14181,7 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>3400</v>
+        <v>2680</v>
       </c>
       <c r="K192" t="n">
         <v>650</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14253,7 +14253,7 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K193" t="n">
         <v>500</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>2360</v>
+        <v>3400</v>
       </c>
       <c r="K194" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L194" t="n">
         <v>700</v>
       </c>
       <c r="M194" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>1360</v>
+        <v>1800</v>
       </c>
       <c r="K195" t="n">
         <v>500</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14469,7 +14469,7 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>3400</v>
+        <v>2360</v>
       </c>
       <c r="K196" t="n">
         <v>600</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14541,7 +14541,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K197" t="n">
         <v>500</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K198" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L198" t="n">
         <v>700</v>
       </c>
       <c r="M198" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>1540</v>
+        <v>1800</v>
       </c>
       <c r="K199" t="n">
         <v>500</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K200" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L200" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M200" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>1720</v>
+        <v>1540</v>
       </c>
       <c r="K201" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L201" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M201" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>2640</v>
+        <v>3400</v>
       </c>
       <c r="K202" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L202" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M202" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>1480</v>
+        <v>1720</v>
       </c>
       <c r="K203" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L203" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M203" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15045,7 +15045,7 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>3200</v>
+        <v>2640</v>
       </c>
       <c r="K204" t="n">
         <v>650</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15117,7 +15117,7 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>1800</v>
+        <v>1480</v>
       </c>
       <c r="K205" t="n">
         <v>500</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15189,7 +15189,7 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K206" t="n">
         <v>650</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K207" t="n">
+        <v>500</v>
+      </c>
+      <c r="L207" t="n">
         <v>550</v>
       </c>
-      <c r="L207" t="n">
-        <v>600</v>
-      </c>
       <c r="M207" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15333,7 +15333,7 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K208" t="n">
         <v>650</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15405,7 +15405,7 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K209" t="n">
         <v>550</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15477,7 +15477,7 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K210" t="n">
         <v>650</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>1680</v>
+        <v>1500</v>
       </c>
       <c r="K211" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L211" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M211" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15624,13 +15624,13 @@
         <v>3400</v>
       </c>
       <c r="K212" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L212" t="n">
         <v>700</v>
       </c>
       <c r="M212" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15693,7 +15693,7 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>1800</v>
+        <v>1680</v>
       </c>
       <c r="K213" t="n">
         <v>500</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K214" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L214" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M214" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K215" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L215" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M215" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K216" t="n">
+        <v>550</v>
+      </c>
+      <c r="L216" t="n">
         <v>600</v>
       </c>
-      <c r="L216" t="n">
-        <v>700</v>
-      </c>
       <c r="M216" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15984,13 +15984,13 @@
         <v>1600</v>
       </c>
       <c r="K217" t="n">
+        <v>450</v>
+      </c>
+      <c r="L217" t="n">
         <v>500</v>
       </c>
-      <c r="L217" t="n">
-        <v>550</v>
-      </c>
       <c r="M217" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16053,7 +16053,7 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K218" t="n">
         <v>600</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16125,7 +16125,7 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K219" t="n">
         <v>500</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16200,13 +16200,13 @@
         <v>2400</v>
       </c>
       <c r="K220" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L220" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M220" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K221" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L221" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M221" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K222" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L222" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M222" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K223" t="n">
+        <v>450</v>
+      </c>
+      <c r="L223" t="n">
         <v>500</v>
       </c>
-      <c r="L223" t="n">
-        <v>550</v>
-      </c>
       <c r="M223" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K224" t="n">
+        <v>650</v>
+      </c>
+      <c r="L224" t="n">
         <v>700</v>
       </c>
-      <c r="L224" t="n">
-        <v>800</v>
-      </c>
       <c r="M224" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K225" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L225" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M225" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>3360</v>
+        <v>2600</v>
       </c>
       <c r="K226" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L226" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M226" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K227" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L227" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M227" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16773,7 +16773,7 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>3100</v>
+        <v>3360</v>
       </c>
       <c r="K228" t="n">
         <v>600</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16845,7 +16845,7 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K229" t="n">
         <v>500</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,7 +16917,7 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>2200</v>
+        <v>3100</v>
       </c>
       <c r="K230" t="n">
         <v>600</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K232" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L232" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M232" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K233" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L233" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M233" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K234" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="L234" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M234" t="n">
-        <v>875</v>
+        <v>950</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>875</v>
+        <v>950</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K235" t="n">
         <v>750</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17352,13 +17352,13 @@
         <v>2600</v>
       </c>
       <c r="K236" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L236" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M236" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>1480</v>
+        <v>1500</v>
       </c>
       <c r="K237" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L237" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M237" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17493,7 +17493,7 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="K238" t="n">
         <v>650</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,7 +17565,7 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="K239" t="n">
         <v>550</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,7 +17637,7 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K240" t="n">
         <v>650</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17709,7 +17709,7 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>1360</v>
+        <v>1440</v>
       </c>
       <c r="K241" t="n">
         <v>550</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17784,13 +17784,13 @@
         <v>2400</v>
       </c>
       <c r="K242" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L242" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M242" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>1480</v>
+        <v>1360</v>
       </c>
       <c r="K243" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L243" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M243" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K244" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L244" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M244" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K245" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L245" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M245" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K246" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L246" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M246" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K247" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L247" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M247" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18216,13 +18216,13 @@
         <v>2000</v>
       </c>
       <c r="K248" t="n">
+        <v>550</v>
+      </c>
+      <c r="L248" t="n">
         <v>600</v>
       </c>
-      <c r="L248" t="n">
-        <v>700</v>
-      </c>
       <c r="M248" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K249" t="n">
+        <v>450</v>
+      </c>
+      <c r="L249" t="n">
         <v>500</v>
       </c>
-      <c r="L249" t="n">
-        <v>550</v>
-      </c>
       <c r="M249" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K250" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L250" t="n">
         <v>700</v>
       </c>
       <c r="M250" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K251" t="n">
+        <v>500</v>
+      </c>
+      <c r="L251" t="n">
         <v>550</v>
       </c>
-      <c r="L251" t="n">
-        <v>600</v>
-      </c>
       <c r="M251" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K252" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L252" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M252" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>1480</v>
+        <v>1800</v>
       </c>
       <c r="K253" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L253" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M253" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K254" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L254" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M254" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K255" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L255" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M255" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="K256" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="L256" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M256" t="n">
-        <v>850</v>
+        <v>575</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>850</v>
+        <v>575</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K257" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L257" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M257" t="n">
-        <v>725</v>
+        <v>475</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>725</v>
+        <v>475</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="K258" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L258" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M258" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K259" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L259" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M259" t="n">
-        <v>375</v>
+        <v>725</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>375</v>
+        <v>725</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>3100</v>
+        <v>2000</v>
       </c>
       <c r="K260" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L260" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M260" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K261" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L261" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M261" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>2200</v>
+        <v>3100</v>
       </c>
       <c r="K262" t="n">
         <v>650</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K263" t="n">
+        <v>500</v>
+      </c>
+      <c r="L263" t="n">
         <v>550</v>
       </c>
-      <c r="L263" t="n">
-        <v>600</v>
-      </c>
       <c r="M263" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K264" t="n">
+        <v>650</v>
+      </c>
+      <c r="L264" t="n">
         <v>700</v>
       </c>
-      <c r="L264" t="n">
-        <v>800</v>
-      </c>
       <c r="M264" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19440,13 +19440,13 @@
         <v>1400</v>
       </c>
       <c r="K265" t="n">
+        <v>550</v>
+      </c>
+      <c r="L265" t="n">
         <v>600</v>
       </c>
-      <c r="L265" t="n">
-        <v>650</v>
-      </c>
       <c r="M265" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K266" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L266" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M266" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>1680</v>
+        <v>1400</v>
       </c>
       <c r="K267" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L267" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M267" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>1600</v>
+        <v>1680</v>
       </c>
       <c r="K269" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L269" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M269" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19797,7 +19797,7 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K270" t="n">
         <v>650</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19869,7 +19869,7 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>1440</v>
+        <v>1600</v>
       </c>
       <c r="K271" t="n">
         <v>500</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19941,7 +19941,7 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K272" t="n">
         <v>650</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20013,7 +20013,7 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>1700</v>
+        <v>1440</v>
       </c>
       <c r="K273" t="n">
         <v>500</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K274" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="L274" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M274" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20160,13 +20160,13 @@
         <v>1700</v>
       </c>
       <c r="K275" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L275" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M275" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K276" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L276" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M276" t="n">
-        <v>725</v>
+        <v>950</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>725</v>
+        <v>950</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>1680</v>
+        <v>1700</v>
       </c>
       <c r="K277" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L277" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M277" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K278" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L278" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M278" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>1600</v>
+        <v>1680</v>
       </c>
       <c r="K279" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L279" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M279" t="n">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -20520,13 +20520,13 @@
         <v>2800</v>
       </c>
       <c r="K280" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L280" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M280" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="K281" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L281" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M281" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K282" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L282" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M282" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K283" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L283" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M283" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -20805,7 +20805,7 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="K284" t="n">
         <v>650</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K285" t="n">
         <v>550</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K286" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L286" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M286" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K287" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L287" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M287" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -21096,13 +21096,13 @@
         <v>3400</v>
       </c>
       <c r="K288" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L288" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M288" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -21168,13 +21168,13 @@
         <v>1800</v>
       </c>
       <c r="K289" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L289" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M289" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>3220</v>
+        <v>3400</v>
       </c>
       <c r="K290" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L290" t="n">
         <v>700</v>
       </c>
       <c r="M290" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -21309,7 +21309,7 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>1460</v>
+        <v>1800</v>
       </c>
       <c r="K291" t="n">
         <v>500</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -21381,7 +21381,7 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>3200</v>
+        <v>3220</v>
       </c>
       <c r="K292" t="n">
         <v>650</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>1800</v>
+        <v>1460</v>
       </c>
       <c r="K293" t="n">
+        <v>500</v>
+      </c>
+      <c r="L293" t="n">
         <v>550</v>
       </c>
-      <c r="L293" t="n">
-        <v>600</v>
-      </c>
       <c r="M293" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>3120</v>
+        <v>3200</v>
       </c>
       <c r="K294" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L294" t="n">
         <v>700</v>
       </c>
       <c r="M294" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K295" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L295" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M295" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>3000</v>
+        <v>3120</v>
       </c>
       <c r="K296" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L296" t="n">
         <v>700</v>
       </c>
       <c r="M296" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K297" t="n">
+        <v>500</v>
+      </c>
+      <c r="L297" t="n">
         <v>550</v>
       </c>
-      <c r="L297" t="n">
-        <v>600</v>
-      </c>
       <c r="M297" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K298" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L298" t="n">
         <v>700</v>
       </c>
       <c r="M298" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>1720</v>
+        <v>1600</v>
       </c>
       <c r="K299" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L299" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M299" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K300" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L300" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M300" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>1360</v>
+        <v>1720</v>
       </c>
       <c r="K301" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L301" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M301" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K302" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L302" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M302" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>1460</v>
+        <v>1360</v>
       </c>
       <c r="K303" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L303" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M303" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K304" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L304" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M304" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>1800</v>
+        <v>1460</v>
       </c>
       <c r="K305" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L305" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M305" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K306" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L306" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M306" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>1520</v>
+        <v>1800</v>
       </c>
       <c r="K307" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L307" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M307" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="K308" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L308" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M308" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>1800</v>
+        <v>1520</v>
       </c>
       <c r="K309" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L309" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M309" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K310" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L310" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M310" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>1340</v>
+        <v>1800</v>
       </c>
       <c r="K311" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L311" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M311" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="K312" t="n">
         <v>650</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>1800</v>
+        <v>1340</v>
       </c>
       <c r="K313" t="n">
+        <v>500</v>
+      </c>
+      <c r="L313" t="n">
         <v>550</v>
       </c>
-      <c r="L313" t="n">
-        <v>600</v>
-      </c>
       <c r="M313" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>2460</v>
+        <v>3200</v>
       </c>
       <c r="K314" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L314" t="n">
         <v>700</v>
       </c>
       <c r="M314" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K315" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L315" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M315" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -23109,7 +23109,7 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>2300</v>
+        <v>2460</v>
       </c>
       <c r="K316" t="n">
         <v>600</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -23181,7 +23181,7 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K317" t="n">
         <v>500</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="K318" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L318" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M318" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>1560</v>
+        <v>1460</v>
       </c>
       <c r="K319" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L319" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M319" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K320" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L320" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M320" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K321" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L321" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M321" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -23541,7 +23541,7 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K322" t="n">
         <v>650</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -23616,13 +23616,13 @@
         <v>1400</v>
       </c>
       <c r="K323" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L323" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M323" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -23688,13 +23688,13 @@
         <v>2200</v>
       </c>
       <c r="K324" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L324" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M324" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,58 +23733,202 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E325" t="n">
+        <v>4</v>
+      </c>
+      <c r="F325" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J325" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K325" t="n">
+        <v>500</v>
+      </c>
+      <c r="L325" t="n">
+        <v>550</v>
+      </c>
+      <c r="M325" t="n">
+        <v>525</v>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P325" t="n">
+        <v>525</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>1</v>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>8</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D326" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E325" t="n">
-        <v>4</v>
-      </c>
-      <c r="F325" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I325" t="inlineStr">
+      <c r="E326" t="n">
+        <v>4</v>
+      </c>
+      <c r="F326" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J326" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K326" t="n">
+        <v>450</v>
+      </c>
+      <c r="L326" t="n">
+        <v>500</v>
+      </c>
+      <c r="M326" t="n">
+        <v>475</v>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P326" t="n">
+        <v>475</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>1</v>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>8</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D327" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E327" t="n">
+        <v>4</v>
+      </c>
+      <c r="F327" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J325" t="n">
+      <c r="J327" t="n">
         <v>1500</v>
       </c>
-      <c r="K325" t="n">
+      <c r="K327" t="n">
         <v>350</v>
       </c>
-      <c r="L325" t="n">
+      <c r="L327" t="n">
         <v>400</v>
       </c>
-      <c r="M325" t="n">
+      <c r="M327" t="n">
         <v>375</v>
       </c>
-      <c r="N325" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O325" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P325" t="n">
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P327" t="n">
         <v>375</v>
       </c>
-      <c r="Q325" t="n">
-        <v>1</v>
-      </c>
-      <c r="R325" t="inlineStr">
+      <c r="Q327" t="n">
+        <v>1</v>
+      </c>
+      <c r="R327" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R327"/>
+  <dimension ref="A1:R329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K82" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L82" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M82" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1460</v>
+        <v>1600</v>
       </c>
       <c r="K83" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L83" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M83" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44308</v>
+        <v>44215</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6408,13 +6408,13 @@
         <v>2400</v>
       </c>
       <c r="K84" t="n">
+        <v>600</v>
+      </c>
+      <c r="L84" t="n">
         <v>650</v>
       </c>
-      <c r="L84" t="n">
-        <v>700</v>
-      </c>
       <c r="M84" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44308</v>
+        <v>44215</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1320</v>
+        <v>1460</v>
       </c>
       <c r="K85" t="n">
+        <v>500</v>
+      </c>
+      <c r="L85" t="n">
         <v>550</v>
       </c>
-      <c r="L85" t="n">
-        <v>600</v>
-      </c>
       <c r="M85" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44403</v>
+        <v>44308</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="K86" t="n">
         <v>650</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44403</v>
+        <v>44308</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1460</v>
+        <v>1320</v>
       </c>
       <c r="K87" t="n">
         <v>550</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44239</v>
+        <v>44403</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44239</v>
+        <v>44403</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,7 +6765,7 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="K89" t="n">
         <v>550</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44379</v>
+        <v>44239</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K90" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L90" t="n">
         <v>700</v>
       </c>
       <c r="M90" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44379</v>
+        <v>44239</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6912,13 +6912,13 @@
         <v>1600</v>
       </c>
       <c r="K91" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L91" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M91" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K92" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L92" t="n">
         <v>700</v>
       </c>
       <c r="M92" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K93" t="n">
+        <v>500</v>
+      </c>
+      <c r="L93" t="n">
         <v>550</v>
       </c>
-      <c r="L93" t="n">
-        <v>600</v>
-      </c>
       <c r="M93" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="K94" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L94" t="n">
         <v>700</v>
       </c>
       <c r="M94" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1800</v>
+        <v>1480</v>
       </c>
       <c r="K95" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L95" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M95" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>3080</v>
+        <v>3400</v>
       </c>
       <c r="K96" t="n">
+        <v>600</v>
+      </c>
+      <c r="L96" t="n">
         <v>700</v>
       </c>
-      <c r="L96" t="n">
-        <v>800</v>
-      </c>
       <c r="M96" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K97" t="n">
         <v>500</v>
       </c>
       <c r="L97" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M97" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44340</v>
+        <v>44396</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7416,13 +7416,13 @@
         <v>3080</v>
       </c>
       <c r="K98" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L98" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M98" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44340</v>
+        <v>44396</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7491,11 +7491,11 @@
         <v>500</v>
       </c>
       <c r="L99" t="n">
+        <v>600</v>
+      </c>
+      <c r="M99" t="n">
         <v>550</v>
       </c>
-      <c r="M99" t="n">
-        <v>525</v>
-      </c>
       <c r="N99" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>2800</v>
+        <v>3080</v>
       </c>
       <c r="K100" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L100" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M100" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K101" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L101" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M101" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44221</v>
+        <v>44174</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K102" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L102" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M102" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44221</v>
+        <v>44174</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K103" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L103" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M103" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K104" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L104" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M104" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K105" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L105" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M105" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K106" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L106" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M106" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8064,13 +8064,13 @@
         <v>1400</v>
       </c>
       <c r="K107" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L107" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M107" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K108" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L108" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M108" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K109" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L109" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M109" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="K110" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L110" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M110" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K111" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L111" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M111" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44342</v>
+        <v>44162</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>3360</v>
+        <v>2800</v>
       </c>
       <c r="K112" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L112" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M112" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44342</v>
+        <v>44162</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K113" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L113" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M113" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>2400</v>
+        <v>3360</v>
       </c>
       <c r="K114" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L114" t="n">
         <v>700</v>
       </c>
       <c r="M114" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K115" t="n">
         <v>500</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44175</v>
+        <v>44362</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K116" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L116" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M116" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44175</v>
+        <v>44362</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K117" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L117" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M117" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44384</v>
+        <v>44175</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="K118" t="n">
+        <v>550</v>
+      </c>
+      <c r="L118" t="n">
         <v>600</v>
       </c>
-      <c r="L118" t="n">
-        <v>700</v>
-      </c>
       <c r="M118" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44384</v>
+        <v>44175</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K119" t="n">
+        <v>450</v>
+      </c>
+      <c r="L119" t="n">
         <v>500</v>
       </c>
-      <c r="L119" t="n">
-        <v>550</v>
-      </c>
       <c r="M119" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44242</v>
+        <v>44384</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="K120" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L120" t="n">
         <v>700</v>
       </c>
       <c r="M120" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44242</v>
+        <v>44384</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1560</v>
+        <v>2000</v>
       </c>
       <c r="K121" t="n">
+        <v>500</v>
+      </c>
+      <c r="L121" t="n">
         <v>550</v>
       </c>
-      <c r="L121" t="n">
-        <v>600</v>
-      </c>
       <c r="M121" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44204</v>
+        <v>44242</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9141,7 +9141,7 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K122" t="n">
         <v>650</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44204</v>
+        <v>44242</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44323</v>
+        <v>44204</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9285,7 +9285,7 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>3440</v>
+        <v>2800</v>
       </c>
       <c r="K124" t="n">
         <v>650</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44323</v>
+        <v>44204</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1660</v>
+        <v>1560</v>
       </c>
       <c r="K125" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L125" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M125" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44200</v>
+        <v>44323</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9429,7 +9429,7 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>3000</v>
+        <v>3440</v>
       </c>
       <c r="K126" t="n">
         <v>650</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44200</v>
+        <v>44323</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1600</v>
+        <v>1660</v>
       </c>
       <c r="K127" t="n">
+        <v>500</v>
+      </c>
+      <c r="L127" t="n">
         <v>550</v>
       </c>
-      <c r="L127" t="n">
-        <v>600</v>
-      </c>
       <c r="M127" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44363</v>
+        <v>44200</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>3340</v>
+        <v>3000</v>
       </c>
       <c r="K128" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L128" t="n">
         <v>700</v>
       </c>
       <c r="M128" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44363</v>
+        <v>44200</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1860</v>
+        <v>1600</v>
       </c>
       <c r="K129" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L129" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M129" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44216</v>
+        <v>44363</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9717,7 +9717,7 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>3200</v>
+        <v>3340</v>
       </c>
       <c r="K130" t="n">
         <v>600</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44216</v>
+        <v>44363</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9789,7 +9789,7 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1800</v>
+        <v>1860</v>
       </c>
       <c r="K131" t="n">
         <v>500</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44349</v>
+        <v>44216</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9861,7 +9861,7 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>3360</v>
+        <v>3200</v>
       </c>
       <c r="K132" t="n">
         <v>600</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44349</v>
+        <v>44216</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10005,7 +10005,7 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>2200</v>
+        <v>3360</v>
       </c>
       <c r="K134" t="n">
         <v>600</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10077,7 +10077,7 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="K135" t="n">
         <v>500</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44258</v>
+        <v>44385</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K136" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L136" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M136" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44258</v>
+        <v>44385</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="K137" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L137" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M137" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44243</v>
+        <v>44258</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K138" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L138" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M138" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44243</v>
+        <v>44258</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1440</v>
+        <v>2000</v>
       </c>
       <c r="K139" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L139" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M139" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10437,7 +10437,7 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K140" t="n">
         <v>650</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10509,7 +10509,7 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="K141" t="n">
         <v>550</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K142" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L142" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M142" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K143" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M143" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="K144" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L144" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M144" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K145" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L145" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M145" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="K146" t="n">
         <v>650</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K147" t="n">
         <v>550</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="K148" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L148" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M148" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>1360</v>
+        <v>2000</v>
       </c>
       <c r="K149" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L149" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M149" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="K150" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L150" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M150" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K151" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L151" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M151" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K152" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L152" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M152" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K153" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L153" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M153" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="K154" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L154" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M154" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K155" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L155" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M155" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K156" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L156" t="n">
         <v>700</v>
       </c>
       <c r="M156" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11733,7 +11733,7 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K158" t="n">
         <v>650</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="K159" t="n">
+        <v>500</v>
+      </c>
+      <c r="L159" t="n">
         <v>550</v>
       </c>
-      <c r="L159" t="n">
-        <v>600</v>
-      </c>
       <c r="M159" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K160" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L160" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M160" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>1400</v>
+        <v>1640</v>
       </c>
       <c r="K161" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L161" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M161" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K162" t="n">
+        <v>550</v>
+      </c>
+      <c r="L162" t="n">
         <v>600</v>
       </c>
-      <c r="L162" t="n">
-        <v>700</v>
-      </c>
       <c r="M162" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12096,13 +12096,13 @@
         <v>1400</v>
       </c>
       <c r="K163" t="n">
+        <v>450</v>
+      </c>
+      <c r="L163" t="n">
         <v>500</v>
       </c>
-      <c r="L163" t="n">
-        <v>550</v>
-      </c>
       <c r="M163" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K164" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L164" t="n">
         <v>700</v>
       </c>
       <c r="M164" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12237,7 +12237,7 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K165" t="n">
         <v>500</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12309,7 +12309,7 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K166" t="n">
         <v>650</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>1480</v>
+        <v>1800</v>
       </c>
       <c r="K167" t="n">
+        <v>500</v>
+      </c>
+      <c r="L167" t="n">
         <v>550</v>
       </c>
-      <c r="L167" t="n">
-        <v>600</v>
-      </c>
       <c r="M167" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K168" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L168" t="n">
         <v>700</v>
       </c>
       <c r="M168" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>1300</v>
+        <v>1480</v>
       </c>
       <c r="K169" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L169" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M169" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>3080</v>
+        <v>2200</v>
       </c>
       <c r="K170" t="n">
         <v>600</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K171" t="n">
         <v>500</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>3000</v>
+        <v>3080</v>
       </c>
       <c r="K172" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L172" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M172" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K173" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L173" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M173" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="K174" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L174" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M174" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K175" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L175" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M175" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K176" t="n">
         <v>650</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13101,7 +13101,7 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K177" t="n">
         <v>550</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13173,7 +13173,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>2480</v>
+        <v>3200</v>
       </c>
       <c r="K178" t="n">
         <v>650</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>1360</v>
+        <v>1700</v>
       </c>
       <c r="K179" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L179" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M179" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>3400</v>
+        <v>2480</v>
       </c>
       <c r="K180" t="n">
         <v>650</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K181" t="n">
+        <v>500</v>
+      </c>
+      <c r="L181" t="n">
         <v>550</v>
       </c>
-      <c r="L181" t="n">
-        <v>600</v>
-      </c>
       <c r="M181" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K182" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L182" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M182" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>1520</v>
+        <v>1800</v>
       </c>
       <c r="K183" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L183" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M183" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="K184" t="n">
+        <v>550</v>
+      </c>
+      <c r="L184" t="n">
         <v>600</v>
       </c>
-      <c r="L184" t="n">
-        <v>650</v>
-      </c>
       <c r="M184" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>1600</v>
+        <v>1520</v>
       </c>
       <c r="K185" t="n">
+        <v>450</v>
+      </c>
+      <c r="L185" t="n">
         <v>500</v>
       </c>
-      <c r="L185" t="n">
-        <v>550</v>
-      </c>
       <c r="M185" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K186" t="n">
         <v>600</v>
       </c>
       <c r="L186" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M186" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>1380</v>
+        <v>1600</v>
       </c>
       <c r="K187" t="n">
         <v>500</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K188" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L188" t="n">
         <v>700</v>
       </c>
       <c r="M188" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>1400</v>
+        <v>1380</v>
       </c>
       <c r="K189" t="n">
+        <v>500</v>
+      </c>
+      <c r="L189" t="n">
         <v>550</v>
       </c>
-      <c r="L189" t="n">
-        <v>600</v>
-      </c>
       <c r="M189" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K190" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L190" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M190" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>1680</v>
+        <v>1400</v>
       </c>
       <c r="K191" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L191" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M191" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>2680</v>
+        <v>3400</v>
       </c>
       <c r="K192" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L192" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M192" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>1500</v>
+        <v>1680</v>
       </c>
       <c r="K193" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L193" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M193" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14325,7 +14325,7 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>3400</v>
+        <v>2680</v>
       </c>
       <c r="K194" t="n">
         <v>650</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K195" t="n">
         <v>500</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>2360</v>
+        <v>3400</v>
       </c>
       <c r="K196" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L196" t="n">
         <v>700</v>
       </c>
       <c r="M196" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14541,7 +14541,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>1360</v>
+        <v>1800</v>
       </c>
       <c r="K197" t="n">
         <v>500</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14613,7 +14613,7 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>3400</v>
+        <v>2360</v>
       </c>
       <c r="K198" t="n">
         <v>600</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K199" t="n">
         <v>500</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K200" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L200" t="n">
         <v>700</v>
       </c>
       <c r="M200" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14829,7 +14829,7 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>1540</v>
+        <v>1800</v>
       </c>
       <c r="K201" t="n">
         <v>500</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K202" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L202" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M202" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>1720</v>
+        <v>1540</v>
       </c>
       <c r="K203" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L203" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M203" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>2640</v>
+        <v>3400</v>
       </c>
       <c r="K204" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L204" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M204" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>1480</v>
+        <v>1720</v>
       </c>
       <c r="K205" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L205" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M205" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15189,7 +15189,7 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>3200</v>
+        <v>2640</v>
       </c>
       <c r="K206" t="n">
         <v>650</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15261,7 +15261,7 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>1800</v>
+        <v>1480</v>
       </c>
       <c r="K207" t="n">
         <v>500</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15333,7 +15333,7 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K208" t="n">
         <v>650</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K209" t="n">
+        <v>500</v>
+      </c>
+      <c r="L209" t="n">
         <v>550</v>
       </c>
-      <c r="L209" t="n">
-        <v>600</v>
-      </c>
       <c r="M209" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15477,7 +15477,7 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K210" t="n">
         <v>650</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15549,7 +15549,7 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K211" t="n">
         <v>550</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K212" t="n">
         <v>650</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>1680</v>
+        <v>1500</v>
       </c>
       <c r="K213" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L213" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M213" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15768,13 +15768,13 @@
         <v>3400</v>
       </c>
       <c r="K214" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L214" t="n">
         <v>700</v>
       </c>
       <c r="M214" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15837,7 +15837,7 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>1800</v>
+        <v>1680</v>
       </c>
       <c r="K215" t="n">
         <v>500</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K216" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L216" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M216" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K217" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L217" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M217" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K218" t="n">
+        <v>550</v>
+      </c>
+      <c r="L218" t="n">
         <v>600</v>
       </c>
-      <c r="L218" t="n">
-        <v>700</v>
-      </c>
       <c r="M218" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16128,13 +16128,13 @@
         <v>1600</v>
       </c>
       <c r="K219" t="n">
+        <v>450</v>
+      </c>
+      <c r="L219" t="n">
         <v>500</v>
       </c>
-      <c r="L219" t="n">
-        <v>550</v>
-      </c>
       <c r="M219" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16197,7 +16197,7 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K220" t="n">
         <v>600</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16269,7 +16269,7 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K221" t="n">
         <v>500</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16344,13 +16344,13 @@
         <v>2400</v>
       </c>
       <c r="K222" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L222" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M222" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K223" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L223" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M223" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K224" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L224" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M224" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K225" t="n">
+        <v>450</v>
+      </c>
+      <c r="L225" t="n">
         <v>500</v>
       </c>
-      <c r="L225" t="n">
-        <v>550</v>
-      </c>
       <c r="M225" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K226" t="n">
+        <v>650</v>
+      </c>
+      <c r="L226" t="n">
         <v>700</v>
       </c>
-      <c r="L226" t="n">
-        <v>800</v>
-      </c>
       <c r="M226" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K227" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L227" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M227" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>3360</v>
+        <v>2600</v>
       </c>
       <c r="K228" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L228" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M228" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K229" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L229" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M229" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,7 +16917,7 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>3100</v>
+        <v>3360</v>
       </c>
       <c r="K230" t="n">
         <v>600</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16989,7 +16989,7 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K231" t="n">
         <v>500</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,7 +17061,7 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>2200</v>
+        <v>3100</v>
       </c>
       <c r="K232" t="n">
         <v>600</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K234" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L234" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M234" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K235" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L235" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M235" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K236" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="L236" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M236" t="n">
-        <v>875</v>
+        <v>950</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>875</v>
+        <v>950</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K237" t="n">
         <v>750</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17496,13 +17496,13 @@
         <v>2600</v>
       </c>
       <c r="K238" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L238" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M238" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>1480</v>
+        <v>1500</v>
       </c>
       <c r="K239" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L239" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M239" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,7 +17637,7 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="K240" t="n">
         <v>650</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17709,7 +17709,7 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="K241" t="n">
         <v>550</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17781,7 +17781,7 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K242" t="n">
         <v>650</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,7 +17853,7 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>1360</v>
+        <v>1440</v>
       </c>
       <c r="K243" t="n">
         <v>550</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17928,13 +17928,13 @@
         <v>2400</v>
       </c>
       <c r="K244" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L244" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M244" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>1480</v>
+        <v>1360</v>
       </c>
       <c r="K245" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L245" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M245" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K246" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L246" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M246" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K247" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L247" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M247" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K248" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L248" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M248" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K249" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L249" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M249" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18360,13 +18360,13 @@
         <v>2000</v>
       </c>
       <c r="K250" t="n">
+        <v>550</v>
+      </c>
+      <c r="L250" t="n">
         <v>600</v>
       </c>
-      <c r="L250" t="n">
-        <v>700</v>
-      </c>
       <c r="M250" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K251" t="n">
+        <v>450</v>
+      </c>
+      <c r="L251" t="n">
         <v>500</v>
       </c>
-      <c r="L251" t="n">
-        <v>550</v>
-      </c>
       <c r="M251" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K252" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L252" t="n">
         <v>700</v>
       </c>
       <c r="M252" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K253" t="n">
+        <v>500</v>
+      </c>
+      <c r="L253" t="n">
         <v>550</v>
       </c>
-      <c r="L253" t="n">
-        <v>600</v>
-      </c>
       <c r="M253" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K254" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L254" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M254" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>1480</v>
+        <v>1800</v>
       </c>
       <c r="K255" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L255" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M255" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K256" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L256" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M256" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K257" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L257" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M257" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="K258" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="L258" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M258" t="n">
-        <v>850</v>
+        <v>575</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>850</v>
+        <v>575</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K259" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L259" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M259" t="n">
-        <v>725</v>
+        <v>475</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>725</v>
+        <v>475</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="K260" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L260" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M260" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K261" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L261" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M261" t="n">
-        <v>375</v>
+        <v>725</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>375</v>
+        <v>725</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>3100</v>
+        <v>2000</v>
       </c>
       <c r="K262" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L262" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M262" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K263" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L263" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M263" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19365,7 +19365,7 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>2200</v>
+        <v>3100</v>
       </c>
       <c r="K264" t="n">
         <v>650</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K265" t="n">
+        <v>500</v>
+      </c>
+      <c r="L265" t="n">
         <v>550</v>
       </c>
-      <c r="L265" t="n">
-        <v>600</v>
-      </c>
       <c r="M265" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K266" t="n">
+        <v>650</v>
+      </c>
+      <c r="L266" t="n">
         <v>700</v>
       </c>
-      <c r="L266" t="n">
-        <v>800</v>
-      </c>
       <c r="M266" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19584,13 +19584,13 @@
         <v>1400</v>
       </c>
       <c r="K267" t="n">
+        <v>550</v>
+      </c>
+      <c r="L267" t="n">
         <v>600</v>
       </c>
-      <c r="L267" t="n">
-        <v>650</v>
-      </c>
       <c r="M267" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K268" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L268" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M268" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>1680</v>
+        <v>1400</v>
       </c>
       <c r="K269" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L269" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M269" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>1600</v>
+        <v>1680</v>
       </c>
       <c r="K271" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L271" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M271" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19941,7 +19941,7 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K272" t="n">
         <v>650</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20013,7 +20013,7 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>1440</v>
+        <v>1600</v>
       </c>
       <c r="K273" t="n">
         <v>500</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20085,7 +20085,7 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K274" t="n">
         <v>650</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20157,7 +20157,7 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>1700</v>
+        <v>1440</v>
       </c>
       <c r="K275" t="n">
         <v>500</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K276" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="L276" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M276" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -20304,13 +20304,13 @@
         <v>1700</v>
       </c>
       <c r="K277" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L277" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M277" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K278" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L278" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M278" t="n">
-        <v>725</v>
+        <v>950</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>725</v>
+        <v>950</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>1680</v>
+        <v>1700</v>
       </c>
       <c r="K279" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L279" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M279" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K280" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L280" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M280" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>1600</v>
+        <v>1680</v>
       </c>
       <c r="K281" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L281" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M281" t="n">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -20664,13 +20664,13 @@
         <v>2800</v>
       </c>
       <c r="K282" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L282" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M282" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="K283" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L283" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M283" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K284" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L284" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M284" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K285" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L285" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M285" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -20949,7 +20949,7 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="K286" t="n">
         <v>650</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K287" t="n">
         <v>550</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K288" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L288" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M288" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K289" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L289" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M289" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -21240,13 +21240,13 @@
         <v>3400</v>
       </c>
       <c r="K290" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L290" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M290" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -21312,13 +21312,13 @@
         <v>1800</v>
       </c>
       <c r="K291" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L291" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M291" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>3220</v>
+        <v>3400</v>
       </c>
       <c r="K292" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L292" t="n">
         <v>700</v>
       </c>
       <c r="M292" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -21453,7 +21453,7 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>1460</v>
+        <v>1800</v>
       </c>
       <c r="K293" t="n">
         <v>500</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -21525,7 +21525,7 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>3200</v>
+        <v>3220</v>
       </c>
       <c r="K294" t="n">
         <v>650</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>1800</v>
+        <v>1460</v>
       </c>
       <c r="K295" t="n">
+        <v>500</v>
+      </c>
+      <c r="L295" t="n">
         <v>550</v>
       </c>
-      <c r="L295" t="n">
-        <v>600</v>
-      </c>
       <c r="M295" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>3120</v>
+        <v>3200</v>
       </c>
       <c r="K296" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L296" t="n">
         <v>700</v>
       </c>
       <c r="M296" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K297" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L297" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M297" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>3000</v>
+        <v>3120</v>
       </c>
       <c r="K298" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L298" t="n">
         <v>700</v>
       </c>
       <c r="M298" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K299" t="n">
+        <v>500</v>
+      </c>
+      <c r="L299" t="n">
         <v>550</v>
       </c>
-      <c r="L299" t="n">
-        <v>600</v>
-      </c>
       <c r="M299" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K300" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L300" t="n">
         <v>700</v>
       </c>
       <c r="M300" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>1720</v>
+        <v>1600</v>
       </c>
       <c r="K301" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L301" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M301" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K302" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L302" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M302" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>1360</v>
+        <v>1720</v>
       </c>
       <c r="K303" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L303" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M303" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K304" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L304" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M304" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>1460</v>
+        <v>1360</v>
       </c>
       <c r="K305" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L305" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M305" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K306" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L306" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M306" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>1800</v>
+        <v>1460</v>
       </c>
       <c r="K307" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L307" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M307" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K308" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L308" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M308" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>1520</v>
+        <v>1800</v>
       </c>
       <c r="K309" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L309" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M309" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="K310" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L310" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M310" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>1800</v>
+        <v>1520</v>
       </c>
       <c r="K311" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L311" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M311" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K312" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L312" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M312" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>1340</v>
+        <v>1800</v>
       </c>
       <c r="K313" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L313" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M313" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -22965,7 +22965,7 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="K314" t="n">
         <v>650</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>1800</v>
+        <v>1340</v>
       </c>
       <c r="K315" t="n">
+        <v>500</v>
+      </c>
+      <c r="L315" t="n">
         <v>550</v>
       </c>
-      <c r="L315" t="n">
-        <v>600</v>
-      </c>
       <c r="M315" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>2460</v>
+        <v>3200</v>
       </c>
       <c r="K316" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L316" t="n">
         <v>700</v>
       </c>
       <c r="M316" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K317" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L317" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M317" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -23253,7 +23253,7 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>2300</v>
+        <v>2460</v>
       </c>
       <c r="K318" t="n">
         <v>600</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -23325,7 +23325,7 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K319" t="n">
         <v>500</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="K320" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L320" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M320" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>1560</v>
+        <v>1460</v>
       </c>
       <c r="K321" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L321" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M321" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K322" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L322" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M322" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K323" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L323" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M323" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -23685,7 +23685,7 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K324" t="n">
         <v>650</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -23760,13 +23760,13 @@
         <v>1400</v>
       </c>
       <c r="K325" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L325" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M325" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -23832,13 +23832,13 @@
         <v>2200</v>
       </c>
       <c r="K326" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L326" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M326" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,58 +23877,202 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E327" t="n">
+        <v>4</v>
+      </c>
+      <c r="F327" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J327" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K327" t="n">
+        <v>500</v>
+      </c>
+      <c r="L327" t="n">
+        <v>550</v>
+      </c>
+      <c r="M327" t="n">
+        <v>525</v>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P327" t="n">
+        <v>525</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>1</v>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>8</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D328" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E327" t="n">
-        <v>4</v>
-      </c>
-      <c r="F327" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I327" t="inlineStr">
+      <c r="E328" t="n">
+        <v>4</v>
+      </c>
+      <c r="F328" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J328" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K328" t="n">
+        <v>450</v>
+      </c>
+      <c r="L328" t="n">
+        <v>500</v>
+      </c>
+      <c r="M328" t="n">
+        <v>475</v>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P328" t="n">
+        <v>475</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>1</v>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>8</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D329" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E329" t="n">
+        <v>4</v>
+      </c>
+      <c r="F329" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J327" t="n">
+      <c r="J329" t="n">
         <v>1500</v>
       </c>
-      <c r="K327" t="n">
+      <c r="K329" t="n">
         <v>350</v>
       </c>
-      <c r="L327" t="n">
+      <c r="L329" t="n">
         <v>400</v>
       </c>
-      <c r="M327" t="n">
+      <c r="M329" t="n">
         <v>375</v>
       </c>
-      <c r="N327" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O327" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P327" t="n">
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P329" t="n">
         <v>375</v>
       </c>
-      <c r="Q327" t="n">
-        <v>1</v>
-      </c>
-      <c r="R327" t="inlineStr">
+      <c r="Q329" t="n">
+        <v>1</v>
+      </c>
+      <c r="R329" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R356"/>
+  <dimension ref="A1:R358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K221" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L221" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M221" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>1720</v>
+        <v>1500</v>
       </c>
       <c r="K222" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L222" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M222" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>2640</v>
+        <v>3400</v>
       </c>
       <c r="K223" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L223" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M223" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>1480</v>
+        <v>1720</v>
       </c>
       <c r="K224" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L224" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M224" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16557,7 +16557,7 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>3200</v>
+        <v>2640</v>
       </c>
       <c r="K225" t="n">
         <v>650</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16629,7 +16629,7 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>1800</v>
+        <v>1480</v>
       </c>
       <c r="K226" t="n">
         <v>500</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16701,7 +16701,7 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K227" t="n">
         <v>650</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K228" t="n">
+        <v>500</v>
+      </c>
+      <c r="L228" t="n">
         <v>550</v>
       </c>
-      <c r="L228" t="n">
-        <v>600</v>
-      </c>
       <c r="M228" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16845,7 +16845,7 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K229" t="n">
         <v>650</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,7 +16917,7 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K230" t="n">
         <v>550</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16989,7 +16989,7 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K231" t="n">
         <v>650</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>1680</v>
+        <v>1500</v>
       </c>
       <c r="K232" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L232" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M232" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17136,13 +17136,13 @@
         <v>3400</v>
       </c>
       <c r="K233" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L233" t="n">
         <v>700</v>
       </c>
       <c r="M233" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>1800</v>
+        <v>1680</v>
       </c>
       <c r="K234" t="n">
         <v>500</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K235" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L235" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M235" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K236" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L236" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M236" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K237" t="n">
+        <v>550</v>
+      </c>
+      <c r="L237" t="n">
         <v>600</v>
       </c>
-      <c r="L237" t="n">
-        <v>700</v>
-      </c>
       <c r="M237" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17496,13 +17496,13 @@
         <v>1600</v>
       </c>
       <c r="K238" t="n">
+        <v>450</v>
+      </c>
+      <c r="L238" t="n">
         <v>500</v>
       </c>
-      <c r="L238" t="n">
-        <v>550</v>
-      </c>
       <c r="M238" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,7 +17565,7 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K239" t="n">
         <v>600</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,7 +17637,7 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K240" t="n">
         <v>500</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17712,13 +17712,13 @@
         <v>2400</v>
       </c>
       <c r="K241" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L241" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M241" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K242" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L242" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M242" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K243" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L243" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M243" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K244" t="n">
+        <v>450</v>
+      </c>
+      <c r="L244" t="n">
         <v>500</v>
       </c>
-      <c r="L244" t="n">
-        <v>550</v>
-      </c>
       <c r="M244" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K245" t="n">
+        <v>650</v>
+      </c>
+      <c r="L245" t="n">
         <v>700</v>
       </c>
-      <c r="L245" t="n">
-        <v>800</v>
-      </c>
       <c r="M245" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K246" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L246" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M246" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>3360</v>
+        <v>2600</v>
       </c>
       <c r="K247" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L247" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M247" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K248" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L248" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M248" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18285,7 +18285,7 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>3100</v>
+        <v>3360</v>
       </c>
       <c r="K249" t="n">
         <v>600</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18357,7 +18357,7 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K250" t="n">
         <v>500</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,7 +18429,7 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>2200</v>
+        <v>3100</v>
       </c>
       <c r="K251" t="n">
         <v>600</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K253" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L253" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M253" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="K254" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="L254" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="M254" t="n">
-        <v>875</v>
+        <v>525</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>875</v>
+        <v>525</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,7 +18717,7 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K255" t="n">
         <v>750</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18792,13 +18792,13 @@
         <v>2600</v>
       </c>
       <c r="K256" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L256" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M256" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>1480</v>
+        <v>1500</v>
       </c>
       <c r="K257" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L257" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M257" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18933,7 +18933,7 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="K258" t="n">
         <v>650</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19005,7 +19005,7 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="K259" t="n">
         <v>550</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K260" t="n">
         <v>650</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>1360</v>
+        <v>1440</v>
       </c>
       <c r="K261" t="n">
         <v>550</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="K262" t="n">
         <v>650</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19293,7 +19293,7 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>1480</v>
+        <v>1360</v>
       </c>
       <c r="K263" t="n">
         <v>550</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19437,7 +19437,7 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>1700</v>
+        <v>1480</v>
       </c>
       <c r="K265" t="n">
         <v>550</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19509,7 +19509,7 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K266" t="n">
         <v>650</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19581,7 +19581,7 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="K267" t="n">
         <v>550</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K268" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L268" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M268" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K269" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L269" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M269" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K270" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L270" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M270" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K271" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L271" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M271" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K272" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L272" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M272" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K273" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L273" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M273" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20088,13 +20088,13 @@
         <v>2000</v>
       </c>
       <c r="K274" t="n">
+        <v>550</v>
+      </c>
+      <c r="L274" t="n">
         <v>600</v>
       </c>
-      <c r="L274" t="n">
-        <v>700</v>
-      </c>
       <c r="M274" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K275" t="n">
+        <v>450</v>
+      </c>
+      <c r="L275" t="n">
         <v>500</v>
       </c>
-      <c r="L275" t="n">
-        <v>550</v>
-      </c>
       <c r="M275" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K276" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L276" t="n">
         <v>700</v>
       </c>
       <c r="M276" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K277" t="n">
+        <v>500</v>
+      </c>
+      <c r="L277" t="n">
         <v>550</v>
       </c>
-      <c r="L277" t="n">
-        <v>600</v>
-      </c>
       <c r="M277" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K278" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L278" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M278" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>1480</v>
+        <v>1800</v>
       </c>
       <c r="K279" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L279" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M279" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K280" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L280" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M280" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K281" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L281" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M281" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="K282" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="L282" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M282" t="n">
-        <v>850</v>
+        <v>575</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>850</v>
+        <v>575</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K283" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L283" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M283" t="n">
-        <v>725</v>
+        <v>475</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>725</v>
+        <v>475</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="K284" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L284" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M284" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K285" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L285" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M285" t="n">
-        <v>375</v>
+        <v>725</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>375</v>
+        <v>725</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>3100</v>
+        <v>2000</v>
       </c>
       <c r="K286" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L286" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M286" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K287" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L287" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M287" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -21093,7 +21093,7 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>2200</v>
+        <v>3100</v>
       </c>
       <c r="K288" t="n">
         <v>650</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K289" t="n">
+        <v>500</v>
+      </c>
+      <c r="L289" t="n">
         <v>550</v>
       </c>
-      <c r="L289" t="n">
-        <v>600</v>
-      </c>
       <c r="M289" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K290" t="n">
+        <v>650</v>
+      </c>
+      <c r="L290" t="n">
         <v>700</v>
       </c>
-      <c r="L290" t="n">
-        <v>800</v>
-      </c>
       <c r="M290" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -21312,13 +21312,13 @@
         <v>1400</v>
       </c>
       <c r="K291" t="n">
+        <v>550</v>
+      </c>
+      <c r="L291" t="n">
         <v>600</v>
       </c>
-      <c r="L291" t="n">
-        <v>650</v>
-      </c>
       <c r="M291" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>3160</v>
+        <v>2800</v>
       </c>
       <c r="K292" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L292" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M292" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>1640</v>
+        <v>1400</v>
       </c>
       <c r="K293" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L293" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M293" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>3400</v>
+        <v>3160</v>
       </c>
       <c r="K294" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L294" t="n">
         <v>700</v>
       </c>
       <c r="M294" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>1680</v>
+        <v>1640</v>
       </c>
       <c r="K295" t="n">
+        <v>500</v>
+      </c>
+      <c r="L295" t="n">
         <v>550</v>
       </c>
-      <c r="L295" t="n">
-        <v>600</v>
-      </c>
       <c r="M295" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>1600</v>
+        <v>1680</v>
       </c>
       <c r="K297" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L297" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M297" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -21813,7 +21813,7 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K298" t="n">
         <v>650</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -21885,7 +21885,7 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>1440</v>
+        <v>1600</v>
       </c>
       <c r="K299" t="n">
         <v>500</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -21957,7 +21957,7 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K300" t="n">
         <v>650</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -22029,7 +22029,7 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>1700</v>
+        <v>1440</v>
       </c>
       <c r="K301" t="n">
         <v>500</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="K302" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L302" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M302" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44281</v>
+        <v>44316</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>3400</v>
+        <v>1700</v>
       </c>
       <c r="K303" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L303" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="M303" t="n">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>1680</v>
+        <v>1700</v>
       </c>
       <c r="K304" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L304" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M304" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K305" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L305" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M305" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>1600</v>
+        <v>1680</v>
       </c>
       <c r="K306" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L306" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M306" t="n">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -22464,13 +22464,13 @@
         <v>2800</v>
       </c>
       <c r="K307" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L307" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M307" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="K308" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L308" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M308" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K309" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L309" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M309" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K310" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L310" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M310" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -22749,7 +22749,7 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="K311" t="n">
         <v>650</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K312" t="n">
         <v>550</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K313" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L313" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M313" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K314" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L314" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M314" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -23040,13 +23040,13 @@
         <v>3400</v>
       </c>
       <c r="K315" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L315" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M315" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -23112,13 +23112,13 @@
         <v>1800</v>
       </c>
       <c r="K316" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L316" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M316" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>3220</v>
+        <v>3400</v>
       </c>
       <c r="K317" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L317" t="n">
         <v>700</v>
       </c>
       <c r="M317" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -23253,7 +23253,7 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>1460</v>
+        <v>1800</v>
       </c>
       <c r="K318" t="n">
         <v>500</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -23325,7 +23325,7 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>3200</v>
+        <v>3220</v>
       </c>
       <c r="K319" t="n">
         <v>650</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>1800</v>
+        <v>1460</v>
       </c>
       <c r="K320" t="n">
+        <v>500</v>
+      </c>
+      <c r="L320" t="n">
         <v>550</v>
       </c>
-      <c r="L320" t="n">
-        <v>600</v>
-      </c>
       <c r="M320" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>3120</v>
+        <v>3200</v>
       </c>
       <c r="K321" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L321" t="n">
         <v>700</v>
       </c>
       <c r="M321" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K322" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L322" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M322" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>3000</v>
+        <v>3120</v>
       </c>
       <c r="K323" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L323" t="n">
         <v>700</v>
       </c>
       <c r="M323" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K324" t="n">
+        <v>500</v>
+      </c>
+      <c r="L324" t="n">
         <v>550</v>
       </c>
-      <c r="L324" t="n">
-        <v>600</v>
-      </c>
       <c r="M324" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K325" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L325" t="n">
         <v>700</v>
       </c>
       <c r="M325" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>1720</v>
+        <v>1600</v>
       </c>
       <c r="K326" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L326" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M326" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K327" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L327" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M327" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>1360</v>
+        <v>1720</v>
       </c>
       <c r="K328" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L328" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M328" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K329" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L329" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M329" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>1460</v>
+        <v>1360</v>
       </c>
       <c r="K330" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L330" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M330" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K331" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L331" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M331" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>1800</v>
+        <v>1460</v>
       </c>
       <c r="K332" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L332" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M332" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K333" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L333" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M333" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>1520</v>
+        <v>1800</v>
       </c>
       <c r="K334" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L334" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M334" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="K335" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L335" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M335" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>1800</v>
+        <v>1520</v>
       </c>
       <c r="K336" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L336" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M336" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K337" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L337" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M337" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>1340</v>
+        <v>1800</v>
       </c>
       <c r="K338" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L338" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M338" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -24765,7 +24765,7 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="K339" t="n">
         <v>650</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>1800</v>
+        <v>1340</v>
       </c>
       <c r="K340" t="n">
+        <v>500</v>
+      </c>
+      <c r="L340" t="n">
         <v>550</v>
       </c>
-      <c r="L340" t="n">
-        <v>600</v>
-      </c>
       <c r="M340" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>2460</v>
+        <v>3200</v>
       </c>
       <c r="K341" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L341" t="n">
         <v>700</v>
       </c>
       <c r="M341" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K342" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L342" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M342" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -25053,7 +25053,7 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>2300</v>
+        <v>2460</v>
       </c>
       <c r="K343" t="n">
         <v>600</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -25125,7 +25125,7 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K344" t="n">
         <v>500</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="K345" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L345" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M345" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>1560</v>
+        <v>1460</v>
       </c>
       <c r="K346" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L346" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M346" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K347" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L347" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M347" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K348" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L348" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M348" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -25485,7 +25485,7 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K349" t="n">
         <v>650</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -25560,13 +25560,13 @@
         <v>1400</v>
       </c>
       <c r="K350" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L350" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M350" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -25632,13 +25632,13 @@
         <v>2200</v>
       </c>
       <c r="K351" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L351" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M351" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K352" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L352" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M352" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K353" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L353" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M353" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K354" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L354" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M354" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -25920,13 +25920,13 @@
         <v>2000</v>
       </c>
       <c r="K355" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L355" t="n">
         <v>700</v>
       </c>
       <c r="M355" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -25992,31 +25992,175 @@
         <v>1400</v>
       </c>
       <c r="K356" t="n">
+        <v>550</v>
+      </c>
+      <c r="L356" t="n">
+        <v>600</v>
+      </c>
+      <c r="M356" t="n">
+        <v>575</v>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P356" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>1</v>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>8</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E357" t="n">
+        <v>4</v>
+      </c>
+      <c r="F357" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J357" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K357" t="n">
+        <v>600</v>
+      </c>
+      <c r="L357" t="n">
+        <v>700</v>
+      </c>
+      <c r="M357" t="n">
+        <v>650</v>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P357" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>1</v>
+      </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>8</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D358" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E358" t="n">
+        <v>4</v>
+      </c>
+      <c r="F358" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J358" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K358" t="n">
         <v>500</v>
       </c>
-      <c r="L356" t="n">
+      <c r="L358" t="n">
         <v>550</v>
       </c>
-      <c r="M356" t="n">
+      <c r="M358" t="n">
         <v>525</v>
       </c>
-      <c r="N356" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O356" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P356" t="n">
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P358" t="n">
         <v>525</v>
       </c>
-      <c r="Q356" t="n">
-        <v>1</v>
-      </c>
-      <c r="R356" t="inlineStr">
+      <c r="Q358" t="n">
+        <v>1</v>
+      </c>
+      <c r="R358" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R366"/>
+  <dimension ref="A1:R368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14976,13 +14976,13 @@
         <v>3000</v>
       </c>
       <c r="K203" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L203" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M203" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K204" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L204" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M204" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K205" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L205" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M205" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K206" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L206" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M206" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15264,13 +15264,13 @@
         <v>2600</v>
       </c>
       <c r="K207" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L207" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M207" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="K208" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L208" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M208" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="K209" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L209" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M209" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>1800</v>
+        <v>1440</v>
       </c>
       <c r="K210" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L210" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M210" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K211" t="n">
+        <v>650</v>
+      </c>
+      <c r="L211" t="n">
         <v>700</v>
       </c>
-      <c r="L211" t="n">
-        <v>800</v>
-      </c>
       <c r="M211" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K212" t="n">
+        <v>550</v>
+      </c>
+      <c r="L212" t="n">
         <v>600</v>
       </c>
-      <c r="L212" t="n">
-        <v>650</v>
-      </c>
       <c r="M212" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="K213" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L213" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M213" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K214" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L214" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M214" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K215" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L215" t="n">
         <v>700</v>
       </c>
       <c r="M215" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15909,7 +15909,7 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>1540</v>
+        <v>1360</v>
       </c>
       <c r="K216" t="n">
         <v>500</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15981,7 +15981,7 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K217" t="n">
         <v>650</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16053,7 +16053,7 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>1520</v>
+        <v>1540</v>
       </c>
       <c r="K218" t="n">
         <v>500</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16125,7 +16125,7 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K219" t="n">
         <v>650</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>1640</v>
+        <v>1520</v>
       </c>
       <c r="K220" t="n">
+        <v>500</v>
+      </c>
+      <c r="L220" t="n">
         <v>550</v>
       </c>
-      <c r="L220" t="n">
-        <v>600</v>
-      </c>
       <c r="M220" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K221" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L221" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M221" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>1560</v>
+        <v>1640</v>
       </c>
       <c r="K222" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L222" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M222" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K223" t="n">
+        <v>550</v>
+      </c>
+      <c r="L223" t="n">
         <v>600</v>
       </c>
-      <c r="L223" t="n">
-        <v>700</v>
-      </c>
       <c r="M223" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K224" t="n">
+        <v>450</v>
+      </c>
+      <c r="L224" t="n">
         <v>500</v>
       </c>
-      <c r="L224" t="n">
-        <v>550</v>
-      </c>
       <c r="M224" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="K225" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L225" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M225" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K226" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L226" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M226" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K227" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L227" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M227" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>1680</v>
+        <v>1560</v>
       </c>
       <c r="K228" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L228" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M228" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="K229" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L229" t="n">
         <v>700</v>
       </c>
       <c r="M229" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>2000</v>
+        <v>1680</v>
       </c>
       <c r="K230" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L230" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M230" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>2200</v>
+        <v>3600</v>
       </c>
       <c r="K231" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L231" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M231" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K232" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L232" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M232" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>2460</v>
+        <v>2200</v>
       </c>
       <c r="K233" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L233" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M233" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K234" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L234" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M234" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>3400</v>
+        <v>2460</v>
       </c>
       <c r="K235" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L235" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M235" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K236" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L236" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M236" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K237" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L237" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M237" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K238" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L238" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M238" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K239" t="n">
+        <v>550</v>
+      </c>
+      <c r="L239" t="n">
         <v>600</v>
       </c>
-      <c r="L239" t="n">
-        <v>700</v>
-      </c>
       <c r="M239" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K240" t="n">
+        <v>450</v>
+      </c>
+      <c r="L240" t="n">
         <v>500</v>
       </c>
-      <c r="L240" t="n">
-        <v>550</v>
-      </c>
       <c r="M240" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K241" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L241" t="n">
         <v>700</v>
       </c>
       <c r="M241" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17784,13 +17784,13 @@
         <v>1600</v>
       </c>
       <c r="K242" t="n">
+        <v>500</v>
+      </c>
+      <c r="L242" t="n">
         <v>550</v>
       </c>
-      <c r="L242" t="n">
-        <v>600</v>
-      </c>
       <c r="M242" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>3360</v>
+        <v>3200</v>
       </c>
       <c r="K243" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L243" t="n">
         <v>700</v>
       </c>
       <c r="M243" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17928,13 +17928,13 @@
         <v>1600</v>
       </c>
       <c r="K244" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L244" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M244" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>3000</v>
+        <v>3360</v>
       </c>
       <c r="K245" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L245" t="n">
         <v>700</v>
       </c>
       <c r="M245" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,7 +18069,7 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="K246" t="n">
         <v>500</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>3160</v>
+        <v>3000</v>
       </c>
       <c r="K247" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L247" t="n">
         <v>700</v>
       </c>
       <c r="M247" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>2000</v>
+        <v>3160</v>
       </c>
       <c r="K249" t="n">
+        <v>600</v>
+      </c>
+      <c r="L249" t="n">
         <v>700</v>
       </c>
-      <c r="L249" t="n">
-        <v>800</v>
-      </c>
       <c r="M249" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="K250" t="n">
         <v>500</v>
       </c>
       <c r="L250" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M250" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K251" t="n">
+        <v>700</v>
+      </c>
+      <c r="L251" t="n">
         <v>800</v>
       </c>
-      <c r="L251" t="n">
-        <v>900</v>
-      </c>
       <c r="M251" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>1680</v>
+        <v>1440</v>
       </c>
       <c r="K252" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L252" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M252" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18576,13 +18576,13 @@
         <v>3400</v>
       </c>
       <c r="K253" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L253" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M253" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>1800</v>
+        <v>1680</v>
       </c>
       <c r="K254" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L254" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M254" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,7 +18717,7 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K255" t="n">
         <v>650</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K256" t="n">
+        <v>500</v>
+      </c>
+      <c r="L256" t="n">
         <v>550</v>
       </c>
-      <c r="L256" t="n">
-        <v>600</v>
-      </c>
       <c r="M256" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18861,7 +18861,7 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K257" t="n">
         <v>650</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K258" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L258" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M258" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19005,7 +19005,7 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>3160</v>
+        <v>3400</v>
       </c>
       <c r="K259" t="n">
         <v>650</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>1640</v>
+        <v>1800</v>
       </c>
       <c r="K260" t="n">
+        <v>500</v>
+      </c>
+      <c r="L260" t="n">
         <v>550</v>
       </c>
-      <c r="L260" t="n">
-        <v>600</v>
-      </c>
       <c r="M260" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>3400</v>
+        <v>3160</v>
       </c>
       <c r="K261" t="n">
         <v>650</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>1600</v>
+        <v>1640</v>
       </c>
       <c r="K262" t="n">
         <v>550</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K263" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L263" t="n">
         <v>700</v>
       </c>
       <c r="M263" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K264" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L264" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M264" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19437,17 +19437,17 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K265" t="n">
         <v>600</v>
       </c>
       <c r="L265" t="n">
+        <v>700</v>
+      </c>
+      <c r="M265" t="n">
         <v>650</v>
       </c>
-      <c r="M265" t="n">
-        <v>625</v>
-      </c>
       <c r="N265" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19509,7 +19509,7 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K266" t="n">
         <v>500</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K267" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L267" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M267" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K268" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L268" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M268" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K269" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L269" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M269" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K270" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L270" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M270" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="K271" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L271" t="n">
         <v>700</v>
       </c>
       <c r="M271" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>1720</v>
+        <v>1500</v>
       </c>
       <c r="K272" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L272" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M272" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K273" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L273" t="n">
         <v>700</v>
       </c>
       <c r="M273" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>1400</v>
+        <v>1720</v>
       </c>
       <c r="K274" t="n">
+        <v>500</v>
+      </c>
+      <c r="L274" t="n">
         <v>550</v>
       </c>
-      <c r="L274" t="n">
-        <v>600</v>
-      </c>
       <c r="M274" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="K275" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L275" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M275" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K276" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L276" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M276" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>2560</v>
+        <v>3000</v>
       </c>
       <c r="K277" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L277" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M277" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>1480</v>
+        <v>1560</v>
       </c>
       <c r="K278" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L278" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M278" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>3200</v>
+        <v>2560</v>
       </c>
       <c r="K279" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L279" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M279" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K280" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L280" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M280" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K281" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L281" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M281" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K282" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L282" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M282" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -20733,7 +20733,7 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K283" t="n">
         <v>650</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -20805,7 +20805,7 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>1560</v>
+        <v>1700</v>
       </c>
       <c r="K284" t="n">
         <v>500</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K285" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L285" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M285" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>2200</v>
+        <v>1560</v>
       </c>
       <c r="K286" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L286" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M286" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="K287" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L287" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M287" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -21093,7 +21093,7 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>2560</v>
+        <v>2200</v>
       </c>
       <c r="K288" t="n">
         <v>650</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K289" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L289" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M289" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -21237,7 +21237,7 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>3400</v>
+        <v>2560</v>
       </c>
       <c r="K290" t="n">
         <v>650</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K291" t="n">
+        <v>500</v>
+      </c>
+      <c r="L291" t="n">
         <v>550</v>
       </c>
-      <c r="L291" t="n">
-        <v>600</v>
-      </c>
       <c r="M291" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -21381,7 +21381,7 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K292" t="n">
         <v>650</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -21453,7 +21453,7 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K293" t="n">
         <v>550</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="K294" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L294" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M294" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K295" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L295" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M295" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K296" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L296" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M296" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K297" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L297" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M297" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K298" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L298" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M298" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K299" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L299" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M299" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="K300" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L300" t="n">
         <v>700</v>
       </c>
       <c r="M300" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K301" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L301" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M301" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="K302" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L302" t="n">
         <v>700</v>
       </c>
       <c r="M302" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K303" t="n">
+        <v>500</v>
+      </c>
+      <c r="L303" t="n">
         <v>550</v>
       </c>
-      <c r="L303" t="n">
-        <v>600</v>
-      </c>
       <c r="M303" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="K304" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L304" t="n">
         <v>700</v>
       </c>
       <c r="M304" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="K305" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L305" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M305" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -22389,7 +22389,7 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K306" t="n">
         <v>600</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -22461,7 +22461,7 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K307" t="n">
         <v>500</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -22533,7 +22533,7 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K308" t="n">
         <v>600</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -22605,7 +22605,7 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K309" t="n">
         <v>500</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K310" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L310" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M310" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K311" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L311" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M311" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -22824,13 +22824,13 @@
         <v>2600</v>
       </c>
       <c r="K312" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L312" t="n">
         <v>900</v>
       </c>
       <c r="M312" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K313" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L313" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M313" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>3360</v>
+        <v>2600</v>
       </c>
       <c r="K314" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L314" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M314" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K315" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L315" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M315" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -23109,7 +23109,7 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>2400</v>
+        <v>3360</v>
       </c>
       <c r="K316" t="n">
         <v>650</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>1360</v>
+        <v>1800</v>
       </c>
       <c r="K317" t="n">
+        <v>500</v>
+      </c>
+      <c r="L317" t="n">
         <v>550</v>
       </c>
-      <c r="L317" t="n">
-        <v>600</v>
-      </c>
       <c r="M317" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K318" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L318" t="n">
         <v>700</v>
       </c>
       <c r="M318" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K319" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L319" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M319" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -23400,13 +23400,13 @@
         <v>3400</v>
       </c>
       <c r="K320" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L320" t="n">
         <v>700</v>
       </c>
       <c r="M320" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K321" t="n">
+        <v>500</v>
+      </c>
+      <c r="L321" t="n">
         <v>550</v>
       </c>
-      <c r="L321" t="n">
-        <v>600</v>
-      </c>
       <c r="M321" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -23541,7 +23541,7 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K322" t="n">
         <v>650</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>1360</v>
+        <v>1700</v>
       </c>
       <c r="K323" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L323" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M323" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K324" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L324" t="n">
         <v>700</v>
       </c>
       <c r="M324" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -23757,7 +23757,7 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K325" t="n">
         <v>500</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -23829,7 +23829,7 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K326" t="n">
         <v>600</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -23901,7 +23901,7 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="K327" t="n">
         <v>500</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -23976,13 +23976,13 @@
         <v>2000</v>
       </c>
       <c r="K328" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L328" t="n">
         <v>700</v>
       </c>
       <c r="M328" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K329" t="n">
+        <v>500</v>
+      </c>
+      <c r="L329" t="n">
         <v>550</v>
       </c>
-      <c r="L329" t="n">
-        <v>600</v>
-      </c>
       <c r="M329" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -24117,7 +24117,7 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K330" t="n">
         <v>650</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -24189,7 +24189,7 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K331" t="n">
         <v>550</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -24261,7 +24261,7 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>2360</v>
+        <v>2800</v>
       </c>
       <c r="K332" t="n">
         <v>650</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K333" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L333" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M333" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>2200</v>
+        <v>2360</v>
       </c>
       <c r="K334" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L334" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M334" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>1480</v>
+        <v>1360</v>
       </c>
       <c r="K335" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L335" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M335" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="K336" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L336" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M336" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="K337" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L337" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M337" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -24689,20 +24689,20 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="K338" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L338" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M338" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>3400</v>
+        <v>1500</v>
       </c>
       <c r="K339" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L339" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M339" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K340" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L340" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M340" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K341" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L341" t="n">
         <v>700</v>
       </c>
       <c r="M341" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -24984,13 +24984,13 @@
         <v>1600</v>
       </c>
       <c r="K342" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L342" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M342" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -25053,7 +25053,7 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>13960</v>
+        <v>3200</v>
       </c>
       <c r="K343" t="n">
         <v>600</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -25125,7 +25125,7 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>7500</v>
+        <v>1600</v>
       </c>
       <c r="K344" t="n">
         <v>500</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>3000</v>
+        <v>13960</v>
       </c>
       <c r="K345" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L345" t="n">
         <v>700</v>
       </c>
       <c r="M345" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -25269,7 +25269,7 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>1440</v>
+        <v>7500</v>
       </c>
       <c r="K346" t="n">
         <v>500</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K347" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L347" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M347" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>1500</v>
+        <v>1440</v>
       </c>
       <c r="K348" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L348" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M348" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>2460</v>
+        <v>2200</v>
       </c>
       <c r="K349" t="n">
+        <v>550</v>
+      </c>
+      <c r="L349" t="n">
         <v>600</v>
       </c>
-      <c r="L349" t="n">
-        <v>700</v>
-      </c>
       <c r="M349" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K350" t="n">
+        <v>450</v>
+      </c>
+      <c r="L350" t="n">
         <v>500</v>
       </c>
-      <c r="L350" t="n">
-        <v>550</v>
-      </c>
       <c r="M350" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>3400</v>
+        <v>2460</v>
       </c>
       <c r="K351" t="n">
+        <v>600</v>
+      </c>
+      <c r="L351" t="n">
         <v>700</v>
       </c>
-      <c r="L351" t="n">
-        <v>750</v>
-      </c>
       <c r="M351" t="n">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K352" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L352" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M352" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K353" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L353" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M353" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K354" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L354" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M354" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -25989,7 +25989,7 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K356" t="n">
         <v>550</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -26061,7 +26061,7 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K357" t="n">
         <v>650</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -26136,13 +26136,13 @@
         <v>1800</v>
       </c>
       <c r="K358" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L358" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M358" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="K359" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L359" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M359" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K360" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L360" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M360" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="K361" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L361" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M361" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K362" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L362" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M362" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K363" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L363" t="n">
         <v>700</v>
       </c>
       <c r="M363" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26568,13 +26568,13 @@
         <v>1400</v>
       </c>
       <c r="K364" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L364" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M364" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26637,7 +26637,7 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K365" t="n">
         <v>600</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -26709,7 +26709,7 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K366" t="n">
         <v>500</v>
@@ -26737,6 +26737,150 @@
         <v>1</v>
       </c>
       <c r="R366" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>8</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D367" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E367" t="n">
+        <v>4</v>
+      </c>
+      <c r="F367" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J367" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K367" t="n">
+        <v>600</v>
+      </c>
+      <c r="L367" t="n">
+        <v>700</v>
+      </c>
+      <c r="M367" t="n">
+        <v>650</v>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P367" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>1</v>
+      </c>
+      <c r="R367" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>8</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D368" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E368" t="n">
+        <v>4</v>
+      </c>
+      <c r="F368" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J368" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K368" t="n">
+        <v>500</v>
+      </c>
+      <c r="L368" t="n">
+        <v>550</v>
+      </c>
+      <c r="M368" t="n">
+        <v>525</v>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P368" t="n">
+        <v>525</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>1</v>
+      </c>
+      <c r="R368" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R368"/>
+  <dimension ref="A1:R370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="K361" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L361" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M361" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K362" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L362" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M362" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="K363" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L363" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M363" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K364" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L364" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M364" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K365" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L365" t="n">
         <v>700</v>
       </c>
       <c r="M365" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -26712,13 +26712,13 @@
         <v>1400</v>
       </c>
       <c r="K366" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L366" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M366" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -26781,7 +26781,7 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K367" t="n">
         <v>600</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -26853,7 +26853,7 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K368" t="n">
         <v>500</v>
@@ -26881,6 +26881,150 @@
         <v>1</v>
       </c>
       <c r="R368" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>8</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D369" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E369" t="n">
+        <v>4</v>
+      </c>
+      <c r="F369" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J369" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K369" t="n">
+        <v>600</v>
+      </c>
+      <c r="L369" t="n">
+        <v>700</v>
+      </c>
+      <c r="M369" t="n">
+        <v>650</v>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P369" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>1</v>
+      </c>
+      <c r="R369" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>8</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D370" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E370" t="n">
+        <v>4</v>
+      </c>
+      <c r="F370" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J370" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K370" t="n">
+        <v>500</v>
+      </c>
+      <c r="L370" t="n">
+        <v>550</v>
+      </c>
+      <c r="M370" t="n">
+        <v>525</v>
+      </c>
+      <c r="N370" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P370" t="n">
+        <v>525</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>1</v>
+      </c>
+      <c r="R370" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R370"/>
+  <dimension ref="A1:R372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K336" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L336" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M336" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K337" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L337" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M337" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="K338" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L338" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M338" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="K339" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L339" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M339" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -24833,20 +24833,20 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="K340" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L340" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M340" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -24905,20 +24905,20 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>3400</v>
+        <v>1500</v>
       </c>
       <c r="K341" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L341" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M341" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K342" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L342" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M342" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K343" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L343" t="n">
         <v>700</v>
       </c>
       <c r="M343" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -25128,13 +25128,13 @@
         <v>1600</v>
       </c>
       <c r="K344" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L344" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M344" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -25197,7 +25197,7 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>13960</v>
+        <v>3200</v>
       </c>
       <c r="K345" t="n">
         <v>600</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -25269,7 +25269,7 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>7500</v>
+        <v>1600</v>
       </c>
       <c r="K346" t="n">
         <v>500</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>3000</v>
+        <v>13960</v>
       </c>
       <c r="K347" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L347" t="n">
         <v>700</v>
       </c>
       <c r="M347" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25413,7 +25413,7 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>1440</v>
+        <v>7500</v>
       </c>
       <c r="K348" t="n">
         <v>500</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K349" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L349" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M349" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>1500</v>
+        <v>1440</v>
       </c>
       <c r="K350" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L350" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M350" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>2460</v>
+        <v>2200</v>
       </c>
       <c r="K351" t="n">
+        <v>550</v>
+      </c>
+      <c r="L351" t="n">
         <v>600</v>
       </c>
-      <c r="L351" t="n">
-        <v>700</v>
-      </c>
       <c r="M351" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K352" t="n">
+        <v>450</v>
+      </c>
+      <c r="L352" t="n">
         <v>500</v>
       </c>
-      <c r="L352" t="n">
-        <v>550</v>
-      </c>
       <c r="M352" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>3400</v>
+        <v>2460</v>
       </c>
       <c r="K353" t="n">
+        <v>600</v>
+      </c>
+      <c r="L353" t="n">
         <v>700</v>
       </c>
-      <c r="L353" t="n">
-        <v>750</v>
-      </c>
       <c r="M353" t="n">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K354" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L354" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M354" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K355" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L355" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M355" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K356" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L356" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M356" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -26133,7 +26133,7 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K358" t="n">
         <v>550</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -26205,7 +26205,7 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K359" t="n">
         <v>650</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -26280,13 +26280,13 @@
         <v>1800</v>
       </c>
       <c r="K360" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L360" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M360" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K361" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L361" t="n">
         <v>700</v>
       </c>
       <c r="M361" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="K362" t="n">
         <v>500</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="K363" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L363" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M363" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K364" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L364" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M364" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="K365" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L365" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M365" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K366" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L366" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M366" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K367" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L367" t="n">
         <v>700</v>
       </c>
       <c r="M367" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -26856,13 +26856,13 @@
         <v>1400</v>
       </c>
       <c r="K368" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L368" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M368" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -26925,7 +26925,7 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K369" t="n">
         <v>600</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -26997,7 +26997,7 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K370" t="n">
         <v>500</v>
@@ -27025,6 +27025,150 @@
         <v>1</v>
       </c>
       <c r="R370" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>8</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D371" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E371" t="n">
+        <v>4</v>
+      </c>
+      <c r="F371" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J371" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K371" t="n">
+        <v>600</v>
+      </c>
+      <c r="L371" t="n">
+        <v>700</v>
+      </c>
+      <c r="M371" t="n">
+        <v>650</v>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P371" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>1</v>
+      </c>
+      <c r="R371" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>8</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D372" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E372" t="n">
+        <v>4</v>
+      </c>
+      <c r="F372" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J372" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K372" t="n">
+        <v>500</v>
+      </c>
+      <c r="L372" t="n">
+        <v>550</v>
+      </c>
+      <c r="M372" t="n">
+        <v>525</v>
+      </c>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P372" t="n">
+        <v>525</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>1</v>
+      </c>
+      <c r="R372" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R372"/>
+  <dimension ref="A1:R374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17997,7 +17997,7 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>3360</v>
+        <v>3000</v>
       </c>
       <c r="K245" t="n">
         <v>600</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,7 +18069,7 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K246" t="n">
         <v>500</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>3000</v>
+        <v>3360</v>
       </c>
       <c r="K247" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L247" t="n">
         <v>700</v>
       </c>
       <c r="M247" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18213,7 +18213,7 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="K248" t="n">
         <v>500</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>3160</v>
+        <v>3000</v>
       </c>
       <c r="K249" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L249" t="n">
         <v>700</v>
       </c>
       <c r="M249" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>2000</v>
+        <v>3160</v>
       </c>
       <c r="K251" t="n">
+        <v>600</v>
+      </c>
+      <c r="L251" t="n">
         <v>700</v>
       </c>
-      <c r="L251" t="n">
-        <v>800</v>
-      </c>
       <c r="M251" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="K252" t="n">
         <v>500</v>
       </c>
       <c r="L252" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M252" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K253" t="n">
+        <v>700</v>
+      </c>
+      <c r="L253" t="n">
         <v>800</v>
       </c>
-      <c r="L253" t="n">
-        <v>900</v>
-      </c>
       <c r="M253" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>1680</v>
+        <v>1440</v>
       </c>
       <c r="K254" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L254" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M254" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18720,13 +18720,13 @@
         <v>3400</v>
       </c>
       <c r="K255" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L255" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M255" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>1800</v>
+        <v>1680</v>
       </c>
       <c r="K256" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L256" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M256" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18861,7 +18861,7 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K257" t="n">
         <v>650</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K258" t="n">
+        <v>500</v>
+      </c>
+      <c r="L258" t="n">
         <v>550</v>
       </c>
-      <c r="L258" t="n">
-        <v>600</v>
-      </c>
       <c r="M258" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19005,7 +19005,7 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K259" t="n">
         <v>650</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K260" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L260" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M260" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>3160</v>
+        <v>3400</v>
       </c>
       <c r="K261" t="n">
         <v>650</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>1640</v>
+        <v>1800</v>
       </c>
       <c r="K262" t="n">
+        <v>500</v>
+      </c>
+      <c r="L262" t="n">
         <v>550</v>
       </c>
-      <c r="L262" t="n">
-        <v>600</v>
-      </c>
       <c r="M262" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19293,7 +19293,7 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>3400</v>
+        <v>3160</v>
       </c>
       <c r="K263" t="n">
         <v>650</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19365,7 +19365,7 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>1600</v>
+        <v>1640</v>
       </c>
       <c r="K264" t="n">
         <v>550</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K265" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L265" t="n">
         <v>700</v>
       </c>
       <c r="M265" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K266" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L266" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M266" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19581,17 +19581,17 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K267" t="n">
         <v>600</v>
       </c>
       <c r="L267" t="n">
+        <v>700</v>
+      </c>
+      <c r="M267" t="n">
         <v>650</v>
       </c>
-      <c r="M267" t="n">
-        <v>625</v>
-      </c>
       <c r="N267" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -19653,7 +19653,7 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K268" t="n">
         <v>500</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K269" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L269" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M269" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K270" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L270" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M270" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K271" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L271" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M271" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K272" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L272" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M272" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="K273" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L273" t="n">
         <v>700</v>
       </c>
       <c r="M273" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>1720</v>
+        <v>1500</v>
       </c>
       <c r="K274" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L274" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M274" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K275" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L275" t="n">
         <v>700</v>
       </c>
       <c r="M275" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>1400</v>
+        <v>1720</v>
       </c>
       <c r="K276" t="n">
+        <v>500</v>
+      </c>
+      <c r="L276" t="n">
         <v>550</v>
       </c>
-      <c r="L276" t="n">
-        <v>600</v>
-      </c>
       <c r="M276" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="K277" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L277" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M277" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K278" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L278" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M278" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>2560</v>
+        <v>3000</v>
       </c>
       <c r="K279" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L279" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M279" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>1480</v>
+        <v>1560</v>
       </c>
       <c r="K280" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L280" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M280" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>3200</v>
+        <v>2560</v>
       </c>
       <c r="K281" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L281" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M281" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K282" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L282" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M282" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K283" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L283" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M283" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K284" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L284" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M284" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K285" t="n">
         <v>650</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -20949,7 +20949,7 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>1560</v>
+        <v>1700</v>
       </c>
       <c r="K286" t="n">
         <v>500</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -21017,20 +21017,20 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K287" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L287" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M287" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>2200</v>
+        <v>1560</v>
       </c>
       <c r="K288" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L288" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M288" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="K289" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L289" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M289" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -21237,7 +21237,7 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>2560</v>
+        <v>2200</v>
       </c>
       <c r="K290" t="n">
         <v>650</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K291" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L291" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M291" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -21381,7 +21381,7 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>3400</v>
+        <v>2560</v>
       </c>
       <c r="K292" t="n">
         <v>650</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K293" t="n">
+        <v>500</v>
+      </c>
+      <c r="L293" t="n">
         <v>550</v>
       </c>
-      <c r="L293" t="n">
-        <v>600</v>
-      </c>
       <c r="M293" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -21525,7 +21525,7 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K294" t="n">
         <v>650</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -21597,7 +21597,7 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K295" t="n">
         <v>550</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="K296" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L296" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M296" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K297" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L297" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M297" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K298" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L298" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M298" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K299" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L299" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M299" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K300" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L300" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M300" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K301" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L301" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M301" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="K302" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L302" t="n">
         <v>700</v>
       </c>
       <c r="M302" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K303" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L303" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M303" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="K304" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L304" t="n">
         <v>700</v>
       </c>
       <c r="M304" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K305" t="n">
+        <v>500</v>
+      </c>
+      <c r="L305" t="n">
         <v>550</v>
       </c>
-      <c r="L305" t="n">
-        <v>600</v>
-      </c>
       <c r="M305" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="K306" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L306" t="n">
         <v>700</v>
       </c>
       <c r="M306" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="K307" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L307" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M307" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -22533,7 +22533,7 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K308" t="n">
         <v>600</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -22605,7 +22605,7 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K309" t="n">
         <v>500</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K310" t="n">
         <v>600</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -22749,7 +22749,7 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K311" t="n">
         <v>500</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K312" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L312" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M312" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K313" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L313" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M313" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -22968,13 +22968,13 @@
         <v>2600</v>
       </c>
       <c r="K314" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L314" t="n">
         <v>900</v>
       </c>
       <c r="M314" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K315" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L315" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M315" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>3360</v>
+        <v>2600</v>
       </c>
       <c r="K316" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L316" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M316" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K317" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L317" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M317" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -23253,7 +23253,7 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>2400</v>
+        <v>3360</v>
       </c>
       <c r="K318" t="n">
         <v>650</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>1360</v>
+        <v>1800</v>
       </c>
       <c r="K319" t="n">
+        <v>500</v>
+      </c>
+      <c r="L319" t="n">
         <v>550</v>
       </c>
-      <c r="L319" t="n">
-        <v>600</v>
-      </c>
       <c r="M319" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K320" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L320" t="n">
         <v>700</v>
       </c>
       <c r="M320" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K321" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L321" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M321" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -23544,13 +23544,13 @@
         <v>3400</v>
       </c>
       <c r="K322" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L322" t="n">
         <v>700</v>
       </c>
       <c r="M322" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K323" t="n">
+        <v>500</v>
+      </c>
+      <c r="L323" t="n">
         <v>550</v>
       </c>
-      <c r="L323" t="n">
-        <v>600</v>
-      </c>
       <c r="M323" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -23685,7 +23685,7 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K324" t="n">
         <v>650</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>1360</v>
+        <v>1700</v>
       </c>
       <c r="K325" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L325" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M325" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K326" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L326" t="n">
         <v>700</v>
       </c>
       <c r="M326" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -23901,7 +23901,7 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K327" t="n">
         <v>500</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -23973,7 +23973,7 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K328" t="n">
         <v>600</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="K329" t="n">
         <v>500</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -24120,13 +24120,13 @@
         <v>2000</v>
       </c>
       <c r="K330" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L330" t="n">
         <v>700</v>
       </c>
       <c r="M330" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K331" t="n">
+        <v>500</v>
+      </c>
+      <c r="L331" t="n">
         <v>550</v>
       </c>
-      <c r="L331" t="n">
-        <v>600</v>
-      </c>
       <c r="M331" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -24261,7 +24261,7 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K332" t="n">
         <v>650</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -24333,7 +24333,7 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K333" t="n">
         <v>550</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -24405,7 +24405,7 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>2360</v>
+        <v>2800</v>
       </c>
       <c r="K334" t="n">
         <v>650</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K335" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L335" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M335" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>3400</v>
+        <v>2360</v>
       </c>
       <c r="K336" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L336" t="n">
         <v>700</v>
       </c>
       <c r="M336" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K337" t="n">
         <v>500</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K338" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L338" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M338" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K339" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L339" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M339" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="K340" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L340" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M340" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="K341" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L341" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M341" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="K342" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L342" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M342" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -25049,20 +25049,20 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>3400</v>
+        <v>1500</v>
       </c>
       <c r="K343" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L343" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M343" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K344" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L344" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M344" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K345" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L345" t="n">
         <v>700</v>
       </c>
       <c r="M345" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -25272,13 +25272,13 @@
         <v>1600</v>
       </c>
       <c r="K346" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L346" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M346" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -25341,7 +25341,7 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>13960</v>
+        <v>3200</v>
       </c>
       <c r="K347" t="n">
         <v>600</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25413,7 +25413,7 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>7500</v>
+        <v>1600</v>
       </c>
       <c r="K348" t="n">
         <v>500</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>3000</v>
+        <v>13960</v>
       </c>
       <c r="K349" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L349" t="n">
         <v>700</v>
       </c>
       <c r="M349" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -25557,7 +25557,7 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>1440</v>
+        <v>7500</v>
       </c>
       <c r="K350" t="n">
         <v>500</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K351" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L351" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M351" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1500</v>
+        <v>1440</v>
       </c>
       <c r="K352" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L352" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M352" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>2460</v>
+        <v>2200</v>
       </c>
       <c r="K353" t="n">
+        <v>550</v>
+      </c>
+      <c r="L353" t="n">
         <v>600</v>
       </c>
-      <c r="L353" t="n">
-        <v>700</v>
-      </c>
       <c r="M353" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K354" t="n">
+        <v>450</v>
+      </c>
+      <c r="L354" t="n">
         <v>500</v>
       </c>
-      <c r="L354" t="n">
-        <v>550</v>
-      </c>
       <c r="M354" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>3400</v>
+        <v>2460</v>
       </c>
       <c r="K355" t="n">
+        <v>600</v>
+      </c>
+      <c r="L355" t="n">
         <v>700</v>
       </c>
-      <c r="L355" t="n">
-        <v>750</v>
-      </c>
       <c r="M355" t="n">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K356" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L356" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M356" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K357" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L357" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M357" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K358" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L358" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M358" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -26277,7 +26277,7 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K360" t="n">
         <v>550</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -26349,7 +26349,7 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K361" t="n">
         <v>650</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -26424,13 +26424,13 @@
         <v>1800</v>
       </c>
       <c r="K362" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L362" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M362" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K363" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L363" t="n">
         <v>700</v>
       </c>
       <c r="M363" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26565,7 +26565,7 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="K364" t="n">
         <v>500</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="K365" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L365" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M365" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K366" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L366" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M366" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="K367" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L367" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M367" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K368" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L368" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M368" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K369" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L369" t="n">
         <v>700</v>
       </c>
       <c r="M369" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -27000,13 +27000,13 @@
         <v>1400</v>
       </c>
       <c r="K370" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L370" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M370" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -27069,7 +27069,7 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K371" t="n">
         <v>600</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -27141,7 +27141,7 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K372" t="n">
         <v>500</v>
@@ -27169,6 +27169,150 @@
         <v>1</v>
       </c>
       <c r="R372" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>8</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D373" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E373" t="n">
+        <v>4</v>
+      </c>
+      <c r="F373" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J373" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K373" t="n">
+        <v>600</v>
+      </c>
+      <c r="L373" t="n">
+        <v>700</v>
+      </c>
+      <c r="M373" t="n">
+        <v>650</v>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P373" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>1</v>
+      </c>
+      <c r="R373" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>8</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D374" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E374" t="n">
+        <v>4</v>
+      </c>
+      <c r="F374" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J374" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K374" t="n">
+        <v>500</v>
+      </c>
+      <c r="L374" t="n">
+        <v>550</v>
+      </c>
+      <c r="M374" t="n">
+        <v>525</v>
+      </c>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P374" t="n">
+        <v>525</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>1</v>
+      </c>
+      <c r="R374" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R374"/>
+  <dimension ref="A1:R376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44162</v>
+        <v>44453</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K82" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L82" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M82" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44162</v>
+        <v>44453</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K83" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L83" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M83" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44413</v>
+        <v>44162</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K84" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L84" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M84" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44413</v>
+        <v>44162</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K85" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L85" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M85" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44202</v>
+        <v>44413</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K86" t="n">
         <v>650</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44202</v>
+        <v>44413</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K87" t="n">
         <v>550</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44323</v>
+        <v>44202</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,7 +6693,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>3440</v>
+        <v>2800</v>
       </c>
       <c r="K88" t="n">
         <v>650</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44323</v>
+        <v>44202</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1660</v>
+        <v>1600</v>
       </c>
       <c r="K89" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L89" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M89" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44165</v>
+        <v>44323</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>2800</v>
+        <v>3440</v>
       </c>
       <c r="K90" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L90" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M90" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44165</v>
+        <v>44323</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1560</v>
+        <v>1660</v>
       </c>
       <c r="K91" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L91" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M91" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44242</v>
+        <v>44165</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K92" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L92" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M92" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44242</v>
+        <v>44165</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7056,13 +7056,13 @@
         <v>1560</v>
       </c>
       <c r="K93" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L93" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M93" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44169</v>
+        <v>44242</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K94" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L94" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M94" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44169</v>
+        <v>44242</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K95" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L95" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M95" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44216</v>
+        <v>44169</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K96" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L96" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M96" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44216</v>
+        <v>44169</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K97" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L97" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M97" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44405</v>
+        <v>44216</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,7 +7413,7 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K98" t="n">
         <v>600</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44405</v>
+        <v>44216</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44260</v>
+        <v>44405</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7560,13 +7560,13 @@
         <v>3400</v>
       </c>
       <c r="K100" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L100" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M100" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44260</v>
+        <v>44405</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1720</v>
+        <v>1800</v>
       </c>
       <c r="K101" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L101" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M101" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44281</v>
+        <v>44260</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7704,13 +7704,13 @@
         <v>3400</v>
       </c>
       <c r="K102" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L102" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M102" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44281</v>
+        <v>44260</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1680</v>
+        <v>1720</v>
       </c>
       <c r="K103" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L103" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M103" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44308</v>
+        <v>44281</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K104" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L104" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M104" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44308</v>
+        <v>44281</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1320</v>
+        <v>1680</v>
       </c>
       <c r="K105" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L105" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M105" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44271</v>
+        <v>44308</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7992,13 +7992,13 @@
         <v>2400</v>
       </c>
       <c r="K106" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L106" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M106" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44271</v>
+        <v>44308</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1400</v>
+        <v>1320</v>
       </c>
       <c r="K107" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L107" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M107" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44363</v>
+        <v>44271</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>3340</v>
+        <v>2400</v>
       </c>
       <c r="K108" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L108" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M108" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44363</v>
+        <v>44271</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1860</v>
+        <v>1400</v>
       </c>
       <c r="K109" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L109" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M109" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44229</v>
+        <v>44363</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>2400</v>
+        <v>3340</v>
       </c>
       <c r="K110" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L110" t="n">
         <v>700</v>
       </c>
       <c r="M110" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44229</v>
+        <v>44363</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1300</v>
+        <v>1860</v>
       </c>
       <c r="K111" t="n">
+        <v>500</v>
+      </c>
+      <c r="L111" t="n">
         <v>550</v>
       </c>
-      <c r="L111" t="n">
-        <v>600</v>
-      </c>
       <c r="M111" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44431</v>
+        <v>44229</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="K112" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L112" t="n">
         <v>700</v>
       </c>
       <c r="M112" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44431</v>
+        <v>44229</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1460</v>
+        <v>1300</v>
       </c>
       <c r="K113" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L113" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M113" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44189</v>
+        <v>44431</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K114" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L114" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M114" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44189</v>
+        <v>44431</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="K115" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L115" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M115" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,7 +8709,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K116" t="n">
         <v>550</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,7 +8781,7 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K117" t="n">
         <v>450</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44231</v>
+        <v>44181</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K118" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L118" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M118" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44231</v>
+        <v>44181</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K119" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L119" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M119" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44355</v>
+        <v>44231</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -9000,13 +9000,13 @@
         <v>2400</v>
       </c>
       <c r="K120" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L120" t="n">
         <v>700</v>
       </c>
       <c r="M120" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44355</v>
+        <v>44231</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K121" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L121" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M121" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9141,7 +9141,7 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>3360</v>
+        <v>2400</v>
       </c>
       <c r="K122" t="n">
         <v>600</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9213,7 +9213,7 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="K123" t="n">
         <v>500</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44246</v>
+        <v>44372</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>3200</v>
+        <v>3360</v>
       </c>
       <c r="K124" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L124" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M124" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44246</v>
+        <v>44372</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9360,13 +9360,13 @@
         <v>1600</v>
       </c>
       <c r="K125" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L125" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M125" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44203</v>
+        <v>44246</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K126" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L126" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M126" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44203</v>
+        <v>44246</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K127" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L127" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M127" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44230</v>
+        <v>44203</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9573,7 +9573,7 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="K128" t="n">
         <v>650</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44230</v>
+        <v>44203</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9645,7 +9645,7 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K129" t="n">
         <v>550</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44239</v>
+        <v>44230</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44239</v>
+        <v>44230</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9789,7 +9789,7 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K131" t="n">
         <v>550</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44418</v>
+        <v>44239</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9861,7 +9861,7 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="K132" t="n">
         <v>650</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44418</v>
+        <v>44239</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9933,7 +9933,7 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K133" t="n">
         <v>550</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44312</v>
+        <v>44418</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10005,7 +10005,7 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K134" t="n">
         <v>650</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44312</v>
+        <v>44418</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10077,7 +10077,7 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K135" t="n">
         <v>550</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44172</v>
+        <v>44312</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K136" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L136" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M136" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44172</v>
+        <v>44312</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>1520</v>
+        <v>1480</v>
       </c>
       <c r="K137" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L137" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M137" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44258</v>
+        <v>44172</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="K138" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L138" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M138" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44258</v>
+        <v>44172</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>2000</v>
+        <v>1520</v>
       </c>
       <c r="K139" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L139" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M139" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44174</v>
+        <v>44258</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K140" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L140" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M140" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44174</v>
+        <v>44258</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1560</v>
+        <v>2000</v>
       </c>
       <c r="K141" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L141" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M141" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44407</v>
+        <v>44174</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K142" t="n">
+        <v>550</v>
+      </c>
+      <c r="L142" t="n">
         <v>600</v>
       </c>
-      <c r="L142" t="n">
-        <v>700</v>
-      </c>
       <c r="M142" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44407</v>
+        <v>44174</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K143" t="n">
+        <v>450</v>
+      </c>
+      <c r="L143" t="n">
         <v>500</v>
       </c>
-      <c r="L143" t="n">
-        <v>550</v>
-      </c>
       <c r="M143" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44410</v>
+        <v>44407</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K144" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L144" t="n">
         <v>700</v>
       </c>
       <c r="M144" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44410</v>
+        <v>44407</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K145" t="n">
+        <v>500</v>
+      </c>
+      <c r="L145" t="n">
         <v>550</v>
       </c>
-      <c r="L145" t="n">
-        <v>600</v>
-      </c>
       <c r="M145" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44284</v>
+        <v>44410</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="K146" t="n">
         <v>650</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44284</v>
+        <v>44410</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K147" t="n">
         <v>550</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44236</v>
+        <v>44284</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11013,7 +11013,7 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K148" t="n">
         <v>650</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44236</v>
+        <v>44284</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11085,7 +11085,7 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K149" t="n">
         <v>550</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44159</v>
+        <v>44236</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K150" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L150" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M150" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44159</v>
+        <v>44236</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K151" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L151" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M151" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44245</v>
+        <v>44159</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K152" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="L152" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M152" t="n">
-        <v>875</v>
+        <v>475</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>875</v>
+        <v>475</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44245</v>
+        <v>44159</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K153" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="L153" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M153" t="n">
-        <v>775</v>
+        <v>375</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>775</v>
+        <v>375</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44330</v>
+        <v>44245</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K154" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L154" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M154" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44330</v>
+        <v>44245</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>1680</v>
+        <v>1480</v>
       </c>
       <c r="K155" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L155" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M155" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11661,7 +11661,7 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1800</v>
+        <v>1680</v>
       </c>
       <c r="K157" t="n">
         <v>500</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44187</v>
+        <v>44328</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K158" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L158" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M158" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44187</v>
+        <v>44328</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K159" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L159" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M159" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44343</v>
+        <v>44187</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11880,13 +11880,13 @@
         <v>2400</v>
       </c>
       <c r="K160" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L160" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M160" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44343</v>
+        <v>44187</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>1340</v>
+        <v>1400</v>
       </c>
       <c r="K161" t="n">
+        <v>450</v>
+      </c>
+      <c r="L161" t="n">
         <v>500</v>
       </c>
-      <c r="L161" t="n">
-        <v>550</v>
-      </c>
       <c r="M161" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44293</v>
+        <v>44343</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K162" t="n">
         <v>650</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44293</v>
+        <v>44343</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>1800</v>
+        <v>1340</v>
       </c>
       <c r="K163" t="n">
+        <v>500</v>
+      </c>
+      <c r="L163" t="n">
         <v>550</v>
       </c>
-      <c r="L163" t="n">
-        <v>600</v>
-      </c>
       <c r="M163" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44344</v>
+        <v>44293</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44344</v>
+        <v>44293</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K165" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L165" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M165" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44195</v>
+        <v>44344</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K166" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L166" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M166" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44195</v>
+        <v>44344</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12384,13 +12384,13 @@
         <v>1600</v>
       </c>
       <c r="K167" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L167" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M167" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44320</v>
+        <v>44195</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>2680</v>
+        <v>2800</v>
       </c>
       <c r="K168" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L168" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M168" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44320</v>
+        <v>44195</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K169" t="n">
+        <v>450</v>
+      </c>
+      <c r="L169" t="n">
         <v>500</v>
       </c>
-      <c r="L169" t="n">
-        <v>550</v>
-      </c>
       <c r="M169" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44209</v>
+        <v>44320</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>3200</v>
+        <v>2680</v>
       </c>
       <c r="K170" t="n">
         <v>650</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44209</v>
+        <v>44320</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K171" t="n">
         <v>500</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44396</v>
+        <v>44209</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>3080</v>
+        <v>3200</v>
       </c>
       <c r="K172" t="n">
+        <v>650</v>
+      </c>
+      <c r="L172" t="n">
         <v>700</v>
       </c>
-      <c r="L172" t="n">
-        <v>800</v>
-      </c>
       <c r="M172" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44396</v>
+        <v>44209</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K173" t="n">
         <v>500</v>
       </c>
       <c r="L173" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M173" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44278</v>
+        <v>44396</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>2600</v>
+        <v>3080</v>
       </c>
       <c r="K174" t="n">
         <v>700</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44278</v>
+        <v>44396</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12960,13 +12960,13 @@
         <v>1400</v>
       </c>
       <c r="K175" t="n">
+        <v>500</v>
+      </c>
+      <c r="L175" t="n">
         <v>600</v>
       </c>
-      <c r="L175" t="n">
-        <v>650</v>
-      </c>
       <c r="M175" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44406</v>
+        <v>44278</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K176" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L176" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M176" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44406</v>
+        <v>44278</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13104,13 +13104,13 @@
         <v>1400</v>
       </c>
       <c r="K177" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L177" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M177" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13173,7 +13173,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K178" t="n">
         <v>600</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13245,7 +13245,7 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K179" t="n">
         <v>500</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44250</v>
+        <v>44385</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="K180" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L180" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M180" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44250</v>
+        <v>44385</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="K181" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L181" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M181" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44221</v>
+        <v>44250</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="K182" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L182" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M182" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44221</v>
+        <v>44250</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K183" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L183" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M183" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44334</v>
+        <v>44221</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13605,7 +13605,7 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K184" t="n">
         <v>650</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44334</v>
+        <v>44221</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K185" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L185" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M185" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44299</v>
+        <v>44334</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13749,7 +13749,7 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="K186" t="n">
         <v>650</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44299</v>
+        <v>44334</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K187" t="n">
+        <v>500</v>
+      </c>
+      <c r="L187" t="n">
         <v>550</v>
       </c>
-      <c r="L187" t="n">
-        <v>600</v>
-      </c>
       <c r="M187" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44340</v>
+        <v>44299</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13893,7 +13893,7 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>3080</v>
+        <v>2600</v>
       </c>
       <c r="K188" t="n">
         <v>650</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44340</v>
+        <v>44299</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K189" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L189" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M189" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44200</v>
+        <v>44340</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14037,7 +14037,7 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>3000</v>
+        <v>3080</v>
       </c>
       <c r="K190" t="n">
         <v>650</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44200</v>
+        <v>44340</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K191" t="n">
+        <v>500</v>
+      </c>
+      <c r="L191" t="n">
         <v>550</v>
       </c>
-      <c r="L191" t="n">
-        <v>600</v>
-      </c>
       <c r="M191" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44265</v>
+        <v>44200</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="K192" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L192" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M192" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44265</v>
+        <v>44200</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K193" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L193" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M193" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44186</v>
+        <v>44265</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="K194" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L194" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M194" t="n">
-        <v>575</v>
+        <v>850</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>575</v>
+        <v>850</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44186</v>
+        <v>44265</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>1560</v>
+        <v>1800</v>
       </c>
       <c r="K195" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L195" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M195" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44252</v>
+        <v>44186</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>1460</v>
+        <v>2800</v>
       </c>
       <c r="K196" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L196" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M196" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44371</v>
+        <v>44186</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>2200</v>
+        <v>1560</v>
       </c>
       <c r="K197" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L197" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M197" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44371</v>
+        <v>44252</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>1380</v>
+        <v>1460</v>
       </c>
       <c r="K198" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L198" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M198" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44419</v>
+        <v>44371</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="K199" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L199" t="n">
         <v>700</v>
       </c>
       <c r="M199" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44419</v>
+        <v>44371</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>1700</v>
+        <v>1380</v>
       </c>
       <c r="K200" t="n">
+        <v>500</v>
+      </c>
+      <c r="L200" t="n">
         <v>550</v>
       </c>
-      <c r="L200" t="n">
-        <v>600</v>
-      </c>
       <c r="M200" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44370</v>
+        <v>44419</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K201" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L201" t="n">
         <v>700</v>
       </c>
       <c r="M201" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44370</v>
+        <v>44419</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K202" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L202" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M202" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44447</v>
+        <v>44370</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14973,7 +14973,7 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K203" t="n">
         <v>600</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44447</v>
+        <v>44370</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15045,7 +15045,7 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K204" t="n">
         <v>500</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15120,13 +15120,13 @@
         <v>3000</v>
       </c>
       <c r="K205" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L205" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M205" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K206" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L206" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M206" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K207" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L207" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M207" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K208" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L208" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M208" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15408,13 +15408,13 @@
         <v>2600</v>
       </c>
       <c r="K209" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L209" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M209" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="K210" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L210" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M210" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="K211" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L211" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M211" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>1800</v>
+        <v>1440</v>
       </c>
       <c r="K212" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L212" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M212" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K213" t="n">
+        <v>650</v>
+      </c>
+      <c r="L213" t="n">
         <v>700</v>
       </c>
-      <c r="L213" t="n">
-        <v>800</v>
-      </c>
       <c r="M213" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K214" t="n">
+        <v>550</v>
+      </c>
+      <c r="L214" t="n">
         <v>600</v>
       </c>
-      <c r="L214" t="n">
-        <v>650</v>
-      </c>
       <c r="M214" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="K215" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L215" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M215" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K216" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L216" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M216" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K217" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L217" t="n">
         <v>700</v>
       </c>
       <c r="M217" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16053,7 +16053,7 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>1540</v>
+        <v>1360</v>
       </c>
       <c r="K218" t="n">
         <v>500</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16125,7 +16125,7 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K219" t="n">
         <v>650</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16197,7 +16197,7 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>1520</v>
+        <v>1540</v>
       </c>
       <c r="K220" t="n">
         <v>500</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16269,7 +16269,7 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K221" t="n">
         <v>650</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>1640</v>
+        <v>1520</v>
       </c>
       <c r="K222" t="n">
+        <v>500</v>
+      </c>
+      <c r="L222" t="n">
         <v>550</v>
       </c>
-      <c r="L222" t="n">
-        <v>600</v>
-      </c>
       <c r="M222" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K223" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L223" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M223" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>1560</v>
+        <v>1640</v>
       </c>
       <c r="K224" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L224" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M224" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K225" t="n">
+        <v>550</v>
+      </c>
+      <c r="L225" t="n">
         <v>600</v>
       </c>
-      <c r="L225" t="n">
-        <v>700</v>
-      </c>
       <c r="M225" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K226" t="n">
+        <v>450</v>
+      </c>
+      <c r="L226" t="n">
         <v>500</v>
       </c>
-      <c r="L226" t="n">
-        <v>550</v>
-      </c>
       <c r="M226" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="K227" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L227" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M227" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K228" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L228" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M228" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K229" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L229" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M229" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>1680</v>
+        <v>1560</v>
       </c>
       <c r="K230" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L230" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M230" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="K231" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L231" t="n">
         <v>700</v>
       </c>
       <c r="M231" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>2000</v>
+        <v>1680</v>
       </c>
       <c r="K232" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L232" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M232" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>2200</v>
+        <v>3600</v>
       </c>
       <c r="K233" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L233" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M233" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K234" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L234" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M234" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>2460</v>
+        <v>2200</v>
       </c>
       <c r="K235" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L235" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M235" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K236" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L236" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M236" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>3400</v>
+        <v>2460</v>
       </c>
       <c r="K237" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L237" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M237" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K238" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L238" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M238" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K239" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L239" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M239" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K240" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L240" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M240" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K241" t="n">
+        <v>550</v>
+      </c>
+      <c r="L241" t="n">
         <v>600</v>
       </c>
-      <c r="L241" t="n">
-        <v>700</v>
-      </c>
       <c r="M241" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K242" t="n">
+        <v>450</v>
+      </c>
+      <c r="L242" t="n">
         <v>500</v>
       </c>
-      <c r="L242" t="n">
-        <v>550</v>
-      </c>
       <c r="M242" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K243" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L243" t="n">
         <v>700</v>
       </c>
       <c r="M243" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17928,13 +17928,13 @@
         <v>1600</v>
       </c>
       <c r="K244" t="n">
+        <v>500</v>
+      </c>
+      <c r="L244" t="n">
         <v>550</v>
       </c>
-      <c r="L244" t="n">
-        <v>600</v>
-      </c>
       <c r="M244" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44452</v>
+        <v>44235</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K245" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L245" t="n">
         <v>700</v>
       </c>
       <c r="M245" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44452</v>
+        <v>44235</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K246" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L246" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M246" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18141,7 +18141,7 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>3360</v>
+        <v>3000</v>
       </c>
       <c r="K247" t="n">
         <v>600</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18213,7 +18213,7 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K248" t="n">
         <v>500</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>3000</v>
+        <v>3360</v>
       </c>
       <c r="K249" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L249" t="n">
         <v>700</v>
       </c>
       <c r="M249" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18357,7 +18357,7 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="K250" t="n">
         <v>500</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>3160</v>
+        <v>3000</v>
       </c>
       <c r="K251" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L251" t="n">
         <v>700</v>
       </c>
       <c r="M251" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>2000</v>
+        <v>3160</v>
       </c>
       <c r="K253" t="n">
+        <v>600</v>
+      </c>
+      <c r="L253" t="n">
         <v>700</v>
       </c>
-      <c r="L253" t="n">
-        <v>800</v>
-      </c>
       <c r="M253" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="K254" t="n">
         <v>500</v>
       </c>
       <c r="L254" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M254" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K255" t="n">
+        <v>700</v>
+      </c>
+      <c r="L255" t="n">
         <v>800</v>
       </c>
-      <c r="L255" t="n">
-        <v>900</v>
-      </c>
       <c r="M255" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>1680</v>
+        <v>1440</v>
       </c>
       <c r="K256" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L256" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M256" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18864,13 +18864,13 @@
         <v>3400</v>
       </c>
       <c r="K257" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L257" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M257" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>1800</v>
+        <v>1680</v>
       </c>
       <c r="K258" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L258" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M258" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19005,7 +19005,7 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K259" t="n">
         <v>650</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K260" t="n">
+        <v>500</v>
+      </c>
+      <c r="L260" t="n">
         <v>550</v>
       </c>
-      <c r="L260" t="n">
-        <v>600</v>
-      </c>
       <c r="M260" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K261" t="n">
         <v>650</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K262" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L262" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M262" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19293,7 +19293,7 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>3160</v>
+        <v>3400</v>
       </c>
       <c r="K263" t="n">
         <v>650</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>1640</v>
+        <v>1800</v>
       </c>
       <c r="K264" t="n">
+        <v>500</v>
+      </c>
+      <c r="L264" t="n">
         <v>550</v>
       </c>
-      <c r="L264" t="n">
-        <v>600</v>
-      </c>
       <c r="M264" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19437,7 +19437,7 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>3400</v>
+        <v>3160</v>
       </c>
       <c r="K265" t="n">
         <v>650</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19509,7 +19509,7 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>1600</v>
+        <v>1640</v>
       </c>
       <c r="K266" t="n">
         <v>550</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K267" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L267" t="n">
         <v>700</v>
       </c>
       <c r="M267" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K268" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L268" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M268" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19725,17 +19725,17 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K269" t="n">
         <v>600</v>
       </c>
       <c r="L269" t="n">
+        <v>700</v>
+      </c>
+      <c r="M269" t="n">
         <v>650</v>
       </c>
-      <c r="M269" t="n">
-        <v>625</v>
-      </c>
       <c r="N269" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19797,7 +19797,7 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>1460</v>
+        <v>1400</v>
       </c>
       <c r="K270" t="n">
         <v>500</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K271" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L271" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M271" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K272" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L272" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M272" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K273" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L273" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M273" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K274" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L274" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M274" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="K275" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L275" t="n">
         <v>700</v>
       </c>
       <c r="M275" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>1720</v>
+        <v>1500</v>
       </c>
       <c r="K276" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L276" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M276" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K277" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L277" t="n">
         <v>700</v>
       </c>
       <c r="M277" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>1400</v>
+        <v>1720</v>
       </c>
       <c r="K278" t="n">
+        <v>500</v>
+      </c>
+      <c r="L278" t="n">
         <v>550</v>
       </c>
-      <c r="L278" t="n">
-        <v>600</v>
-      </c>
       <c r="M278" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="K279" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L279" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M279" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K280" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L280" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M280" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>2560</v>
+        <v>3000</v>
       </c>
       <c r="K281" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L281" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M281" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1480</v>
+        <v>1560</v>
       </c>
       <c r="K282" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L282" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M282" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>3200</v>
+        <v>2560</v>
       </c>
       <c r="K283" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L283" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M283" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K284" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L284" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M284" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K285" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L285" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M285" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K286" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L286" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M286" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K287" t="n">
         <v>650</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -21093,7 +21093,7 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>1560</v>
+        <v>1700</v>
       </c>
       <c r="K288" t="n">
         <v>500</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K289" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L289" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M289" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>2200</v>
+        <v>1560</v>
       </c>
       <c r="K290" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L290" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M290" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="K291" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L291" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M291" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -21381,7 +21381,7 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>2560</v>
+        <v>2200</v>
       </c>
       <c r="K292" t="n">
         <v>650</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K293" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L293" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M293" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -21525,7 +21525,7 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>3400</v>
+        <v>2560</v>
       </c>
       <c r="K294" t="n">
         <v>650</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K295" t="n">
+        <v>500</v>
+      </c>
+      <c r="L295" t="n">
         <v>550</v>
       </c>
-      <c r="L295" t="n">
-        <v>600</v>
-      </c>
       <c r="M295" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -21669,7 +21669,7 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K296" t="n">
         <v>650</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -21741,7 +21741,7 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K297" t="n">
         <v>550</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="K298" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L298" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M298" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K299" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L299" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M299" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K300" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L300" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M300" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K301" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L301" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M301" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K302" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L302" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M302" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K303" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L303" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M303" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="K304" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L304" t="n">
         <v>700</v>
       </c>
       <c r="M304" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K305" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L305" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M305" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="K306" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L306" t="n">
         <v>700</v>
       </c>
       <c r="M306" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K307" t="n">
+        <v>500</v>
+      </c>
+      <c r="L307" t="n">
         <v>550</v>
       </c>
-      <c r="L307" t="n">
-        <v>600</v>
-      </c>
       <c r="M307" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="K308" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L308" t="n">
         <v>700</v>
       </c>
       <c r="M308" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="K309" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L309" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M309" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K310" t="n">
         <v>600</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -22749,7 +22749,7 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K311" t="n">
         <v>500</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K312" t="n">
         <v>600</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -22893,7 +22893,7 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K313" t="n">
         <v>500</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K314" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L314" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M314" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K315" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L315" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M315" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -23112,13 +23112,13 @@
         <v>2600</v>
       </c>
       <c r="K316" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L316" t="n">
         <v>900</v>
       </c>
       <c r="M316" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K317" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L317" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M317" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>3360</v>
+        <v>2600</v>
       </c>
       <c r="K318" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L318" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M318" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K319" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L319" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M319" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -23397,7 +23397,7 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>2400</v>
+        <v>3360</v>
       </c>
       <c r="K320" t="n">
         <v>650</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>1360</v>
+        <v>1800</v>
       </c>
       <c r="K321" t="n">
+        <v>500</v>
+      </c>
+      <c r="L321" t="n">
         <v>550</v>
       </c>
-      <c r="L321" t="n">
-        <v>600</v>
-      </c>
       <c r="M321" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K322" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L322" t="n">
         <v>700</v>
       </c>
       <c r="M322" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K323" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L323" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M323" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -23688,13 +23688,13 @@
         <v>3400</v>
       </c>
       <c r="K324" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L324" t="n">
         <v>700</v>
       </c>
       <c r="M324" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K325" t="n">
+        <v>500</v>
+      </c>
+      <c r="L325" t="n">
         <v>550</v>
       </c>
-      <c r="L325" t="n">
-        <v>600</v>
-      </c>
       <c r="M325" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -23829,7 +23829,7 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K326" t="n">
         <v>650</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>1360</v>
+        <v>1700</v>
       </c>
       <c r="K327" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L327" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M327" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K328" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L328" t="n">
         <v>700</v>
       </c>
       <c r="M328" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K329" t="n">
         <v>500</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -24117,7 +24117,7 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K330" t="n">
         <v>600</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -24189,7 +24189,7 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="K331" t="n">
         <v>500</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -24264,13 +24264,13 @@
         <v>2000</v>
       </c>
       <c r="K332" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L332" t="n">
         <v>700</v>
       </c>
       <c r="M332" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K333" t="n">
+        <v>500</v>
+      </c>
+      <c r="L333" t="n">
         <v>550</v>
       </c>
-      <c r="L333" t="n">
-        <v>600</v>
-      </c>
       <c r="M333" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -24405,7 +24405,7 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="K334" t="n">
         <v>650</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -24477,7 +24477,7 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K335" t="n">
         <v>550</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -24549,7 +24549,7 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>2360</v>
+        <v>2800</v>
       </c>
       <c r="K336" t="n">
         <v>650</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K337" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L337" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M337" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>3400</v>
+        <v>2360</v>
       </c>
       <c r="K338" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L338" t="n">
         <v>700</v>
       </c>
       <c r="M338" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -24765,7 +24765,7 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K339" t="n">
         <v>500</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K340" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L340" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M340" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K341" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L341" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M341" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="K342" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L342" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M342" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="K343" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L343" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M343" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -25121,20 +25121,20 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="K344" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L344" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M344" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -25193,20 +25193,20 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>3400</v>
+        <v>1500</v>
       </c>
       <c r="K345" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L345" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M345" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K346" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L346" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M346" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K347" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L347" t="n">
         <v>700</v>
       </c>
       <c r="M347" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25416,13 +25416,13 @@
         <v>1600</v>
       </c>
       <c r="K348" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L348" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M348" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -25485,7 +25485,7 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>13960</v>
+        <v>3200</v>
       </c>
       <c r="K349" t="n">
         <v>600</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -25557,7 +25557,7 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>7500</v>
+        <v>1600</v>
       </c>
       <c r="K350" t="n">
         <v>500</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>3000</v>
+        <v>13960</v>
       </c>
       <c r="K351" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L351" t="n">
         <v>700</v>
       </c>
       <c r="M351" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -25701,7 +25701,7 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1440</v>
+        <v>7500</v>
       </c>
       <c r="K352" t="n">
         <v>500</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K353" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L353" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M353" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>1500</v>
+        <v>1440</v>
       </c>
       <c r="K354" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L354" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M354" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>2460</v>
+        <v>2200</v>
       </c>
       <c r="K355" t="n">
+        <v>550</v>
+      </c>
+      <c r="L355" t="n">
         <v>600</v>
       </c>
-      <c r="L355" t="n">
-        <v>700</v>
-      </c>
       <c r="M355" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K356" t="n">
+        <v>450</v>
+      </c>
+      <c r="L356" t="n">
         <v>500</v>
       </c>
-      <c r="L356" t="n">
-        <v>550</v>
-      </c>
       <c r="M356" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>3400</v>
+        <v>2460</v>
       </c>
       <c r="K357" t="n">
+        <v>600</v>
+      </c>
+      <c r="L357" t="n">
         <v>700</v>
       </c>
-      <c r="L357" t="n">
-        <v>750</v>
-      </c>
       <c r="M357" t="n">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>725</v>
+        <v>650</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K358" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L358" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M358" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K359" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L359" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M359" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K360" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L360" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M360" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K362" t="n">
         <v>550</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -26493,7 +26493,7 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K363" t="n">
         <v>650</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26568,13 +26568,13 @@
         <v>1800</v>
       </c>
       <c r="K364" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L364" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M364" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K365" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L365" t="n">
         <v>700</v>
       </c>
       <c r="M365" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -26709,7 +26709,7 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="K366" t="n">
         <v>500</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="K367" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L367" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M367" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K368" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L368" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M368" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="K369" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L369" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M369" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K370" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L370" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M370" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K371" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L371" t="n">
         <v>700</v>
       </c>
       <c r="M371" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -27144,13 +27144,13 @@
         <v>1400</v>
       </c>
       <c r="K372" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L372" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M372" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -27213,7 +27213,7 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K373" t="n">
         <v>600</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -27285,7 +27285,7 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K374" t="n">
         <v>500</v>
@@ -27313,6 +27313,150 @@
         <v>1</v>
       </c>
       <c r="R374" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>8</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D375" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E375" t="n">
+        <v>4</v>
+      </c>
+      <c r="F375" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J375" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K375" t="n">
+        <v>600</v>
+      </c>
+      <c r="L375" t="n">
+        <v>700</v>
+      </c>
+      <c r="M375" t="n">
+        <v>650</v>
+      </c>
+      <c r="N375" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P375" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>1</v>
+      </c>
+      <c r="R375" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>8</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D376" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E376" t="n">
+        <v>4</v>
+      </c>
+      <c r="F376" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J376" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K376" t="n">
+        <v>500</v>
+      </c>
+      <c r="L376" t="n">
+        <v>550</v>
+      </c>
+      <c r="M376" t="n">
+        <v>525</v>
+      </c>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P376" t="n">
+        <v>525</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>1</v>
+      </c>
+      <c r="R376" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R378"/>
+  <dimension ref="A1:R380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K251" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L251" t="n">
         <v>700</v>
       </c>
       <c r="M251" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18504,13 +18504,13 @@
         <v>1400</v>
       </c>
       <c r="K252" t="n">
+        <v>500</v>
+      </c>
+      <c r="L252" t="n">
         <v>550</v>
       </c>
-      <c r="L252" t="n">
-        <v>600</v>
-      </c>
       <c r="M252" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18573,7 +18573,7 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K253" t="n">
         <v>650</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18645,7 +18645,7 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K254" t="n">
         <v>550</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K255" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L255" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M255" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="K256" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L256" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M256" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K257" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L257" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M257" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K258" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L258" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M258" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="K259" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L259" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M259" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>1520</v>
+        <v>1400</v>
       </c>
       <c r="K260" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L260" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M260" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="K261" t="n">
+        <v>550</v>
+      </c>
+      <c r="L261" t="n">
         <v>600</v>
       </c>
-      <c r="L261" t="n">
-        <v>700</v>
-      </c>
       <c r="M261" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>1400</v>
+        <v>1520</v>
       </c>
       <c r="K262" t="n">
+        <v>450</v>
+      </c>
+      <c r="L262" t="n">
         <v>500</v>
       </c>
-      <c r="L262" t="n">
-        <v>550</v>
-      </c>
       <c r="M262" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K263" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L263" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M263" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K264" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L264" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M264" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="K265" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L265" t="n">
         <v>900</v>
       </c>
       <c r="M265" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>1800</v>
+        <v>1560</v>
       </c>
       <c r="K266" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L266" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M266" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="K267" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L267" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M267" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>1340</v>
+        <v>1800</v>
       </c>
       <c r="K268" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L268" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M268" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19725,7 +19725,7 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K269" t="n">
         <v>650</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>1400</v>
+        <v>1340</v>
       </c>
       <c r="K270" t="n">
+        <v>500</v>
+      </c>
+      <c r="L270" t="n">
         <v>550</v>
       </c>
-      <c r="L270" t="n">
-        <v>600</v>
-      </c>
       <c r="M270" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="K271" t="n">
+        <v>650</v>
+      </c>
+      <c r="L271" t="n">
         <v>700</v>
       </c>
-      <c r="L271" t="n">
-        <v>750</v>
-      </c>
       <c r="M271" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19944,13 +19944,13 @@
         <v>1400</v>
       </c>
       <c r="K272" t="n">
+        <v>550</v>
+      </c>
+      <c r="L272" t="n">
         <v>600</v>
       </c>
-      <c r="L272" t="n">
-        <v>650</v>
-      </c>
       <c r="M272" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K273" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L273" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M273" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K274" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L274" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M274" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K275" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L275" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M275" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K276" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L276" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M276" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -20301,7 +20301,7 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K277" t="n">
         <v>850</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -20373,7 +20373,7 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>1720</v>
+        <v>1360</v>
       </c>
       <c r="K278" t="n">
         <v>750</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -20445,7 +20445,7 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K279" t="n">
         <v>850</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -20517,7 +20517,7 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>1400</v>
+        <v>1720</v>
       </c>
       <c r="K280" t="n">
         <v>750</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -20592,13 +20592,13 @@
         <v>3000</v>
       </c>
       <c r="K281" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L281" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M281" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K282" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L282" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M282" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K283" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L283" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M283" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K284" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L284" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M284" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K285" t="n">
+        <v>550</v>
+      </c>
+      <c r="L285" t="n">
         <v>600</v>
       </c>
-      <c r="L285" t="n">
-        <v>700</v>
-      </c>
       <c r="M285" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -20952,13 +20952,13 @@
         <v>1400</v>
       </c>
       <c r="K286" t="n">
+        <v>450</v>
+      </c>
+      <c r="L286" t="n">
         <v>500</v>
       </c>
-      <c r="L286" t="n">
-        <v>550</v>
-      </c>
       <c r="M286" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>3340</v>
+        <v>2000</v>
       </c>
       <c r="K287" t="n">
         <v>600</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -21093,7 +21093,7 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K288" t="n">
         <v>500</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>2400</v>
+        <v>3340</v>
       </c>
       <c r="K289" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L289" t="n">
         <v>700</v>
       </c>
       <c r="M289" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>1320</v>
+        <v>1600</v>
       </c>
       <c r="K290" t="n">
+        <v>500</v>
+      </c>
+      <c r="L290" t="n">
         <v>550</v>
       </c>
-      <c r="L290" t="n">
-        <v>600</v>
-      </c>
       <c r="M290" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K291" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L291" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M291" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>1560</v>
+        <v>1320</v>
       </c>
       <c r="K292" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L292" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M292" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K293" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L293" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M293" t="n">
-        <v>575</v>
+        <v>850</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>575</v>
+        <v>850</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>1500</v>
+        <v>1560</v>
       </c>
       <c r="K294" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L294" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M294" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K295" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L295" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M295" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K296" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L296" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M296" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K297" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L297" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M297" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>2400</v>
+        <v>1360</v>
       </c>
       <c r="K298" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L298" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M298" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>1440</v>
+        <v>2000</v>
       </c>
       <c r="K299" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L299" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M299" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -21953,20 +21953,20 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>1460</v>
+        <v>2400</v>
       </c>
       <c r="K300" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L300" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M300" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>2000</v>
+        <v>1440</v>
       </c>
       <c r="K301" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L301" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M301" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K302" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L302" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M302" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -22173,7 +22173,7 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K303" t="n">
         <v>450</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -22245,7 +22245,7 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K304" t="n">
         <v>350</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K305" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L305" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M305" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K306" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L306" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M306" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -22461,7 +22461,7 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>3160</v>
+        <v>2000</v>
       </c>
       <c r="K307" t="n">
         <v>600</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -22533,7 +22533,7 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>1640</v>
+        <v>1400</v>
       </c>
       <c r="K308" t="n">
         <v>500</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>3000</v>
+        <v>3160</v>
       </c>
       <c r="K309" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L309" t="n">
         <v>700</v>
       </c>
       <c r="M309" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>1600</v>
+        <v>1640</v>
       </c>
       <c r="K310" t="n">
+        <v>500</v>
+      </c>
+      <c r="L310" t="n">
         <v>550</v>
       </c>
-      <c r="L310" t="n">
-        <v>600</v>
-      </c>
       <c r="M310" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K311" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L311" t="n">
         <v>700</v>
       </c>
       <c r="M311" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>1380</v>
+        <v>1600</v>
       </c>
       <c r="K312" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L312" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M312" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K313" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L313" t="n">
         <v>700</v>
       </c>
       <c r="M313" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -22965,7 +22965,7 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>1700</v>
+        <v>1380</v>
       </c>
       <c r="K314" t="n">
         <v>500</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -23040,13 +23040,13 @@
         <v>3400</v>
       </c>
       <c r="K315" t="n">
+        <v>650</v>
+      </c>
+      <c r="L315" t="n">
         <v>700</v>
       </c>
-      <c r="L315" t="n">
-        <v>750</v>
-      </c>
       <c r="M315" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K316" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L316" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M316" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K317" t="n">
         <v>700</v>
       </c>
       <c r="L317" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M317" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>1440</v>
+        <v>1800</v>
       </c>
       <c r="K318" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L318" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M318" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>3340</v>
+        <v>2000</v>
       </c>
       <c r="K319" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L319" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M319" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -23397,17 +23397,17 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>1860</v>
+        <v>1440</v>
       </c>
       <c r="K320" t="n">
         <v>500</v>
       </c>
       <c r="L320" t="n">
+        <v>600</v>
+      </c>
+      <c r="M320" t="n">
         <v>550</v>
       </c>
-      <c r="M320" t="n">
-        <v>525</v>
-      </c>
       <c r="N320" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>2800</v>
+        <v>3340</v>
       </c>
       <c r="K321" t="n">
+        <v>600</v>
+      </c>
+      <c r="L321" t="n">
         <v>700</v>
       </c>
-      <c r="L321" t="n">
-        <v>800</v>
-      </c>
       <c r="M321" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>1400</v>
+        <v>1860</v>
       </c>
       <c r="K322" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L322" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M322" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K323" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L323" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M323" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -23688,13 +23688,13 @@
         <v>1400</v>
       </c>
       <c r="K324" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L324" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M324" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K325" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L325" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M325" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K326" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L326" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M326" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K327" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L327" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M327" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K328" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L328" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M328" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>3360</v>
+        <v>3200</v>
       </c>
       <c r="K329" t="n">
         <v>600</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -24117,7 +24117,7 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K330" t="n">
         <v>500</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>3400</v>
+        <v>3360</v>
       </c>
       <c r="K331" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L331" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M331" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K332" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L332" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M332" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K333" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L333" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M333" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -24408,13 +24408,13 @@
         <v>1800</v>
       </c>
       <c r="K334" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L334" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M334" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K335" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L335" t="n">
         <v>700</v>
       </c>
       <c r="M335" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K337" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L337" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M337" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K338" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L338" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M338" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K339" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L339" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M339" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -24840,13 +24840,13 @@
         <v>1600</v>
       </c>
       <c r="K340" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L340" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M340" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K343" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L343" t="n">
         <v>700</v>
       </c>
       <c r="M343" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K344" t="n">
+        <v>500</v>
+      </c>
+      <c r="L344" t="n">
         <v>550</v>
       </c>
-      <c r="L344" t="n">
-        <v>600</v>
-      </c>
       <c r="M344" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K345" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L345" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M345" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="K346" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L346" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M346" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K347" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L347" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M347" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="K348" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L348" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M348" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K349" t="n">
+        <v>550</v>
+      </c>
+      <c r="L349" t="n">
         <v>600</v>
       </c>
-      <c r="L349" t="n">
-        <v>700</v>
-      </c>
       <c r="M349" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K350" t="n">
+        <v>450</v>
+      </c>
+      <c r="L350" t="n">
         <v>500</v>
       </c>
-      <c r="L350" t="n">
-        <v>550</v>
-      </c>
       <c r="M350" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K351" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L351" t="n">
         <v>700</v>
       </c>
       <c r="M351" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K352" t="n">
+        <v>500</v>
+      </c>
+      <c r="L352" t="n">
         <v>550</v>
       </c>
-      <c r="L352" t="n">
-        <v>600</v>
-      </c>
       <c r="M352" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K353" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L353" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M353" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K354" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L354" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M354" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="K355" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L355" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M355" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K356" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L356" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M356" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -26061,7 +26061,7 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="K357" t="n">
         <v>650</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -26133,7 +26133,7 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K358" t="n">
         <v>550</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K359" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L359" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M359" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K360" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L360" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M360" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -26349,7 +26349,7 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K361" t="n">
         <v>850</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K362" t="n">
         <v>750</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K363" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L363" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M363" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K364" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L364" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M364" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K365" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L365" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M365" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -26712,13 +26712,13 @@
         <v>1600</v>
       </c>
       <c r="K366" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L366" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M366" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>2460</v>
+        <v>3200</v>
       </c>
       <c r="K367" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L367" t="n">
         <v>700</v>
       </c>
       <c r="M367" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K368" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L368" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M368" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>2600</v>
+        <v>2460</v>
       </c>
       <c r="K369" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L369" t="n">
         <v>700</v>
       </c>
       <c r="M369" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K370" t="n">
+        <v>500</v>
+      </c>
+      <c r="L370" t="n">
         <v>550</v>
       </c>
-      <c r="L370" t="n">
-        <v>600</v>
-      </c>
       <c r="M370" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>3360</v>
+        <v>2600</v>
       </c>
       <c r="K371" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L371" t="n">
         <v>700</v>
       </c>
       <c r="M371" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K372" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L372" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M372" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>3000</v>
+        <v>3360</v>
       </c>
       <c r="K373" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L373" t="n">
         <v>700</v>
       </c>
       <c r="M373" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -27288,13 +27288,13 @@
         <v>1600</v>
       </c>
       <c r="K374" t="n">
+        <v>500</v>
+      </c>
+      <c r="L374" t="n">
         <v>550</v>
       </c>
-      <c r="L374" t="n">
-        <v>600</v>
-      </c>
       <c r="M374" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -27357,7 +27357,7 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K375" t="n">
         <v>650</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -27429,7 +27429,7 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K376" t="n">
         <v>550</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -27501,7 +27501,7 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>3440</v>
+        <v>2000</v>
       </c>
       <c r="K377" t="n">
         <v>650</v>
@@ -27549,58 +27549,202 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E378" t="n">
+        <v>4</v>
+      </c>
+      <c r="F378" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J378" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K378" t="n">
+        <v>550</v>
+      </c>
+      <c r="L378" t="n">
+        <v>600</v>
+      </c>
+      <c r="M378" t="n">
+        <v>575</v>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P378" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>1</v>
+      </c>
+      <c r="R378" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>8</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D379" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E378" t="n">
-        <v>4</v>
-      </c>
-      <c r="F378" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I378" t="inlineStr">
+      <c r="E379" t="n">
+        <v>4</v>
+      </c>
+      <c r="F379" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J379" t="n">
+        <v>3440</v>
+      </c>
+      <c r="K379" t="n">
+        <v>650</v>
+      </c>
+      <c r="L379" t="n">
+        <v>700</v>
+      </c>
+      <c r="M379" t="n">
+        <v>675</v>
+      </c>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P379" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>1</v>
+      </c>
+      <c r="R379" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>8</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D380" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E380" t="n">
+        <v>4</v>
+      </c>
+      <c r="F380" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J378" t="n">
+      <c r="J380" t="n">
         <v>1660</v>
       </c>
-      <c r="K378" t="n">
+      <c r="K380" t="n">
         <v>500</v>
       </c>
-      <c r="L378" t="n">
+      <c r="L380" t="n">
         <v>550</v>
       </c>
-      <c r="M378" t="n">
+      <c r="M380" t="n">
         <v>525</v>
       </c>
-      <c r="N378" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O378" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P378" t="n">
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P380" t="n">
         <v>525</v>
       </c>
-      <c r="Q378" t="n">
-        <v>1</v>
-      </c>
-      <c r="R378" t="inlineStr">
+      <c r="Q380" t="n">
+        <v>1</v>
+      </c>
+      <c r="R380" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R380"/>
+  <dimension ref="A1:R382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44232</v>
+        <v>44459</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K90" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L90" t="n">
         <v>700</v>
       </c>
       <c r="M90" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44232</v>
+        <v>44459</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K91" t="n">
+        <v>500</v>
+      </c>
+      <c r="L91" t="n">
         <v>550</v>
       </c>
-      <c r="L91" t="n">
-        <v>600</v>
-      </c>
       <c r="M91" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K92" t="n">
         <v>650</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,7 +7053,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K93" t="n">
         <v>550</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44348</v>
+        <v>44231</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>2560</v>
+        <v>2400</v>
       </c>
       <c r="K94" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L94" t="n">
         <v>700</v>
       </c>
       <c r="M94" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44348</v>
+        <v>44231</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K95" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L95" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M95" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44435</v>
+        <v>44348</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>13960</v>
+        <v>2560</v>
       </c>
       <c r="K96" t="n">
         <v>600</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44435</v>
+        <v>44348</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>7500</v>
+        <v>1480</v>
       </c>
       <c r="K97" t="n">
         <v>500</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44224</v>
+        <v>44435</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>2400</v>
+        <v>13960</v>
       </c>
       <c r="K98" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L98" t="n">
         <v>700</v>
       </c>
       <c r="M98" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44224</v>
+        <v>44435</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,7 +7485,7 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1540</v>
+        <v>7500</v>
       </c>
       <c r="K99" t="n">
         <v>500</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44313</v>
+        <v>44224</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K100" t="n">
         <v>650</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44313</v>
+        <v>44224</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1500</v>
+        <v>1540</v>
       </c>
       <c r="K101" t="n">
+        <v>500</v>
+      </c>
+      <c r="L101" t="n">
         <v>550</v>
       </c>
-      <c r="L101" t="n">
-        <v>600</v>
-      </c>
       <c r="M101" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44195</v>
+        <v>44313</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7704,13 +7704,13 @@
         <v>2800</v>
       </c>
       <c r="K102" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L102" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M102" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44195</v>
+        <v>44313</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K103" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L103" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M103" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44169</v>
+        <v>44195</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K104" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L104" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M104" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44169</v>
+        <v>44195</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7920,13 +7920,13 @@
         <v>1600</v>
       </c>
       <c r="K105" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L105" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M105" t="n">
-        <v>375</v>
+        <v>475</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>375</v>
+        <v>475</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44230</v>
+        <v>44169</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K106" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L106" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M106" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44230</v>
+        <v>44169</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K107" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L107" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M107" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44445</v>
+        <v>44230</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8136,13 +8136,13 @@
         <v>3200</v>
       </c>
       <c r="K108" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L108" t="n">
         <v>700</v>
       </c>
       <c r="M108" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44445</v>
+        <v>44230</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K109" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L109" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M109" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44263</v>
+        <v>44445</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8280,13 +8280,13 @@
         <v>3200</v>
       </c>
       <c r="K110" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L110" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M110" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44263</v>
+        <v>44445</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K111" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L111" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M111" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44272</v>
+        <v>44263</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K112" t="n">
         <v>850</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44272</v>
+        <v>44263</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,7 +8493,7 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K113" t="n">
         <v>750</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8565,7 +8565,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K114" t="n">
         <v>850</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K115" t="n">
         <v>750</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44298</v>
+        <v>44271</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K116" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L116" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M116" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44298</v>
+        <v>44271</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K117" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L117" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M117" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44319</v>
+        <v>44298</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44319</v>
+        <v>44298</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="K119" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L119" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M119" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44449</v>
+        <v>44319</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K120" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L120" t="n">
         <v>700</v>
       </c>
       <c r="M120" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44449</v>
+        <v>44319</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9069,7 +9069,7 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1600</v>
+        <v>1440</v>
       </c>
       <c r="K121" t="n">
         <v>500</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44322</v>
+        <v>44449</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>2460</v>
+        <v>3400</v>
       </c>
       <c r="K122" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L122" t="n">
         <v>700</v>
       </c>
       <c r="M122" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44322</v>
+        <v>44449</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9213,7 +9213,7 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K123" t="n">
         <v>500</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44333</v>
+        <v>44322</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9285,7 +9285,7 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>3100</v>
+        <v>2460</v>
       </c>
       <c r="K124" t="n">
         <v>650</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44333</v>
+        <v>44322</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9357,7 +9357,7 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1460</v>
+        <v>1360</v>
       </c>
       <c r="K125" t="n">
         <v>500</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44293</v>
+        <v>44333</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9429,7 +9429,7 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="K126" t="n">
         <v>650</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44293</v>
+        <v>44333</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1800</v>
+        <v>1460</v>
       </c>
       <c r="K127" t="n">
+        <v>500</v>
+      </c>
+      <c r="L127" t="n">
         <v>550</v>
       </c>
-      <c r="L127" t="n">
-        <v>600</v>
-      </c>
       <c r="M127" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44355</v>
+        <v>44293</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K128" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L128" t="n">
         <v>700</v>
       </c>
       <c r="M128" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44355</v>
+        <v>44293</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1460</v>
+        <v>1800</v>
       </c>
       <c r="K129" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L129" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M129" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44238</v>
+        <v>44355</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9720,13 +9720,13 @@
         <v>2400</v>
       </c>
       <c r="K130" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L130" t="n">
         <v>700</v>
       </c>
       <c r="M130" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44238</v>
+        <v>44355</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K131" t="n">
+        <v>500</v>
+      </c>
+      <c r="L131" t="n">
         <v>550</v>
       </c>
-      <c r="L131" t="n">
-        <v>600</v>
-      </c>
       <c r="M131" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44446</v>
+        <v>44238</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K132" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L132" t="n">
         <v>700</v>
       </c>
       <c r="M132" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44446</v>
+        <v>44238</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K133" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L133" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M133" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44406</v>
+        <v>44446</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10005,7 +10005,7 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K134" t="n">
         <v>600</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44406</v>
+        <v>44446</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10077,7 +10077,7 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K135" t="n">
         <v>500</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44299</v>
+        <v>44406</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K136" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L136" t="n">
         <v>700</v>
       </c>
       <c r="M136" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44299</v>
+        <v>44406</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K137" t="n">
+        <v>500</v>
+      </c>
+      <c r="L137" t="n">
         <v>550</v>
       </c>
-      <c r="L137" t="n">
-        <v>600</v>
-      </c>
       <c r="M137" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10293,7 +10293,7 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>2680</v>
+        <v>2600</v>
       </c>
       <c r="K138" t="n">
         <v>650</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="K139" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L139" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M139" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>2200</v>
+        <v>2680</v>
       </c>
       <c r="K140" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L140" t="n">
         <v>700</v>
       </c>
       <c r="M140" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10509,7 +10509,7 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="K141" t="n">
         <v>500</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44284</v>
+        <v>44385</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K142" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L142" t="n">
         <v>700</v>
       </c>
       <c r="M142" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44284</v>
+        <v>44385</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K143" t="n">
+        <v>500</v>
+      </c>
+      <c r="L143" t="n">
         <v>550</v>
       </c>
-      <c r="L143" t="n">
-        <v>600</v>
-      </c>
       <c r="M143" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44391</v>
+        <v>44284</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K144" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L144" t="n">
         <v>700</v>
       </c>
       <c r="M144" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44391</v>
+        <v>44284</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K145" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L145" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M145" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K146" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L146" t="n">
         <v>700</v>
       </c>
       <c r="M146" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>1480</v>
+        <v>1800</v>
       </c>
       <c r="K147" t="n">
+        <v>500</v>
+      </c>
+      <c r="L147" t="n">
         <v>550</v>
       </c>
-      <c r="L147" t="n">
-        <v>600</v>
-      </c>
       <c r="M147" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44216</v>
+        <v>44417</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11016,13 +11016,13 @@
         <v>3200</v>
       </c>
       <c r="K148" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L148" t="n">
         <v>700</v>
       </c>
       <c r="M148" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44216</v>
+        <v>44417</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>1800</v>
+        <v>1480</v>
       </c>
       <c r="K149" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L149" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M149" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44340</v>
+        <v>44216</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>3080</v>
+        <v>3200</v>
       </c>
       <c r="K150" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L150" t="n">
         <v>700</v>
       </c>
       <c r="M150" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44340</v>
+        <v>44216</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,7 +11229,7 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K151" t="n">
         <v>500</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44229</v>
+        <v>44340</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>2400</v>
+        <v>3080</v>
       </c>
       <c r="K152" t="n">
         <v>650</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44229</v>
+        <v>44340</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K153" t="n">
+        <v>500</v>
+      </c>
+      <c r="L153" t="n">
         <v>550</v>
       </c>
-      <c r="L153" t="n">
-        <v>600</v>
-      </c>
       <c r="M153" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44253</v>
+        <v>44229</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K154" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L154" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M154" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44245</v>
+        <v>44229</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="K155" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L155" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M155" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11589,7 +11589,7 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>1480</v>
+        <v>1700</v>
       </c>
       <c r="K156" t="n">
         <v>750</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44334</v>
+        <v>44245</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K157" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L157" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M157" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44334</v>
+        <v>44245</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K158" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L158" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M158" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11805,7 +11805,7 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="K159" t="n">
         <v>650</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K160" t="n">
+        <v>500</v>
+      </c>
+      <c r="L160" t="n">
         <v>550</v>
       </c>
-      <c r="L160" t="n">
-        <v>600</v>
-      </c>
       <c r="M160" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44250</v>
+        <v>44419</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="K161" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L161" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M161" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44250</v>
+        <v>44419</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K162" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L162" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M162" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44281</v>
+        <v>44250</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="K163" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L163" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M163" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44281</v>
+        <v>44250</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>1680</v>
+        <v>1500</v>
       </c>
       <c r="K164" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L164" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M164" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44342</v>
+        <v>44281</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>3360</v>
+        <v>3400</v>
       </c>
       <c r="K165" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L165" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M165" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44342</v>
+        <v>44281</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>1800</v>
+        <v>1680</v>
       </c>
       <c r="K166" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L166" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M166" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12381,7 +12381,7 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>3000</v>
+        <v>3360</v>
       </c>
       <c r="K167" t="n">
         <v>650</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12453,7 +12453,7 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K168" t="n">
         <v>500</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K169" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L169" t="n">
         <v>700</v>
       </c>
       <c r="M169" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K170" t="n">
         <v>500</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>2640</v>
+        <v>2200</v>
       </c>
       <c r="K171" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L171" t="n">
         <v>700</v>
       </c>
       <c r="M171" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12741,7 +12741,7 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K172" t="n">
         <v>500</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12813,7 +12813,7 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>3400</v>
+        <v>2640</v>
       </c>
       <c r="K173" t="n">
         <v>650</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>1800</v>
+        <v>1480</v>
       </c>
       <c r="K174" t="n">
         <v>500</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13032,13 +13032,13 @@
         <v>1800</v>
       </c>
       <c r="K176" t="n">
+        <v>500</v>
+      </c>
+      <c r="L176" t="n">
         <v>550</v>
       </c>
-      <c r="L176" t="n">
-        <v>600</v>
-      </c>
       <c r="M176" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K177" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L177" t="n">
         <v>700</v>
       </c>
       <c r="M177" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K178" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L178" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M178" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13245,7 +13245,7 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="K179" t="n">
         <v>600</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13392,13 +13392,13 @@
         <v>3000</v>
       </c>
       <c r="K181" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L181" t="n">
         <v>700</v>
       </c>
       <c r="M181" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13461,7 +13461,7 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>1640</v>
+        <v>1400</v>
       </c>
       <c r="K182" t="n">
         <v>500</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K183" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L183" t="n">
         <v>700</v>
       </c>
       <c r="M183" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13605,7 +13605,7 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>1300</v>
+        <v>1640</v>
       </c>
       <c r="K184" t="n">
         <v>500</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="K185" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L185" t="n">
         <v>700</v>
       </c>
       <c r="M185" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="K186" t="n">
+        <v>500</v>
+      </c>
+      <c r="L186" t="n">
         <v>550</v>
       </c>
-      <c r="L186" t="n">
-        <v>600</v>
-      </c>
       <c r="M186" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="K187" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L187" t="n">
         <v>700</v>
       </c>
       <c r="M187" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K188" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L188" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M188" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13965,7 +13965,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="K189" t="n">
         <v>600</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14037,7 +14037,7 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K190" t="n">
         <v>500</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K191" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L191" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M191" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K192" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L192" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M192" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K193" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="L193" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M193" t="n">
-        <v>475</v>
+        <v>875</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>475</v>
+        <v>875</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K194" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L194" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M194" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K195" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L195" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M195" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K196" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L196" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M196" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14544,13 +14544,13 @@
         <v>3400</v>
       </c>
       <c r="K197" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L197" t="n">
         <v>700</v>
       </c>
       <c r="M197" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K198" t="n">
+        <v>500</v>
+      </c>
+      <c r="L198" t="n">
         <v>550</v>
       </c>
-      <c r="L198" t="n">
-        <v>600</v>
-      </c>
       <c r="M198" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K199" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L199" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M199" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K200" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L200" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M200" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>2480</v>
+        <v>3000</v>
       </c>
       <c r="K201" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L201" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M201" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K202" t="n">
+        <v>450</v>
+      </c>
+      <c r="L202" t="n">
         <v>500</v>
       </c>
-      <c r="L202" t="n">
-        <v>550</v>
-      </c>
       <c r="M202" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14973,7 +14973,7 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>2560</v>
+        <v>2480</v>
       </c>
       <c r="K203" t="n">
         <v>650</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15045,7 +15045,7 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>1480</v>
+        <v>1360</v>
       </c>
       <c r="K204" t="n">
         <v>500</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>3400</v>
+        <v>2560</v>
       </c>
       <c r="K205" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L205" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M205" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>1680</v>
+        <v>1480</v>
       </c>
       <c r="K206" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L206" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="M206" t="n">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>3160</v>
+        <v>3400</v>
       </c>
       <c r="K207" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L207" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M207" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>1640</v>
+        <v>1680</v>
       </c>
       <c r="K208" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L208" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M208" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15405,7 +15405,7 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>3400</v>
+        <v>3160</v>
       </c>
       <c r="K209" t="n">
         <v>650</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>1800</v>
+        <v>1640</v>
       </c>
       <c r="K210" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L210" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M210" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15552,13 +15552,13 @@
         <v>3400</v>
       </c>
       <c r="K211" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L211" t="n">
         <v>700</v>
       </c>
       <c r="M211" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K212" t="n">
         <v>500</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15693,7 +15693,7 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="K213" t="n">
         <v>600</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15765,7 +15765,7 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K214" t="n">
         <v>500</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15837,7 +15837,7 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="K215" t="n">
         <v>600</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15909,7 +15909,7 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K216" t="n">
         <v>500</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15981,7 +15981,7 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="K217" t="n">
         <v>600</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16053,7 +16053,7 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K218" t="n">
         <v>500</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K219" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L219" t="n">
         <v>700</v>
       </c>
       <c r="M219" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>1680</v>
+        <v>1400</v>
       </c>
       <c r="K220" t="n">
+        <v>500</v>
+      </c>
+      <c r="L220" t="n">
         <v>550</v>
       </c>
-      <c r="L220" t="n">
-        <v>600</v>
-      </c>
       <c r="M220" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16269,7 +16269,7 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K221" t="n">
         <v>650</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16341,7 +16341,7 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>1600</v>
+        <v>1680</v>
       </c>
       <c r="K222" t="n">
         <v>550</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="K223" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L223" t="n">
         <v>700</v>
       </c>
       <c r="M223" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>1460</v>
+        <v>1600</v>
       </c>
       <c r="K224" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L224" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M224" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16557,7 +16557,7 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="K225" t="n">
         <v>600</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16629,7 +16629,7 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>1300</v>
+        <v>1460</v>
       </c>
       <c r="K226" t="n">
         <v>500</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16701,17 +16701,17 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K227" t="n">
         <v>600</v>
       </c>
       <c r="L227" t="n">
+        <v>700</v>
+      </c>
+      <c r="M227" t="n">
         <v>650</v>
       </c>
-      <c r="M227" t="n">
-        <v>625</v>
-      </c>
       <c r="N227" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16773,7 +16773,7 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K228" t="n">
         <v>500</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>3080</v>
+        <v>3000</v>
       </c>
       <c r="K229" t="n">
         <v>600</v>
       </c>
       <c r="L229" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M229" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,7 +16917,7 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K230" t="n">
         <v>500</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>2200</v>
+        <v>3080</v>
       </c>
       <c r="K231" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L231" t="n">
         <v>700</v>
       </c>
       <c r="M231" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17064,13 +17064,13 @@
         <v>1400</v>
       </c>
       <c r="K232" t="n">
+        <v>500</v>
+      </c>
+      <c r="L232" t="n">
         <v>550</v>
       </c>
-      <c r="L232" t="n">
-        <v>600</v>
-      </c>
       <c r="M232" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K233" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L233" t="n">
         <v>700</v>
       </c>
       <c r="M233" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K234" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L234" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M234" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K235" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L235" t="n">
         <v>700</v>
       </c>
       <c r="M235" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K236" t="n">
+        <v>500</v>
+      </c>
+      <c r="L236" t="n">
         <v>550</v>
       </c>
-      <c r="L236" t="n">
-        <v>600</v>
-      </c>
       <c r="M236" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="K237" t="n">
         <v>650</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17493,7 +17493,7 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>1460</v>
+        <v>2000</v>
       </c>
       <c r="K238" t="n">
         <v>550</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="K239" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L239" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M239" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="K240" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L240" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M240" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="K241" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L241" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M241" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="K242" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L242" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M242" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,7 +17853,7 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K243" t="n">
         <v>650</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17925,7 +17925,7 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K244" t="n">
         <v>500</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17997,7 +17997,7 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K245" t="n">
         <v>650</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,7 +18069,7 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>1520</v>
+        <v>1600</v>
       </c>
       <c r="K246" t="n">
         <v>500</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K247" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L247" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M247" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18216,13 +18216,13 @@
         <v>1520</v>
       </c>
       <c r="K248" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L248" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M248" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K249" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L249" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M249" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>1400</v>
+        <v>1520</v>
       </c>
       <c r="K250" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L250" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M250" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,7 +18429,7 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K251" t="n">
         <v>600</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K253" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L253" t="n">
         <v>700</v>
       </c>
       <c r="M253" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18648,13 +18648,13 @@
         <v>1400</v>
       </c>
       <c r="K254" t="n">
+        <v>500</v>
+      </c>
+      <c r="L254" t="n">
         <v>550</v>
       </c>
-      <c r="L254" t="n">
-        <v>600</v>
-      </c>
       <c r="M254" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,7 +18717,7 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K255" t="n">
         <v>650</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18789,7 +18789,7 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K256" t="n">
         <v>550</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K257" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L257" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M257" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="K258" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L258" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M258" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K259" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L259" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M259" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K260" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L260" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M260" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="K261" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L261" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M261" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>1520</v>
+        <v>1400</v>
       </c>
       <c r="K262" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L262" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M262" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="K263" t="n">
+        <v>550</v>
+      </c>
+      <c r="L263" t="n">
         <v>600</v>
       </c>
-      <c r="L263" t="n">
-        <v>700</v>
-      </c>
       <c r="M263" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>1400</v>
+        <v>1520</v>
       </c>
       <c r="K264" t="n">
+        <v>450</v>
+      </c>
+      <c r="L264" t="n">
         <v>500</v>
       </c>
-      <c r="L264" t="n">
-        <v>550</v>
-      </c>
       <c r="M264" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K265" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L265" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M265" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K266" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L266" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M266" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="K267" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L267" t="n">
         <v>900</v>
       </c>
       <c r="M267" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>1800</v>
+        <v>1560</v>
       </c>
       <c r="K268" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L268" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M268" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="K269" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L269" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M269" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>1340</v>
+        <v>1800</v>
       </c>
       <c r="K270" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L270" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M270" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19869,7 +19869,7 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K271" t="n">
         <v>650</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>1400</v>
+        <v>1340</v>
       </c>
       <c r="K272" t="n">
+        <v>500</v>
+      </c>
+      <c r="L272" t="n">
         <v>550</v>
       </c>
-      <c r="L272" t="n">
-        <v>600</v>
-      </c>
       <c r="M272" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="K273" t="n">
+        <v>650</v>
+      </c>
+      <c r="L273" t="n">
         <v>700</v>
       </c>
-      <c r="L273" t="n">
-        <v>750</v>
-      </c>
       <c r="M273" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20088,13 +20088,13 @@
         <v>1400</v>
       </c>
       <c r="K274" t="n">
+        <v>550</v>
+      </c>
+      <c r="L274" t="n">
         <v>600</v>
       </c>
-      <c r="L274" t="n">
-        <v>650</v>
-      </c>
       <c r="M274" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K275" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L275" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M275" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K276" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L276" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M276" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K277" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L277" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M277" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K278" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L278" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M278" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -20445,7 +20445,7 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K279" t="n">
         <v>850</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -20517,7 +20517,7 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>1720</v>
+        <v>1360</v>
       </c>
       <c r="K280" t="n">
         <v>750</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -20589,7 +20589,7 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K281" t="n">
         <v>850</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -20661,7 +20661,7 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1400</v>
+        <v>1720</v>
       </c>
       <c r="K282" t="n">
         <v>750</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -20736,13 +20736,13 @@
         <v>3000</v>
       </c>
       <c r="K283" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L283" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M283" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K284" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L284" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M284" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K285" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L285" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M285" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K286" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L286" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M286" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K287" t="n">
+        <v>550</v>
+      </c>
+      <c r="L287" t="n">
         <v>600</v>
       </c>
-      <c r="L287" t="n">
-        <v>700</v>
-      </c>
       <c r="M287" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -21096,13 +21096,13 @@
         <v>1400</v>
       </c>
       <c r="K288" t="n">
+        <v>450</v>
+      </c>
+      <c r="L288" t="n">
         <v>500</v>
       </c>
-      <c r="L288" t="n">
-        <v>550</v>
-      </c>
       <c r="M288" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -21165,7 +21165,7 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>3340</v>
+        <v>2000</v>
       </c>
       <c r="K289" t="n">
         <v>600</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -21237,7 +21237,7 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K290" t="n">
         <v>500</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>2400</v>
+        <v>3340</v>
       </c>
       <c r="K291" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L291" t="n">
         <v>700</v>
       </c>
       <c r="M291" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>1320</v>
+        <v>1600</v>
       </c>
       <c r="K292" t="n">
+        <v>500</v>
+      </c>
+      <c r="L292" t="n">
         <v>550</v>
       </c>
-      <c r="L292" t="n">
-        <v>600</v>
-      </c>
       <c r="M292" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K293" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L293" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M293" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>1560</v>
+        <v>1320</v>
       </c>
       <c r="K294" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L294" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M294" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K295" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L295" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M295" t="n">
-        <v>575</v>
+        <v>850</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>575</v>
+        <v>850</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>1500</v>
+        <v>1560</v>
       </c>
       <c r="K296" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L296" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M296" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K297" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L297" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M297" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K298" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L298" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M298" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -21881,20 +21881,20 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K299" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L299" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M299" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -21953,20 +21953,20 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>2400</v>
+        <v>1360</v>
       </c>
       <c r="K300" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L300" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M300" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>1440</v>
+        <v>2000</v>
       </c>
       <c r="K301" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L301" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M301" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>1460</v>
+        <v>2400</v>
       </c>
       <c r="K302" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L302" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M302" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>2000</v>
+        <v>1440</v>
       </c>
       <c r="K303" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L303" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M303" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K304" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L304" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M304" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -22317,7 +22317,7 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K305" t="n">
         <v>450</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -22389,7 +22389,7 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K306" t="n">
         <v>350</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K307" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L307" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M307" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K308" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L308" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M308" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -22605,7 +22605,7 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>3160</v>
+        <v>2000</v>
       </c>
       <c r="K309" t="n">
         <v>600</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>1640</v>
+        <v>1400</v>
       </c>
       <c r="K310" t="n">
         <v>500</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>3000</v>
+        <v>3160</v>
       </c>
       <c r="K311" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L311" t="n">
         <v>700</v>
       </c>
       <c r="M311" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>1600</v>
+        <v>1640</v>
       </c>
       <c r="K312" t="n">
+        <v>500</v>
+      </c>
+      <c r="L312" t="n">
         <v>550</v>
       </c>
-      <c r="L312" t="n">
-        <v>600</v>
-      </c>
       <c r="M312" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K313" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L313" t="n">
         <v>700</v>
       </c>
       <c r="M313" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>1380</v>
+        <v>1600</v>
       </c>
       <c r="K314" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L314" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M314" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K315" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L315" t="n">
         <v>700</v>
       </c>
       <c r="M315" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -23109,7 +23109,7 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>1700</v>
+        <v>1380</v>
       </c>
       <c r="K316" t="n">
         <v>500</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -23184,13 +23184,13 @@
         <v>3400</v>
       </c>
       <c r="K317" t="n">
+        <v>650</v>
+      </c>
+      <c r="L317" t="n">
         <v>700</v>
       </c>
-      <c r="L317" t="n">
-        <v>750</v>
-      </c>
       <c r="M317" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K318" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L318" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M318" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K319" t="n">
         <v>700</v>
       </c>
       <c r="L319" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M319" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>1440</v>
+        <v>1800</v>
       </c>
       <c r="K320" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L320" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M320" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>3340</v>
+        <v>2000</v>
       </c>
       <c r="K321" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L321" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M321" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -23541,17 +23541,17 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>1860</v>
+        <v>1440</v>
       </c>
       <c r="K322" t="n">
         <v>500</v>
       </c>
       <c r="L322" t="n">
+        <v>600</v>
+      </c>
+      <c r="M322" t="n">
         <v>550</v>
       </c>
-      <c r="M322" t="n">
-        <v>525</v>
-      </c>
       <c r="N322" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>2800</v>
+        <v>3340</v>
       </c>
       <c r="K323" t="n">
+        <v>600</v>
+      </c>
+      <c r="L323" t="n">
         <v>700</v>
       </c>
-      <c r="L323" t="n">
-        <v>800</v>
-      </c>
       <c r="M323" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>1400</v>
+        <v>1860</v>
       </c>
       <c r="K324" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L324" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M324" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K325" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L325" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M325" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -23832,13 +23832,13 @@
         <v>1400</v>
       </c>
       <c r="K326" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L326" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M326" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K327" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L327" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M327" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K328" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L328" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M328" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K329" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L329" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M329" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K330" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L330" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M330" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -24189,7 +24189,7 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>3360</v>
+        <v>3200</v>
       </c>
       <c r="K331" t="n">
         <v>600</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -24261,7 +24261,7 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K332" t="n">
         <v>500</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>3400</v>
+        <v>3360</v>
       </c>
       <c r="K333" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L333" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M333" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K334" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L334" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M334" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K335" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L335" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M335" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -24552,13 +24552,13 @@
         <v>1800</v>
       </c>
       <c r="K336" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L336" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M336" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K337" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L337" t="n">
         <v>700</v>
       </c>
       <c r="M337" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K339" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L339" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M339" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K340" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L340" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M340" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K341" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L341" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M341" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -24984,13 +24984,13 @@
         <v>1600</v>
       </c>
       <c r="K342" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L342" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M342" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K345" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L345" t="n">
         <v>700</v>
       </c>
       <c r="M345" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K346" t="n">
+        <v>500</v>
+      </c>
+      <c r="L346" t="n">
         <v>550</v>
       </c>
-      <c r="L346" t="n">
-        <v>600</v>
-      </c>
       <c r="M346" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K347" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L347" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M347" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="K348" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L348" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M348" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K349" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L349" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M349" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="K350" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L350" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M350" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K351" t="n">
+        <v>550</v>
+      </c>
+      <c r="L351" t="n">
         <v>600</v>
       </c>
-      <c r="L351" t="n">
-        <v>700</v>
-      </c>
       <c r="M351" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K352" t="n">
+        <v>450</v>
+      </c>
+      <c r="L352" t="n">
         <v>500</v>
       </c>
-      <c r="L352" t="n">
-        <v>550</v>
-      </c>
       <c r="M352" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K353" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L353" t="n">
         <v>700</v>
       </c>
       <c r="M353" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K354" t="n">
+        <v>500</v>
+      </c>
+      <c r="L354" t="n">
         <v>550</v>
       </c>
-      <c r="L354" t="n">
-        <v>600</v>
-      </c>
       <c r="M354" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K355" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L355" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M355" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K356" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L356" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M356" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="K357" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L357" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M357" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K358" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L358" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M358" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -26205,7 +26205,7 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="K359" t="n">
         <v>650</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -26277,7 +26277,7 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K360" t="n">
         <v>550</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K361" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L361" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M361" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K362" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L362" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M362" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -26493,7 +26493,7 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K363" t="n">
         <v>850</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26565,7 +26565,7 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K364" t="n">
         <v>750</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K365" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L365" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M365" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K366" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L366" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M366" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K367" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L367" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M367" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -26856,13 +26856,13 @@
         <v>1600</v>
       </c>
       <c r="K368" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L368" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M368" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>2460</v>
+        <v>3200</v>
       </c>
       <c r="K369" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L369" t="n">
         <v>700</v>
       </c>
       <c r="M369" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K370" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L370" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M370" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>2600</v>
+        <v>2460</v>
       </c>
       <c r="K371" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L371" t="n">
         <v>700</v>
       </c>
       <c r="M371" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K372" t="n">
+        <v>500</v>
+      </c>
+      <c r="L372" t="n">
         <v>550</v>
       </c>
-      <c r="L372" t="n">
-        <v>600</v>
-      </c>
       <c r="M372" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>3360</v>
+        <v>2600</v>
       </c>
       <c r="K373" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L373" t="n">
         <v>700</v>
       </c>
       <c r="M373" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K374" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L374" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M374" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>3000</v>
+        <v>3360</v>
       </c>
       <c r="K375" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L375" t="n">
         <v>700</v>
       </c>
       <c r="M375" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -27432,13 +27432,13 @@
         <v>1600</v>
       </c>
       <c r="K376" t="n">
+        <v>500</v>
+      </c>
+      <c r="L376" t="n">
         <v>550</v>
       </c>
-      <c r="L376" t="n">
-        <v>600</v>
-      </c>
       <c r="M376" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -27501,7 +27501,7 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K377" t="n">
         <v>650</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -27573,7 +27573,7 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K378" t="n">
         <v>550</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -27645,7 +27645,7 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>3440</v>
+        <v>2000</v>
       </c>
       <c r="K379" t="n">
         <v>650</v>
@@ -27693,58 +27693,202 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E380" t="n">
+        <v>4</v>
+      </c>
+      <c r="F380" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J380" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K380" t="n">
+        <v>550</v>
+      </c>
+      <c r="L380" t="n">
+        <v>600</v>
+      </c>
+      <c r="M380" t="n">
+        <v>575</v>
+      </c>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P380" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>1</v>
+      </c>
+      <c r="R380" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>8</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D381" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E380" t="n">
-        <v>4</v>
-      </c>
-      <c r="F380" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G380" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I380" t="inlineStr">
+      <c r="E381" t="n">
+        <v>4</v>
+      </c>
+      <c r="F381" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J381" t="n">
+        <v>3440</v>
+      </c>
+      <c r="K381" t="n">
+        <v>650</v>
+      </c>
+      <c r="L381" t="n">
+        <v>700</v>
+      </c>
+      <c r="M381" t="n">
+        <v>675</v>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P381" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>1</v>
+      </c>
+      <c r="R381" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>8</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D382" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E382" t="n">
+        <v>4</v>
+      </c>
+      <c r="F382" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J380" t="n">
+      <c r="J382" t="n">
         <v>1660</v>
       </c>
-      <c r="K380" t="n">
+      <c r="K382" t="n">
         <v>500</v>
       </c>
-      <c r="L380" t="n">
+      <c r="L382" t="n">
         <v>550</v>
       </c>
-      <c r="M380" t="n">
+      <c r="M382" t="n">
         <v>525</v>
       </c>
-      <c r="N380" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O380" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P380" t="n">
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P382" t="n">
         <v>525</v>
       </c>
-      <c r="Q380" t="n">
-        <v>1</v>
-      </c>
-      <c r="R380" t="inlineStr">
+      <c r="Q382" t="n">
+        <v>1</v>
+      </c>
+      <c r="R382" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R382"/>
+  <dimension ref="A1:R384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K257" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L257" t="n">
         <v>700</v>
       </c>
       <c r="M257" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K258" t="n">
+        <v>500</v>
+      </c>
+      <c r="L258" t="n">
         <v>550</v>
       </c>
-      <c r="L258" t="n">
-        <v>600</v>
-      </c>
       <c r="M258" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K259" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L259" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M259" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="K260" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L260" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M260" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K261" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L261" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M261" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K262" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L262" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M262" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="K263" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L263" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M263" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>1520</v>
+        <v>1400</v>
       </c>
       <c r="K264" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L264" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M264" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="K265" t="n">
+        <v>550</v>
+      </c>
+      <c r="L265" t="n">
         <v>600</v>
       </c>
-      <c r="L265" t="n">
-        <v>700</v>
-      </c>
       <c r="M265" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>1400</v>
+        <v>1520</v>
       </c>
       <c r="K266" t="n">
+        <v>450</v>
+      </c>
+      <c r="L266" t="n">
         <v>500</v>
       </c>
-      <c r="L266" t="n">
-        <v>550</v>
-      </c>
       <c r="M266" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K267" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L267" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M267" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K268" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L268" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M268" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="K269" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L269" t="n">
         <v>900</v>
       </c>
       <c r="M269" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>1800</v>
+        <v>1560</v>
       </c>
       <c r="K270" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L270" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M270" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="K271" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L271" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M271" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>1340</v>
+        <v>1800</v>
       </c>
       <c r="K272" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L272" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M272" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20013,7 +20013,7 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K273" t="n">
         <v>650</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>1400</v>
+        <v>1340</v>
       </c>
       <c r="K274" t="n">
+        <v>500</v>
+      </c>
+      <c r="L274" t="n">
         <v>550</v>
       </c>
-      <c r="L274" t="n">
-        <v>600</v>
-      </c>
       <c r="M274" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="K275" t="n">
+        <v>650</v>
+      </c>
+      <c r="L275" t="n">
         <v>700</v>
       </c>
-      <c r="L275" t="n">
-        <v>750</v>
-      </c>
       <c r="M275" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20232,13 +20232,13 @@
         <v>1400</v>
       </c>
       <c r="K276" t="n">
+        <v>550</v>
+      </c>
+      <c r="L276" t="n">
         <v>600</v>
       </c>
-      <c r="L276" t="n">
-        <v>650</v>
-      </c>
       <c r="M276" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K277" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L277" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M277" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K278" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L278" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M278" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K279" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L279" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M279" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K280" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L280" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M280" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -20589,7 +20589,7 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K281" t="n">
         <v>850</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -20661,7 +20661,7 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1720</v>
+        <v>1360</v>
       </c>
       <c r="K282" t="n">
         <v>750</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -20733,7 +20733,7 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K283" t="n">
         <v>850</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -20805,7 +20805,7 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>1400</v>
+        <v>1720</v>
       </c>
       <c r="K284" t="n">
         <v>750</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -20880,13 +20880,13 @@
         <v>3000</v>
       </c>
       <c r="K285" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L285" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M285" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K286" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L286" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M286" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K287" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L287" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M287" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K288" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L288" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M288" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K289" t="n">
+        <v>550</v>
+      </c>
+      <c r="L289" t="n">
         <v>600</v>
       </c>
-      <c r="L289" t="n">
-        <v>700</v>
-      </c>
       <c r="M289" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -21240,13 +21240,13 @@
         <v>1400</v>
       </c>
       <c r="K290" t="n">
+        <v>450</v>
+      </c>
+      <c r="L290" t="n">
         <v>500</v>
       </c>
-      <c r="L290" t="n">
-        <v>550</v>
-      </c>
       <c r="M290" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -21309,7 +21309,7 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>3340</v>
+        <v>2000</v>
       </c>
       <c r="K291" t="n">
         <v>600</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -21381,7 +21381,7 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K292" t="n">
         <v>500</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>2400</v>
+        <v>3340</v>
       </c>
       <c r="K293" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L293" t="n">
         <v>700</v>
       </c>
       <c r="M293" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>1320</v>
+        <v>1600</v>
       </c>
       <c r="K294" t="n">
+        <v>500</v>
+      </c>
+      <c r="L294" t="n">
         <v>550</v>
       </c>
-      <c r="L294" t="n">
-        <v>600</v>
-      </c>
       <c r="M294" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K295" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L295" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M295" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>1560</v>
+        <v>1320</v>
       </c>
       <c r="K296" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L296" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M296" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K297" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L297" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M297" t="n">
-        <v>575</v>
+        <v>850</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>575</v>
+        <v>850</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>1500</v>
+        <v>1560</v>
       </c>
       <c r="K298" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L298" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M298" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K299" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L299" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M299" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K300" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L300" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M300" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K301" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L301" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M301" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>2400</v>
+        <v>1360</v>
       </c>
       <c r="K302" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L302" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M302" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>1440</v>
+        <v>2000</v>
       </c>
       <c r="K303" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L303" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M303" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>1460</v>
+        <v>2400</v>
       </c>
       <c r="K304" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L304" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M304" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -22313,20 +22313,20 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>2000</v>
+        <v>1440</v>
       </c>
       <c r="K305" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L305" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M305" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K306" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L306" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M306" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -22461,7 +22461,7 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K307" t="n">
         <v>450</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -22533,7 +22533,7 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K308" t="n">
         <v>350</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K309" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L309" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M309" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K310" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L310" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M310" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -22749,7 +22749,7 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>3160</v>
+        <v>2000</v>
       </c>
       <c r="K311" t="n">
         <v>600</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>1640</v>
+        <v>1400</v>
       </c>
       <c r="K312" t="n">
         <v>500</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>3000</v>
+        <v>3160</v>
       </c>
       <c r="K313" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L313" t="n">
         <v>700</v>
       </c>
       <c r="M313" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>1600</v>
+        <v>1640</v>
       </c>
       <c r="K314" t="n">
+        <v>500</v>
+      </c>
+      <c r="L314" t="n">
         <v>550</v>
       </c>
-      <c r="L314" t="n">
-        <v>600</v>
-      </c>
       <c r="M314" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K315" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L315" t="n">
         <v>700</v>
       </c>
       <c r="M315" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>1380</v>
+        <v>1600</v>
       </c>
       <c r="K316" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L316" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M316" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K317" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L317" t="n">
         <v>700</v>
       </c>
       <c r="M317" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -23253,7 +23253,7 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>1700</v>
+        <v>1380</v>
       </c>
       <c r="K318" t="n">
         <v>500</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -23328,13 +23328,13 @@
         <v>3400</v>
       </c>
       <c r="K319" t="n">
+        <v>650</v>
+      </c>
+      <c r="L319" t="n">
         <v>700</v>
       </c>
-      <c r="L319" t="n">
-        <v>750</v>
-      </c>
       <c r="M319" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K320" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L320" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M320" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K321" t="n">
         <v>700</v>
       </c>
       <c r="L321" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M321" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>1440</v>
+        <v>1800</v>
       </c>
       <c r="K322" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L322" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M322" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>3340</v>
+        <v>2000</v>
       </c>
       <c r="K323" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L323" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M323" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -23685,17 +23685,17 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>1860</v>
+        <v>1440</v>
       </c>
       <c r="K324" t="n">
         <v>500</v>
       </c>
       <c r="L324" t="n">
+        <v>600</v>
+      </c>
+      <c r="M324" t="n">
         <v>550</v>
       </c>
-      <c r="M324" t="n">
-        <v>525</v>
-      </c>
       <c r="N324" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>2800</v>
+        <v>3340</v>
       </c>
       <c r="K325" t="n">
+        <v>600</v>
+      </c>
+      <c r="L325" t="n">
         <v>700</v>
       </c>
-      <c r="L325" t="n">
-        <v>800</v>
-      </c>
       <c r="M325" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>1400</v>
+        <v>1860</v>
       </c>
       <c r="K326" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L326" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M326" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K327" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L327" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M327" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -23976,13 +23976,13 @@
         <v>1400</v>
       </c>
       <c r="K328" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L328" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M328" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K329" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L329" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M329" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K330" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L330" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M330" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K331" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L331" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M331" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K332" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L332" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M332" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -24333,7 +24333,7 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>3360</v>
+        <v>3200</v>
       </c>
       <c r="K333" t="n">
         <v>600</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -24405,7 +24405,7 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K334" t="n">
         <v>500</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>3400</v>
+        <v>3360</v>
       </c>
       <c r="K335" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L335" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M335" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K336" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L336" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M336" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K337" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L337" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M337" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -24696,13 +24696,13 @@
         <v>1800</v>
       </c>
       <c r="K338" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L338" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M338" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K339" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L339" t="n">
         <v>700</v>
       </c>
       <c r="M339" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K341" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L341" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M341" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K342" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L342" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M342" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K343" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L343" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M343" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -25128,13 +25128,13 @@
         <v>1600</v>
       </c>
       <c r="K344" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L344" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M344" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K347" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L347" t="n">
         <v>700</v>
       </c>
       <c r="M347" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K348" t="n">
+        <v>500</v>
+      </c>
+      <c r="L348" t="n">
         <v>550</v>
       </c>
-      <c r="L348" t="n">
-        <v>600</v>
-      </c>
       <c r="M348" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K349" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L349" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M349" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="K350" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L350" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M350" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K351" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L351" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M351" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="K352" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L352" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M352" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K353" t="n">
+        <v>550</v>
+      </c>
+      <c r="L353" t="n">
         <v>600</v>
       </c>
-      <c r="L353" t="n">
-        <v>700</v>
-      </c>
       <c r="M353" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K354" t="n">
+        <v>450</v>
+      </c>
+      <c r="L354" t="n">
         <v>500</v>
       </c>
-      <c r="L354" t="n">
-        <v>550</v>
-      </c>
       <c r="M354" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K355" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L355" t="n">
         <v>700</v>
       </c>
       <c r="M355" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K356" t="n">
+        <v>500</v>
+      </c>
+      <c r="L356" t="n">
         <v>550</v>
       </c>
-      <c r="L356" t="n">
-        <v>600</v>
-      </c>
       <c r="M356" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K357" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L357" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M357" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K358" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L358" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M358" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="K359" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L359" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M359" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K360" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L360" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M360" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -26349,7 +26349,7 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="K361" t="n">
         <v>650</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K362" t="n">
         <v>550</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K363" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L363" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M363" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K364" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L364" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M364" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26637,7 +26637,7 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K365" t="n">
         <v>850</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -26709,7 +26709,7 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K366" t="n">
         <v>750</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K367" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L367" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M367" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K368" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L368" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M368" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K369" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L369" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M369" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -27000,13 +27000,13 @@
         <v>1600</v>
       </c>
       <c r="K370" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L370" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M370" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>2460</v>
+        <v>3200</v>
       </c>
       <c r="K371" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L371" t="n">
         <v>700</v>
       </c>
       <c r="M371" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K372" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L372" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M372" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>2600</v>
+        <v>2460</v>
       </c>
       <c r="K373" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L373" t="n">
         <v>700</v>
       </c>
       <c r="M373" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K374" t="n">
+        <v>500</v>
+      </c>
+      <c r="L374" t="n">
         <v>550</v>
       </c>
-      <c r="L374" t="n">
-        <v>600</v>
-      </c>
       <c r="M374" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>3360</v>
+        <v>2600</v>
       </c>
       <c r="K375" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L375" t="n">
         <v>700</v>
       </c>
       <c r="M375" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K376" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L376" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M376" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>3000</v>
+        <v>3360</v>
       </c>
       <c r="K377" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L377" t="n">
         <v>700</v>
       </c>
       <c r="M377" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -27576,13 +27576,13 @@
         <v>1600</v>
       </c>
       <c r="K378" t="n">
+        <v>500</v>
+      </c>
+      <c r="L378" t="n">
         <v>550</v>
       </c>
-      <c r="L378" t="n">
-        <v>600</v>
-      </c>
       <c r="M378" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -27645,7 +27645,7 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K379" t="n">
         <v>650</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -27717,7 +27717,7 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K380" t="n">
         <v>550</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -27789,7 +27789,7 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>3440</v>
+        <v>2000</v>
       </c>
       <c r="K381" t="n">
         <v>650</v>
@@ -27837,58 +27837,202 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E382" t="n">
+        <v>4</v>
+      </c>
+      <c r="F382" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J382" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K382" t="n">
+        <v>550</v>
+      </c>
+      <c r="L382" t="n">
+        <v>600</v>
+      </c>
+      <c r="M382" t="n">
+        <v>575</v>
+      </c>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P382" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>1</v>
+      </c>
+      <c r="R382" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>8</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D383" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E382" t="n">
-        <v>4</v>
-      </c>
-      <c r="F382" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G382" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I382" t="inlineStr">
+      <c r="E383" t="n">
+        <v>4</v>
+      </c>
+      <c r="F383" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J383" t="n">
+        <v>3440</v>
+      </c>
+      <c r="K383" t="n">
+        <v>650</v>
+      </c>
+      <c r="L383" t="n">
+        <v>700</v>
+      </c>
+      <c r="M383" t="n">
+        <v>675</v>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O383" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P383" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>1</v>
+      </c>
+      <c r="R383" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>8</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D384" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E384" t="n">
+        <v>4</v>
+      </c>
+      <c r="F384" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J382" t="n">
+      <c r="J384" t="n">
         <v>1660</v>
       </c>
-      <c r="K382" t="n">
+      <c r="K384" t="n">
         <v>500</v>
       </c>
-      <c r="L382" t="n">
+      <c r="L384" t="n">
         <v>550</v>
       </c>
-      <c r="M382" t="n">
+      <c r="M384" t="n">
         <v>525</v>
       </c>
-      <c r="N382" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O382" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P382" t="n">
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P384" t="n">
         <v>525</v>
       </c>
-      <c r="Q382" t="n">
-        <v>1</v>
-      </c>
-      <c r="R382" t="inlineStr">
+      <c r="Q384" t="n">
+        <v>1</v>
+      </c>
+      <c r="R384" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R386"/>
+  <dimension ref="A1:R388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>2400</v>
+        <v>3460</v>
       </c>
       <c r="K301" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L301" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M301" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K302" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L302" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M302" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K303" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L303" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M303" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K304" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L304" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M304" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -22313,20 +22313,20 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K305" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L305" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M305" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -22385,20 +22385,20 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>2400</v>
+        <v>1360</v>
       </c>
       <c r="K306" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L306" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M306" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>1440</v>
+        <v>2000</v>
       </c>
       <c r="K307" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L307" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M307" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>1460</v>
+        <v>2400</v>
       </c>
       <c r="K308" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L308" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M308" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>2000</v>
+        <v>1440</v>
       </c>
       <c r="K309" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L309" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M309" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K310" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L310" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M310" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -22749,7 +22749,7 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K311" t="n">
         <v>450</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K312" t="n">
         <v>350</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K313" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L313" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M313" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K314" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L314" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M314" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -23037,7 +23037,7 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>3160</v>
+        <v>2000</v>
       </c>
       <c r="K315" t="n">
         <v>600</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -23109,7 +23109,7 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>1640</v>
+        <v>1400</v>
       </c>
       <c r="K316" t="n">
         <v>500</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>3000</v>
+        <v>3160</v>
       </c>
       <c r="K317" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L317" t="n">
         <v>700</v>
       </c>
       <c r="M317" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>1600</v>
+        <v>1640</v>
       </c>
       <c r="K318" t="n">
+        <v>500</v>
+      </c>
+      <c r="L318" t="n">
         <v>550</v>
       </c>
-      <c r="L318" t="n">
-        <v>600</v>
-      </c>
       <c r="M318" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K319" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L319" t="n">
         <v>700</v>
       </c>
       <c r="M319" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>1380</v>
+        <v>1600</v>
       </c>
       <c r="K320" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L320" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M320" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K321" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L321" t="n">
         <v>700</v>
       </c>
       <c r="M321" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -23541,7 +23541,7 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>1700</v>
+        <v>1380</v>
       </c>
       <c r="K322" t="n">
         <v>500</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -23616,13 +23616,13 @@
         <v>3400</v>
       </c>
       <c r="K323" t="n">
+        <v>650</v>
+      </c>
+      <c r="L323" t="n">
         <v>700</v>
       </c>
-      <c r="L323" t="n">
-        <v>750</v>
-      </c>
       <c r="M323" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K324" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L324" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M324" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K325" t="n">
         <v>700</v>
       </c>
       <c r="L325" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M325" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>1440</v>
+        <v>1800</v>
       </c>
       <c r="K326" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L326" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M326" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>3340</v>
+        <v>2000</v>
       </c>
       <c r="K327" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L327" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M327" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -23973,17 +23973,17 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>1860</v>
+        <v>1440</v>
       </c>
       <c r="K328" t="n">
         <v>500</v>
       </c>
       <c r="L328" t="n">
+        <v>600</v>
+      </c>
+      <c r="M328" t="n">
         <v>550</v>
       </c>
-      <c r="M328" t="n">
-        <v>525</v>
-      </c>
       <c r="N328" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>2800</v>
+        <v>3340</v>
       </c>
       <c r="K329" t="n">
+        <v>600</v>
+      </c>
+      <c r="L329" t="n">
         <v>700</v>
       </c>
-      <c r="L329" t="n">
-        <v>800</v>
-      </c>
       <c r="M329" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>1400</v>
+        <v>1860</v>
       </c>
       <c r="K330" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L330" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M330" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K331" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L331" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M331" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -24264,13 +24264,13 @@
         <v>1400</v>
       </c>
       <c r="K332" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L332" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M332" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K333" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L333" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M333" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K334" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L334" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M334" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K335" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L335" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M335" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K336" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L336" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M336" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>3360</v>
+        <v>3200</v>
       </c>
       <c r="K337" t="n">
         <v>600</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -24693,7 +24693,7 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K338" t="n">
         <v>500</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>3400</v>
+        <v>3360</v>
       </c>
       <c r="K339" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L339" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M339" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K340" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L340" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M340" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K341" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L341" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M341" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -24984,13 +24984,13 @@
         <v>1800</v>
       </c>
       <c r="K342" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L342" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M342" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K343" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L343" t="n">
         <v>700</v>
       </c>
       <c r="M343" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K345" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L345" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M345" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K346" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L346" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M346" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K347" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L347" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M347" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25416,13 +25416,13 @@
         <v>1600</v>
       </c>
       <c r="K348" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L348" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M348" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K351" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L351" t="n">
         <v>700</v>
       </c>
       <c r="M351" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K352" t="n">
+        <v>500</v>
+      </c>
+      <c r="L352" t="n">
         <v>550</v>
       </c>
-      <c r="L352" t="n">
-        <v>600</v>
-      </c>
       <c r="M352" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K353" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L353" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M353" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="K354" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L354" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M354" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K355" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L355" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M355" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="K356" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L356" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M356" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K357" t="n">
+        <v>550</v>
+      </c>
+      <c r="L357" t="n">
         <v>600</v>
       </c>
-      <c r="L357" t="n">
-        <v>700</v>
-      </c>
       <c r="M357" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K358" t="n">
+        <v>450</v>
+      </c>
+      <c r="L358" t="n">
         <v>500</v>
       </c>
-      <c r="L358" t="n">
-        <v>550</v>
-      </c>
       <c r="M358" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K359" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L359" t="n">
         <v>700</v>
       </c>
       <c r="M359" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K360" t="n">
+        <v>500</v>
+      </c>
+      <c r="L360" t="n">
         <v>550</v>
       </c>
-      <c r="L360" t="n">
-        <v>600</v>
-      </c>
       <c r="M360" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K361" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L361" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M361" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K362" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L362" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M362" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="K363" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L363" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M363" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K364" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L364" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M364" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26637,7 +26637,7 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="K365" t="n">
         <v>650</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -26709,7 +26709,7 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K366" t="n">
         <v>550</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K367" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L367" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M367" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K368" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L368" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M368" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -26925,7 +26925,7 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K369" t="n">
         <v>850</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -26997,7 +26997,7 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K370" t="n">
         <v>750</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K371" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L371" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M371" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K372" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L372" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M372" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K373" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L373" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M373" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -27288,13 +27288,13 @@
         <v>1600</v>
       </c>
       <c r="K374" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L374" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M374" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>2460</v>
+        <v>3200</v>
       </c>
       <c r="K375" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L375" t="n">
         <v>700</v>
       </c>
       <c r="M375" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K376" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L376" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M376" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>2600</v>
+        <v>2460</v>
       </c>
       <c r="K377" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L377" t="n">
         <v>700</v>
       </c>
       <c r="M377" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K378" t="n">
+        <v>500</v>
+      </c>
+      <c r="L378" t="n">
         <v>550</v>
       </c>
-      <c r="L378" t="n">
-        <v>600</v>
-      </c>
       <c r="M378" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>3360</v>
+        <v>2600</v>
       </c>
       <c r="K379" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L379" t="n">
         <v>700</v>
       </c>
       <c r="M379" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K380" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L380" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M380" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>3000</v>
+        <v>3360</v>
       </c>
       <c r="K381" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L381" t="n">
         <v>700</v>
       </c>
       <c r="M381" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -27864,13 +27864,13 @@
         <v>1600</v>
       </c>
       <c r="K382" t="n">
+        <v>500</v>
+      </c>
+      <c r="L382" t="n">
         <v>550</v>
       </c>
-      <c r="L382" t="n">
-        <v>600</v>
-      </c>
       <c r="M382" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -27933,7 +27933,7 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K383" t="n">
         <v>650</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -28005,7 +28005,7 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K384" t="n">
         <v>550</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -28077,7 +28077,7 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>3440</v>
+        <v>2000</v>
       </c>
       <c r="K385" t="n">
         <v>650</v>
@@ -28125,58 +28125,202 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E386" t="n">
+        <v>4</v>
+      </c>
+      <c r="F386" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J386" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K386" t="n">
+        <v>550</v>
+      </c>
+      <c r="L386" t="n">
+        <v>600</v>
+      </c>
+      <c r="M386" t="n">
+        <v>575</v>
+      </c>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P386" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>1</v>
+      </c>
+      <c r="R386" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>8</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D387" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E386" t="n">
-        <v>4</v>
-      </c>
-      <c r="F386" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G386" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I386" t="inlineStr">
+      <c r="E387" t="n">
+        <v>4</v>
+      </c>
+      <c r="F387" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J387" t="n">
+        <v>3440</v>
+      </c>
+      <c r="K387" t="n">
+        <v>650</v>
+      </c>
+      <c r="L387" t="n">
+        <v>700</v>
+      </c>
+      <c r="M387" t="n">
+        <v>675</v>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P387" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>1</v>
+      </c>
+      <c r="R387" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>8</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D388" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E388" t="n">
+        <v>4</v>
+      </c>
+      <c r="F388" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J386" t="n">
+      <c r="J388" t="n">
         <v>1660</v>
       </c>
-      <c r="K386" t="n">
+      <c r="K388" t="n">
         <v>500</v>
       </c>
-      <c r="L386" t="n">
+      <c r="L388" t="n">
         <v>550</v>
       </c>
-      <c r="M386" t="n">
+      <c r="M388" t="n">
         <v>525</v>
       </c>
-      <c r="N386" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O386" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P386" t="n">
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P388" t="n">
         <v>525</v>
       </c>
-      <c r="Q386" t="n">
-        <v>1</v>
-      </c>
-      <c r="R386" t="inlineStr">
+      <c r="Q388" t="n">
+        <v>1</v>
+      </c>
+      <c r="R388" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R388"/>
+  <dimension ref="A1:R390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K271" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L271" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M271" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K272" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L272" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M272" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="K273" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L273" t="n">
         <v>900</v>
       </c>
       <c r="M273" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>1800</v>
+        <v>1560</v>
       </c>
       <c r="K274" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L274" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M274" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="K275" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L275" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M275" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>1340</v>
+        <v>1800</v>
       </c>
       <c r="K276" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L276" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M276" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -20301,7 +20301,7 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K277" t="n">
         <v>650</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>1400</v>
+        <v>1340</v>
       </c>
       <c r="K278" t="n">
+        <v>500</v>
+      </c>
+      <c r="L278" t="n">
         <v>550</v>
       </c>
-      <c r="L278" t="n">
-        <v>600</v>
-      </c>
       <c r="M278" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="K279" t="n">
+        <v>650</v>
+      </c>
+      <c r="L279" t="n">
         <v>700</v>
       </c>
-      <c r="L279" t="n">
-        <v>750</v>
-      </c>
       <c r="M279" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -20520,13 +20520,13 @@
         <v>1400</v>
       </c>
       <c r="K280" t="n">
+        <v>550</v>
+      </c>
+      <c r="L280" t="n">
         <v>600</v>
       </c>
-      <c r="L280" t="n">
-        <v>650</v>
-      </c>
       <c r="M280" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K281" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L281" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M281" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K282" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L282" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M282" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K283" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L283" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M283" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K284" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L284" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M284" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K285" t="n">
         <v>850</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -20949,7 +20949,7 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>1720</v>
+        <v>1360</v>
       </c>
       <c r="K286" t="n">
         <v>750</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K287" t="n">
         <v>850</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -21093,7 +21093,7 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>1400</v>
+        <v>1720</v>
       </c>
       <c r="K288" t="n">
         <v>750</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -21168,13 +21168,13 @@
         <v>3000</v>
       </c>
       <c r="K289" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L289" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M289" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K290" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L290" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M290" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K291" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L291" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M291" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K292" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L292" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M292" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K293" t="n">
+        <v>550</v>
+      </c>
+      <c r="L293" t="n">
         <v>600</v>
       </c>
-      <c r="L293" t="n">
-        <v>700</v>
-      </c>
       <c r="M293" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -21528,13 +21528,13 @@
         <v>1400</v>
       </c>
       <c r="K294" t="n">
+        <v>450</v>
+      </c>
+      <c r="L294" t="n">
         <v>500</v>
       </c>
-      <c r="L294" t="n">
-        <v>550</v>
-      </c>
       <c r="M294" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -21597,7 +21597,7 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>3340</v>
+        <v>2000</v>
       </c>
       <c r="K295" t="n">
         <v>600</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -21669,7 +21669,7 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K296" t="n">
         <v>500</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>2400</v>
+        <v>3340</v>
       </c>
       <c r="K297" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L297" t="n">
         <v>700</v>
       </c>
       <c r="M297" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>1320</v>
+        <v>1600</v>
       </c>
       <c r="K298" t="n">
+        <v>500</v>
+      </c>
+      <c r="L298" t="n">
         <v>550</v>
       </c>
-      <c r="L298" t="n">
-        <v>600</v>
-      </c>
       <c r="M298" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K299" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L299" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M299" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>1560</v>
+        <v>1320</v>
       </c>
       <c r="K300" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L300" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M300" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>3460</v>
+        <v>3000</v>
       </c>
       <c r="K301" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L301" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M301" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K302" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L302" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M302" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>2400</v>
+        <v>3460</v>
       </c>
       <c r="K303" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L303" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M303" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K304" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L304" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M304" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K305" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L305" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M305" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K306" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L306" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M306" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K307" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L307" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M307" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>2400</v>
+        <v>1360</v>
       </c>
       <c r="K308" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L308" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M308" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>1440</v>
+        <v>2000</v>
       </c>
       <c r="K309" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L309" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M309" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>1460</v>
+        <v>2400</v>
       </c>
       <c r="K310" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L310" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M310" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>2000</v>
+        <v>1440</v>
       </c>
       <c r="K311" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L311" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M311" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K312" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L312" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M312" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -22893,7 +22893,7 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K313" t="n">
         <v>450</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -22965,7 +22965,7 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K314" t="n">
         <v>350</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K315" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L315" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M315" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K316" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L316" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M316" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -23181,7 +23181,7 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>3160</v>
+        <v>2000</v>
       </c>
       <c r="K317" t="n">
         <v>600</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -23253,7 +23253,7 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>1640</v>
+        <v>1400</v>
       </c>
       <c r="K318" t="n">
         <v>500</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>3000</v>
+        <v>3160</v>
       </c>
       <c r="K319" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L319" t="n">
         <v>700</v>
       </c>
       <c r="M319" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>1600</v>
+        <v>1640</v>
       </c>
       <c r="K320" t="n">
+        <v>500</v>
+      </c>
+      <c r="L320" t="n">
         <v>550</v>
       </c>
-      <c r="L320" t="n">
-        <v>600</v>
-      </c>
       <c r="M320" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K321" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L321" t="n">
         <v>700</v>
       </c>
       <c r="M321" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>1380</v>
+        <v>1600</v>
       </c>
       <c r="K322" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L322" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M322" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K323" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L323" t="n">
         <v>700</v>
       </c>
       <c r="M323" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -23685,7 +23685,7 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>1700</v>
+        <v>1380</v>
       </c>
       <c r="K324" t="n">
         <v>500</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -23760,13 +23760,13 @@
         <v>3400</v>
       </c>
       <c r="K325" t="n">
+        <v>650</v>
+      </c>
+      <c r="L325" t="n">
         <v>700</v>
       </c>
-      <c r="L325" t="n">
-        <v>750</v>
-      </c>
       <c r="M325" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K326" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L326" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M326" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K327" t="n">
         <v>700</v>
       </c>
       <c r="L327" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M327" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>1440</v>
+        <v>1800</v>
       </c>
       <c r="K328" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L328" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M328" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>3340</v>
+        <v>2000</v>
       </c>
       <c r="K329" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L329" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M329" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -24117,17 +24117,17 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>1860</v>
+        <v>1440</v>
       </c>
       <c r="K330" t="n">
         <v>500</v>
       </c>
       <c r="L330" t="n">
+        <v>600</v>
+      </c>
+      <c r="M330" t="n">
         <v>550</v>
       </c>
-      <c r="M330" t="n">
-        <v>525</v>
-      </c>
       <c r="N330" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>2800</v>
+        <v>3340</v>
       </c>
       <c r="K331" t="n">
+        <v>600</v>
+      </c>
+      <c r="L331" t="n">
         <v>700</v>
       </c>
-      <c r="L331" t="n">
-        <v>800</v>
-      </c>
       <c r="M331" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>1400</v>
+        <v>1860</v>
       </c>
       <c r="K332" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L332" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M332" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K333" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L333" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M333" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -24408,13 +24408,13 @@
         <v>1400</v>
       </c>
       <c r="K334" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L334" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M334" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K335" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L335" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M335" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K336" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L336" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M336" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K337" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L337" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M337" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K338" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L338" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M338" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -24765,7 +24765,7 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>3360</v>
+        <v>3200</v>
       </c>
       <c r="K339" t="n">
         <v>600</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K340" t="n">
         <v>500</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>3400</v>
+        <v>3360</v>
       </c>
       <c r="K341" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L341" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M341" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K342" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L342" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M342" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K343" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L343" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M343" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -25128,13 +25128,13 @@
         <v>1800</v>
       </c>
       <c r="K344" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L344" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M344" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K345" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L345" t="n">
         <v>700</v>
       </c>
       <c r="M345" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K347" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L347" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M347" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K348" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L348" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M348" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K349" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L349" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M349" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -25560,13 +25560,13 @@
         <v>1600</v>
       </c>
       <c r="K350" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L350" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M350" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K353" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L353" t="n">
         <v>700</v>
       </c>
       <c r="M353" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K354" t="n">
+        <v>500</v>
+      </c>
+      <c r="L354" t="n">
         <v>550</v>
       </c>
-      <c r="L354" t="n">
-        <v>600</v>
-      </c>
       <c r="M354" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K355" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L355" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M355" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="K356" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L356" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M356" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K357" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L357" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M357" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="K358" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L358" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M358" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K359" t="n">
+        <v>550</v>
+      </c>
+      <c r="L359" t="n">
         <v>600</v>
       </c>
-      <c r="L359" t="n">
-        <v>700</v>
-      </c>
       <c r="M359" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K360" t="n">
+        <v>450</v>
+      </c>
+      <c r="L360" t="n">
         <v>500</v>
       </c>
-      <c r="L360" t="n">
-        <v>550</v>
-      </c>
       <c r="M360" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K361" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L361" t="n">
         <v>700</v>
       </c>
       <c r="M361" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K362" t="n">
+        <v>500</v>
+      </c>
+      <c r="L362" t="n">
         <v>550</v>
       </c>
-      <c r="L362" t="n">
-        <v>600</v>
-      </c>
       <c r="M362" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K363" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L363" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M363" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K364" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L364" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M364" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="K365" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L365" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M365" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K366" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L366" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M366" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -26781,7 +26781,7 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="K367" t="n">
         <v>650</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -26853,7 +26853,7 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K368" t="n">
         <v>550</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K369" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L369" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M369" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K370" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L370" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M370" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -27069,7 +27069,7 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K371" t="n">
         <v>850</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -27141,7 +27141,7 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K372" t="n">
         <v>750</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K373" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L373" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M373" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K374" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L374" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M374" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K375" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L375" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M375" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -27432,13 +27432,13 @@
         <v>1600</v>
       </c>
       <c r="K376" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L376" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M376" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>2460</v>
+        <v>3200</v>
       </c>
       <c r="K377" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L377" t="n">
         <v>700</v>
       </c>
       <c r="M377" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K378" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L378" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M378" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>2600</v>
+        <v>2460</v>
       </c>
       <c r="K379" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L379" t="n">
         <v>700</v>
       </c>
       <c r="M379" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K380" t="n">
+        <v>500</v>
+      </c>
+      <c r="L380" t="n">
         <v>550</v>
       </c>
-      <c r="L380" t="n">
-        <v>600</v>
-      </c>
       <c r="M380" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>3360</v>
+        <v>2600</v>
       </c>
       <c r="K381" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L381" t="n">
         <v>700</v>
       </c>
       <c r="M381" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K382" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L382" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M382" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>3000</v>
+        <v>3360</v>
       </c>
       <c r="K383" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L383" t="n">
         <v>700</v>
       </c>
       <c r="M383" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -28008,13 +28008,13 @@
         <v>1600</v>
       </c>
       <c r="K384" t="n">
+        <v>500</v>
+      </c>
+      <c r="L384" t="n">
         <v>550</v>
       </c>
-      <c r="L384" t="n">
-        <v>600</v>
-      </c>
       <c r="M384" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -28077,7 +28077,7 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K385" t="n">
         <v>650</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -28149,7 +28149,7 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K386" t="n">
         <v>550</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -28221,7 +28221,7 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>3440</v>
+        <v>2000</v>
       </c>
       <c r="K387" t="n">
         <v>650</v>
@@ -28269,58 +28269,202 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E388" t="n">
+        <v>4</v>
+      </c>
+      <c r="F388" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J388" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K388" t="n">
+        <v>550</v>
+      </c>
+      <c r="L388" t="n">
+        <v>600</v>
+      </c>
+      <c r="M388" t="n">
+        <v>575</v>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P388" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>1</v>
+      </c>
+      <c r="R388" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>8</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D389" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E388" t="n">
-        <v>4</v>
-      </c>
-      <c r="F388" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I388" t="inlineStr">
+      <c r="E389" t="n">
+        <v>4</v>
+      </c>
+      <c r="F389" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J389" t="n">
+        <v>3440</v>
+      </c>
+      <c r="K389" t="n">
+        <v>650</v>
+      </c>
+      <c r="L389" t="n">
+        <v>700</v>
+      </c>
+      <c r="M389" t="n">
+        <v>675</v>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P389" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>1</v>
+      </c>
+      <c r="R389" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>8</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D390" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E390" t="n">
+        <v>4</v>
+      </c>
+      <c r="F390" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J388" t="n">
+      <c r="J390" t="n">
         <v>1660</v>
       </c>
-      <c r="K388" t="n">
+      <c r="K390" t="n">
         <v>500</v>
       </c>
-      <c r="L388" t="n">
+      <c r="L390" t="n">
         <v>550</v>
       </c>
-      <c r="M388" t="n">
+      <c r="M390" t="n">
         <v>525</v>
       </c>
-      <c r="N388" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O388" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P388" t="n">
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P390" t="n">
         <v>525</v>
       </c>
-      <c r="Q388" t="n">
-        <v>1</v>
-      </c>
-      <c r="R388" t="inlineStr">
+      <c r="Q390" t="n">
+        <v>1</v>
+      </c>
+      <c r="R390" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R390"/>
+  <dimension ref="A1:R392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>3360</v>
+        <v>2200</v>
       </c>
       <c r="K169" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L169" t="n">
         <v>700</v>
       </c>
       <c r="M169" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="K170" t="n">
         <v>500</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>3000</v>
+        <v>3360</v>
       </c>
       <c r="K171" t="n">
         <v>650</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12741,7 +12741,7 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K172" t="n">
         <v>500</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K173" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L173" t="n">
         <v>700</v>
       </c>
       <c r="M173" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K174" t="n">
         <v>500</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>2640</v>
+        <v>2200</v>
       </c>
       <c r="K175" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L175" t="n">
         <v>700</v>
       </c>
       <c r="M175" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K176" t="n">
         <v>500</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13101,7 +13101,7 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>3400</v>
+        <v>2640</v>
       </c>
       <c r="K177" t="n">
         <v>650</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13173,7 +13173,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>1800</v>
+        <v>1480</v>
       </c>
       <c r="K178" t="n">
         <v>500</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13320,13 +13320,13 @@
         <v>1800</v>
       </c>
       <c r="K180" t="n">
+        <v>500</v>
+      </c>
+      <c r="L180" t="n">
         <v>550</v>
       </c>
-      <c r="L180" t="n">
-        <v>600</v>
-      </c>
       <c r="M180" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K181" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L181" t="n">
         <v>700</v>
       </c>
       <c r="M181" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K182" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L182" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M182" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13533,7 +13533,7 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="K183" t="n">
         <v>600</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13680,13 +13680,13 @@
         <v>3000</v>
       </c>
       <c r="K185" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L185" t="n">
         <v>700</v>
       </c>
       <c r="M185" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13749,7 +13749,7 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>1640</v>
+        <v>1400</v>
       </c>
       <c r="K186" t="n">
         <v>500</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K187" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L187" t="n">
         <v>700</v>
       </c>
       <c r="M187" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13893,7 +13893,7 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>1300</v>
+        <v>1640</v>
       </c>
       <c r="K188" t="n">
         <v>500</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="K189" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L189" t="n">
         <v>700</v>
       </c>
       <c r="M189" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="K190" t="n">
+        <v>500</v>
+      </c>
+      <c r="L190" t="n">
         <v>550</v>
       </c>
-      <c r="L190" t="n">
-        <v>600</v>
-      </c>
       <c r="M190" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="K191" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L191" t="n">
         <v>700</v>
       </c>
       <c r="M191" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K192" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L192" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M192" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14253,7 +14253,7 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="K193" t="n">
         <v>600</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14325,7 +14325,7 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K194" t="n">
         <v>500</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K195" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L195" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M195" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K196" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L196" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M196" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K197" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="L197" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M197" t="n">
-        <v>475</v>
+        <v>875</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>475</v>
+        <v>875</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K198" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L198" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M198" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K199" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L199" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M199" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K200" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L200" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M200" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14832,13 +14832,13 @@
         <v>3400</v>
       </c>
       <c r="K201" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L201" t="n">
         <v>700</v>
       </c>
       <c r="M201" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K202" t="n">
+        <v>500</v>
+      </c>
+      <c r="L202" t="n">
         <v>550</v>
       </c>
-      <c r="L202" t="n">
-        <v>600</v>
-      </c>
       <c r="M202" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K203" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L203" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M203" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K204" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L204" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M204" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>2480</v>
+        <v>3000</v>
       </c>
       <c r="K205" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L205" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M205" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K206" t="n">
+        <v>450</v>
+      </c>
+      <c r="L206" t="n">
         <v>500</v>
       </c>
-      <c r="L206" t="n">
-        <v>550</v>
-      </c>
       <c r="M206" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15261,7 +15261,7 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>2560</v>
+        <v>2480</v>
       </c>
       <c r="K207" t="n">
         <v>650</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15333,7 +15333,7 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>1480</v>
+        <v>1360</v>
       </c>
       <c r="K208" t="n">
         <v>500</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>3400</v>
+        <v>2560</v>
       </c>
       <c r="K209" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L209" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M209" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>1680</v>
+        <v>1480</v>
       </c>
       <c r="K210" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L210" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="M210" t="n">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>3160</v>
+        <v>3400</v>
       </c>
       <c r="K211" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L211" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M211" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>1640</v>
+        <v>1680</v>
       </c>
       <c r="K212" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L212" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M212" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15693,7 +15693,7 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>3400</v>
+        <v>3160</v>
       </c>
       <c r="K213" t="n">
         <v>650</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>1800</v>
+        <v>1640</v>
       </c>
       <c r="K214" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L214" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M214" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15840,13 +15840,13 @@
         <v>3400</v>
       </c>
       <c r="K215" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L215" t="n">
         <v>700</v>
       </c>
       <c r="M215" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15909,7 +15909,7 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K216" t="n">
         <v>500</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15981,7 +15981,7 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="K217" t="n">
         <v>600</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16053,7 +16053,7 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K218" t="n">
         <v>500</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16125,7 +16125,7 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="K219" t="n">
         <v>600</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16197,7 +16197,7 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K220" t="n">
         <v>500</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16269,7 +16269,7 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="K221" t="n">
         <v>600</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16341,7 +16341,7 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K222" t="n">
         <v>500</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K223" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L223" t="n">
         <v>700</v>
       </c>
       <c r="M223" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>1680</v>
+        <v>1400</v>
       </c>
       <c r="K224" t="n">
+        <v>500</v>
+      </c>
+      <c r="L224" t="n">
         <v>550</v>
       </c>
-      <c r="L224" t="n">
-        <v>600</v>
-      </c>
       <c r="M224" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16557,7 +16557,7 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K225" t="n">
         <v>650</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16629,7 +16629,7 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>1600</v>
+        <v>1680</v>
       </c>
       <c r="K226" t="n">
         <v>550</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="K227" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L227" t="n">
         <v>700</v>
       </c>
       <c r="M227" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>1460</v>
+        <v>1600</v>
       </c>
       <c r="K228" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L228" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M228" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16845,7 +16845,7 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="K229" t="n">
         <v>600</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,7 +16917,7 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>1300</v>
+        <v>1460</v>
       </c>
       <c r="K230" t="n">
         <v>500</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16989,17 +16989,17 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K231" t="n">
         <v>600</v>
       </c>
       <c r="L231" t="n">
+        <v>700</v>
+      </c>
+      <c r="M231" t="n">
         <v>650</v>
       </c>
-      <c r="M231" t="n">
-        <v>625</v>
-      </c>
       <c r="N231" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,7 +17061,7 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K232" t="n">
         <v>500</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>3080</v>
+        <v>3000</v>
       </c>
       <c r="K233" t="n">
         <v>600</v>
       </c>
       <c r="L233" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M233" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K234" t="n">
         <v>500</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>2200</v>
+        <v>3080</v>
       </c>
       <c r="K235" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L235" t="n">
         <v>700</v>
       </c>
       <c r="M235" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17352,13 +17352,13 @@
         <v>1400</v>
       </c>
       <c r="K236" t="n">
+        <v>500</v>
+      </c>
+      <c r="L236" t="n">
         <v>550</v>
       </c>
-      <c r="L236" t="n">
-        <v>600</v>
-      </c>
       <c r="M236" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K237" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L237" t="n">
         <v>700</v>
       </c>
       <c r="M237" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K238" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L238" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M238" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K239" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L239" t="n">
         <v>700</v>
       </c>
       <c r="M239" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K240" t="n">
+        <v>500</v>
+      </c>
+      <c r="L240" t="n">
         <v>550</v>
       </c>
-      <c r="L240" t="n">
-        <v>600</v>
-      </c>
       <c r="M240" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17709,7 +17709,7 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="K241" t="n">
         <v>650</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17781,7 +17781,7 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>1460</v>
+        <v>2000</v>
       </c>
       <c r="K242" t="n">
         <v>550</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="K243" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L243" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M243" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="K244" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L244" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M244" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="K245" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L245" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M245" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="K246" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L246" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M246" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18141,7 +18141,7 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K247" t="n">
         <v>650</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18213,7 +18213,7 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K248" t="n">
         <v>500</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18285,7 +18285,7 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K249" t="n">
         <v>650</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18357,7 +18357,7 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>1520</v>
+        <v>1600</v>
       </c>
       <c r="K250" t="n">
         <v>500</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K251" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L251" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M251" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18504,13 +18504,13 @@
         <v>1520</v>
       </c>
       <c r="K252" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L252" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M252" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K253" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L253" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M253" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>1400</v>
+        <v>1520</v>
       </c>
       <c r="K254" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L254" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M254" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,7 +18717,7 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K255" t="n">
         <v>600</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K257" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L257" t="n">
         <v>700</v>
       </c>
       <c r="M257" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18936,13 +18936,13 @@
         <v>1400</v>
       </c>
       <c r="K258" t="n">
+        <v>500</v>
+      </c>
+      <c r="L258" t="n">
         <v>550</v>
       </c>
-      <c r="L258" t="n">
-        <v>600</v>
-      </c>
       <c r="M258" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19008,13 +19008,13 @@
         <v>2000</v>
       </c>
       <c r="K259" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L259" t="n">
         <v>700</v>
       </c>
       <c r="M259" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19080,13 +19080,13 @@
         <v>1400</v>
       </c>
       <c r="K260" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L260" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M260" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K261" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L261" t="n">
         <v>700</v>
       </c>
       <c r="M261" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K262" t="n">
+        <v>500</v>
+      </c>
+      <c r="L262" t="n">
         <v>550</v>
       </c>
-      <c r="L262" t="n">
-        <v>600</v>
-      </c>
       <c r="M262" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K263" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L263" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M263" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="K264" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L264" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M264" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K265" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L265" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M265" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K266" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L266" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M266" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="K267" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L267" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M267" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>1520</v>
+        <v>1400</v>
       </c>
       <c r="K268" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L268" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M268" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="K269" t="n">
+        <v>550</v>
+      </c>
+      <c r="L269" t="n">
         <v>600</v>
       </c>
-      <c r="L269" t="n">
-        <v>700</v>
-      </c>
       <c r="M269" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>1400</v>
+        <v>1520</v>
       </c>
       <c r="K270" t="n">
+        <v>450</v>
+      </c>
+      <c r="L270" t="n">
         <v>500</v>
       </c>
-      <c r="L270" t="n">
-        <v>550</v>
-      </c>
       <c r="M270" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K273" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L273" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M273" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K274" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L274" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M274" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="K275" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L275" t="n">
         <v>900</v>
       </c>
       <c r="M275" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>1800</v>
+        <v>1560</v>
       </c>
       <c r="K276" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L276" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M276" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="K277" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L277" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M277" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>1340</v>
+        <v>1800</v>
       </c>
       <c r="K278" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L278" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M278" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -20445,7 +20445,7 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K279" t="n">
         <v>650</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>1400</v>
+        <v>1340</v>
       </c>
       <c r="K280" t="n">
+        <v>500</v>
+      </c>
+      <c r="L280" t="n">
         <v>550</v>
       </c>
-      <c r="L280" t="n">
-        <v>600</v>
-      </c>
       <c r="M280" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="K281" t="n">
+        <v>650</v>
+      </c>
+      <c r="L281" t="n">
         <v>700</v>
       </c>
-      <c r="L281" t="n">
-        <v>750</v>
-      </c>
       <c r="M281" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -20664,13 +20664,13 @@
         <v>1400</v>
       </c>
       <c r="K282" t="n">
+        <v>550</v>
+      </c>
+      <c r="L282" t="n">
         <v>600</v>
       </c>
-      <c r="L282" t="n">
-        <v>650</v>
-      </c>
       <c r="M282" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K283" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L283" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M283" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K284" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L284" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M284" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K285" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L285" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M285" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K286" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L286" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M286" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K287" t="n">
         <v>850</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -21093,7 +21093,7 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>1720</v>
+        <v>1360</v>
       </c>
       <c r="K288" t="n">
         <v>750</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -21165,7 +21165,7 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K289" t="n">
         <v>850</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -21237,7 +21237,7 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>1400</v>
+        <v>1720</v>
       </c>
       <c r="K290" t="n">
         <v>750</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -21312,13 +21312,13 @@
         <v>3000</v>
       </c>
       <c r="K291" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L291" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M291" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K292" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L292" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M292" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K293" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L293" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M293" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K294" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L294" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M294" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K295" t="n">
+        <v>550</v>
+      </c>
+      <c r="L295" t="n">
         <v>600</v>
       </c>
-      <c r="L295" t="n">
-        <v>700</v>
-      </c>
       <c r="M295" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -21672,13 +21672,13 @@
         <v>1400</v>
       </c>
       <c r="K296" t="n">
+        <v>450</v>
+      </c>
+      <c r="L296" t="n">
         <v>500</v>
       </c>
-      <c r="L296" t="n">
-        <v>550</v>
-      </c>
       <c r="M296" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -21741,7 +21741,7 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>3340</v>
+        <v>2000</v>
       </c>
       <c r="K297" t="n">
         <v>600</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -21813,7 +21813,7 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K298" t="n">
         <v>500</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>2400</v>
+        <v>3340</v>
       </c>
       <c r="K299" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L299" t="n">
         <v>700</v>
       </c>
       <c r="M299" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>1320</v>
+        <v>1600</v>
       </c>
       <c r="K300" t="n">
+        <v>500</v>
+      </c>
+      <c r="L300" t="n">
         <v>550</v>
       </c>
-      <c r="L300" t="n">
-        <v>600</v>
-      </c>
       <c r="M300" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K301" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L301" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M301" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>1560</v>
+        <v>1320</v>
       </c>
       <c r="K302" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L302" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M302" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>3460</v>
+        <v>3000</v>
       </c>
       <c r="K303" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L303" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M303" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K304" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L304" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M304" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>2400</v>
+        <v>3460</v>
       </c>
       <c r="K305" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L305" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M305" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K306" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L306" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M306" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K307" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L307" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M307" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K308" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L308" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M308" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K309" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L309" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M309" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>2400</v>
+        <v>1360</v>
       </c>
       <c r="K310" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L310" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M310" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>1440</v>
+        <v>2000</v>
       </c>
       <c r="K311" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L311" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M311" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>1460</v>
+        <v>2400</v>
       </c>
       <c r="K312" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L312" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M312" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>2000</v>
+        <v>1440</v>
       </c>
       <c r="K313" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L313" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M313" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K314" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L314" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M314" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -23037,7 +23037,7 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K315" t="n">
         <v>450</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -23109,7 +23109,7 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K316" t="n">
         <v>350</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K317" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L317" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M317" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K318" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L318" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M318" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -23325,7 +23325,7 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>3160</v>
+        <v>2000</v>
       </c>
       <c r="K319" t="n">
         <v>600</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -23397,7 +23397,7 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>1640</v>
+        <v>1400</v>
       </c>
       <c r="K320" t="n">
         <v>500</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>3000</v>
+        <v>3160</v>
       </c>
       <c r="K321" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L321" t="n">
         <v>700</v>
       </c>
       <c r="M321" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>1600</v>
+        <v>1640</v>
       </c>
       <c r="K322" t="n">
+        <v>500</v>
+      </c>
+      <c r="L322" t="n">
         <v>550</v>
       </c>
-      <c r="L322" t="n">
-        <v>600</v>
-      </c>
       <c r="M322" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K323" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L323" t="n">
         <v>700</v>
       </c>
       <c r="M323" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>1380</v>
+        <v>1600</v>
       </c>
       <c r="K324" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L324" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M324" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K325" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L325" t="n">
         <v>700</v>
       </c>
       <c r="M325" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -23829,7 +23829,7 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>1700</v>
+        <v>1380</v>
       </c>
       <c r="K326" t="n">
         <v>500</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -23904,13 +23904,13 @@
         <v>3400</v>
       </c>
       <c r="K327" t="n">
+        <v>650</v>
+      </c>
+      <c r="L327" t="n">
         <v>700</v>
       </c>
-      <c r="L327" t="n">
-        <v>750</v>
-      </c>
       <c r="M327" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K328" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L328" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M328" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K329" t="n">
         <v>700</v>
       </c>
       <c r="L329" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M329" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>1440</v>
+        <v>1800</v>
       </c>
       <c r="K330" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L330" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M330" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>3340</v>
+        <v>2000</v>
       </c>
       <c r="K331" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L331" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M331" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -24261,17 +24261,17 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>1860</v>
+        <v>1440</v>
       </c>
       <c r="K332" t="n">
         <v>500</v>
       </c>
       <c r="L332" t="n">
+        <v>600</v>
+      </c>
+      <c r="M332" t="n">
         <v>550</v>
       </c>
-      <c r="M332" t="n">
-        <v>525</v>
-      </c>
       <c r="N332" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>2800</v>
+        <v>3340</v>
       </c>
       <c r="K333" t="n">
+        <v>600</v>
+      </c>
+      <c r="L333" t="n">
         <v>700</v>
       </c>
-      <c r="L333" t="n">
-        <v>800</v>
-      </c>
       <c r="M333" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>1400</v>
+        <v>1860</v>
       </c>
       <c r="K334" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L334" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M334" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K335" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L335" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M335" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -24552,13 +24552,13 @@
         <v>1400</v>
       </c>
       <c r="K336" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L336" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M336" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K337" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L337" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M337" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K338" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L338" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M338" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K339" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L339" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M339" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K340" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L340" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M340" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -24909,7 +24909,7 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>3360</v>
+        <v>3200</v>
       </c>
       <c r="K341" t="n">
         <v>600</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -24981,7 +24981,7 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K342" t="n">
         <v>500</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>3400</v>
+        <v>3360</v>
       </c>
       <c r="K343" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L343" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M343" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K344" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L344" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M344" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K345" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L345" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M345" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -25272,13 +25272,13 @@
         <v>1800</v>
       </c>
       <c r="K346" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L346" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M346" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K347" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L347" t="n">
         <v>700</v>
       </c>
       <c r="M347" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K349" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L349" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M349" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K350" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L350" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M350" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K351" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L351" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M351" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -25704,13 +25704,13 @@
         <v>1600</v>
       </c>
       <c r="K352" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L352" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M352" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K355" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L355" t="n">
         <v>700</v>
       </c>
       <c r="M355" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K356" t="n">
+        <v>500</v>
+      </c>
+      <c r="L356" t="n">
         <v>550</v>
       </c>
-      <c r="L356" t="n">
-        <v>600</v>
-      </c>
       <c r="M356" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K357" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L357" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M357" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="K358" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L358" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M358" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K359" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L359" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M359" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="K360" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L360" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M360" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K361" t="n">
+        <v>550</v>
+      </c>
+      <c r="L361" t="n">
         <v>600</v>
       </c>
-      <c r="L361" t="n">
-        <v>700</v>
-      </c>
       <c r="M361" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K362" t="n">
+        <v>450</v>
+      </c>
+      <c r="L362" t="n">
         <v>500</v>
       </c>
-      <c r="L362" t="n">
-        <v>550</v>
-      </c>
       <c r="M362" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K363" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L363" t="n">
         <v>700</v>
       </c>
       <c r="M363" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K364" t="n">
+        <v>500</v>
+      </c>
+      <c r="L364" t="n">
         <v>550</v>
       </c>
-      <c r="L364" t="n">
-        <v>600</v>
-      </c>
       <c r="M364" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K365" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L365" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M365" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K366" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L366" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M366" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="K367" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L367" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M367" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K368" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L368" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M368" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -26925,7 +26925,7 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="K369" t="n">
         <v>650</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -26997,7 +26997,7 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K370" t="n">
         <v>550</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K371" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L371" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M371" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K372" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L372" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M372" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -27213,7 +27213,7 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K373" t="n">
         <v>850</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -27285,7 +27285,7 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K374" t="n">
         <v>750</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K375" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L375" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M375" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K376" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L376" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M376" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K377" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L377" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M377" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -27576,13 +27576,13 @@
         <v>1600</v>
       </c>
       <c r="K378" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L378" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M378" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>2460</v>
+        <v>3200</v>
       </c>
       <c r="K379" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L379" t="n">
         <v>700</v>
       </c>
       <c r="M379" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K380" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L380" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M380" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>2600</v>
+        <v>2460</v>
       </c>
       <c r="K381" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L381" t="n">
         <v>700</v>
       </c>
       <c r="M381" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K382" t="n">
+        <v>500</v>
+      </c>
+      <c r="L382" t="n">
         <v>550</v>
       </c>
-      <c r="L382" t="n">
-        <v>600</v>
-      </c>
       <c r="M382" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>3360</v>
+        <v>2600</v>
       </c>
       <c r="K383" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L383" t="n">
         <v>700</v>
       </c>
       <c r="M383" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K384" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L384" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M384" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>3000</v>
+        <v>3360</v>
       </c>
       <c r="K385" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L385" t="n">
         <v>700</v>
       </c>
       <c r="M385" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -28152,13 +28152,13 @@
         <v>1600</v>
       </c>
       <c r="K386" t="n">
+        <v>500</v>
+      </c>
+      <c r="L386" t="n">
         <v>550</v>
       </c>
-      <c r="L386" t="n">
-        <v>600</v>
-      </c>
       <c r="M386" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -28221,7 +28221,7 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K387" t="n">
         <v>650</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -28293,7 +28293,7 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K388" t="n">
         <v>550</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -28365,7 +28365,7 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>3440</v>
+        <v>2000</v>
       </c>
       <c r="K389" t="n">
         <v>650</v>
@@ -28413,58 +28413,202 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E390" t="n">
+        <v>4</v>
+      </c>
+      <c r="F390" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J390" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K390" t="n">
+        <v>550</v>
+      </c>
+      <c r="L390" t="n">
+        <v>600</v>
+      </c>
+      <c r="M390" t="n">
+        <v>575</v>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P390" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>1</v>
+      </c>
+      <c r="R390" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>8</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D391" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E390" t="n">
-        <v>4</v>
-      </c>
-      <c r="F390" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G390" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I390" t="inlineStr">
+      <c r="E391" t="n">
+        <v>4</v>
+      </c>
+      <c r="F391" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J391" t="n">
+        <v>3440</v>
+      </c>
+      <c r="K391" t="n">
+        <v>650</v>
+      </c>
+      <c r="L391" t="n">
+        <v>700</v>
+      </c>
+      <c r="M391" t="n">
+        <v>675</v>
+      </c>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P391" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>1</v>
+      </c>
+      <c r="R391" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>8</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D392" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E392" t="n">
+        <v>4</v>
+      </c>
+      <c r="F392" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J390" t="n">
+      <c r="J392" t="n">
         <v>1660</v>
       </c>
-      <c r="K390" t="n">
+      <c r="K392" t="n">
         <v>500</v>
       </c>
-      <c r="L390" t="n">
+      <c r="L392" t="n">
         <v>550</v>
       </c>
-      <c r="M390" t="n">
+      <c r="M392" t="n">
         <v>525</v>
       </c>
-      <c r="N390" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O390" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P390" t="n">
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P392" t="n">
         <v>525</v>
       </c>
-      <c r="Q390" t="n">
-        <v>1</v>
-      </c>
-      <c r="R390" t="inlineStr">
+      <c r="Q392" t="n">
+        <v>1</v>
+      </c>
+      <c r="R392" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R392"/>
+  <dimension ref="A1:R394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -21456,13 +21456,13 @@
         <v>3000</v>
       </c>
       <c r="K293" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L293" t="n">
         <v>700</v>
       </c>
       <c r="M293" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K294" t="n">
+        <v>500</v>
+      </c>
+      <c r="L294" t="n">
         <v>550</v>
       </c>
-      <c r="L294" t="n">
-        <v>600</v>
-      </c>
       <c r="M294" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K295" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L295" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M295" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K296" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L296" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M296" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K297" t="n">
+        <v>550</v>
+      </c>
+      <c r="L297" t="n">
         <v>600</v>
       </c>
-      <c r="L297" t="n">
-        <v>700</v>
-      </c>
       <c r="M297" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -21816,13 +21816,13 @@
         <v>1400</v>
       </c>
       <c r="K298" t="n">
+        <v>450</v>
+      </c>
+      <c r="L298" t="n">
         <v>500</v>
       </c>
-      <c r="L298" t="n">
-        <v>550</v>
-      </c>
       <c r="M298" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -21885,7 +21885,7 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>3340</v>
+        <v>2000</v>
       </c>
       <c r="K299" t="n">
         <v>600</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -21957,7 +21957,7 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K300" t="n">
         <v>500</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>2400</v>
+        <v>3340</v>
       </c>
       <c r="K301" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L301" t="n">
         <v>700</v>
       </c>
       <c r="M301" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>1320</v>
+        <v>1600</v>
       </c>
       <c r="K302" t="n">
+        <v>500</v>
+      </c>
+      <c r="L302" t="n">
         <v>550</v>
       </c>
-      <c r="L302" t="n">
-        <v>600</v>
-      </c>
       <c r="M302" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K303" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L303" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M303" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>1560</v>
+        <v>1320</v>
       </c>
       <c r="K304" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L304" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M304" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>3460</v>
+        <v>3000</v>
       </c>
       <c r="K305" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L305" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M305" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K306" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L306" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M306" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>2400</v>
+        <v>3460</v>
       </c>
       <c r="K307" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L307" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M307" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K308" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L308" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M308" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K309" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L309" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M309" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K310" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L310" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M310" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K311" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L311" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M311" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>2400</v>
+        <v>1360</v>
       </c>
       <c r="K312" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L312" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M312" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>1440</v>
+        <v>2000</v>
       </c>
       <c r="K313" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L313" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M313" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>1460</v>
+        <v>2400</v>
       </c>
       <c r="K314" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L314" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M314" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -23033,20 +23033,20 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>2000</v>
+        <v>1440</v>
       </c>
       <c r="K315" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L315" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M315" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K316" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L316" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M316" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -23181,7 +23181,7 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K317" t="n">
         <v>450</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -23253,7 +23253,7 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K318" t="n">
         <v>350</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K319" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L319" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M319" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K320" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L320" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M320" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -23469,7 +23469,7 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>3160</v>
+        <v>2000</v>
       </c>
       <c r="K321" t="n">
         <v>600</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -23541,7 +23541,7 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>1640</v>
+        <v>1400</v>
       </c>
       <c r="K322" t="n">
         <v>500</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>3000</v>
+        <v>3160</v>
       </c>
       <c r="K323" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L323" t="n">
         <v>700</v>
       </c>
       <c r="M323" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>1600</v>
+        <v>1640</v>
       </c>
       <c r="K324" t="n">
+        <v>500</v>
+      </c>
+      <c r="L324" t="n">
         <v>550</v>
       </c>
-      <c r="L324" t="n">
-        <v>600</v>
-      </c>
       <c r="M324" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K325" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L325" t="n">
         <v>700</v>
       </c>
       <c r="M325" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>1380</v>
+        <v>1600</v>
       </c>
       <c r="K326" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L326" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M326" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K327" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L327" t="n">
         <v>700</v>
       </c>
       <c r="M327" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -23973,7 +23973,7 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>1700</v>
+        <v>1380</v>
       </c>
       <c r="K328" t="n">
         <v>500</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -24048,13 +24048,13 @@
         <v>3400</v>
       </c>
       <c r="K329" t="n">
+        <v>650</v>
+      </c>
+      <c r="L329" t="n">
         <v>700</v>
       </c>
-      <c r="L329" t="n">
-        <v>750</v>
-      </c>
       <c r="M329" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K330" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L330" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M330" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K331" t="n">
         <v>700</v>
       </c>
       <c r="L331" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M331" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>1440</v>
+        <v>1800</v>
       </c>
       <c r="K332" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L332" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M332" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>3340</v>
+        <v>2000</v>
       </c>
       <c r="K333" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L333" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M333" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -24405,17 +24405,17 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>1860</v>
+        <v>1440</v>
       </c>
       <c r="K334" t="n">
         <v>500</v>
       </c>
       <c r="L334" t="n">
+        <v>600</v>
+      </c>
+      <c r="M334" t="n">
         <v>550</v>
       </c>
-      <c r="M334" t="n">
-        <v>525</v>
-      </c>
       <c r="N334" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>2800</v>
+        <v>3340</v>
       </c>
       <c r="K335" t="n">
+        <v>600</v>
+      </c>
+      <c r="L335" t="n">
         <v>700</v>
       </c>
-      <c r="L335" t="n">
-        <v>800</v>
-      </c>
       <c r="M335" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>1400</v>
+        <v>1860</v>
       </c>
       <c r="K336" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L336" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M336" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K337" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L337" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M337" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -24696,13 +24696,13 @@
         <v>1400</v>
       </c>
       <c r="K338" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L338" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M338" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K339" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L339" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M339" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K340" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L340" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M340" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K341" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L341" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M341" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K342" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L342" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M342" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -25053,7 +25053,7 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>3360</v>
+        <v>3200</v>
       </c>
       <c r="K343" t="n">
         <v>600</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -25125,7 +25125,7 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K344" t="n">
         <v>500</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>3400</v>
+        <v>3360</v>
       </c>
       <c r="K345" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L345" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M345" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K346" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L346" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M346" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K347" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L347" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M347" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25416,13 +25416,13 @@
         <v>1800</v>
       </c>
       <c r="K348" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L348" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M348" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K349" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L349" t="n">
         <v>700</v>
       </c>
       <c r="M349" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K351" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L351" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M351" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K352" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L352" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M352" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K353" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L353" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M353" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -25848,13 +25848,13 @@
         <v>1600</v>
       </c>
       <c r="K354" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L354" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M354" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K357" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L357" t="n">
         <v>700</v>
       </c>
       <c r="M357" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K358" t="n">
+        <v>500</v>
+      </c>
+      <c r="L358" t="n">
         <v>550</v>
       </c>
-      <c r="L358" t="n">
-        <v>600</v>
-      </c>
       <c r="M358" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K359" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L359" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M359" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="K360" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L360" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M360" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K361" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L361" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M361" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="K362" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L362" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M362" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K363" t="n">
+        <v>550</v>
+      </c>
+      <c r="L363" t="n">
         <v>600</v>
       </c>
-      <c r="L363" t="n">
-        <v>700</v>
-      </c>
       <c r="M363" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K364" t="n">
+        <v>450</v>
+      </c>
+      <c r="L364" t="n">
         <v>500</v>
       </c>
-      <c r="L364" t="n">
-        <v>550</v>
-      </c>
       <c r="M364" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K365" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L365" t="n">
         <v>700</v>
       </c>
       <c r="M365" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K366" t="n">
+        <v>500</v>
+      </c>
+      <c r="L366" t="n">
         <v>550</v>
       </c>
-      <c r="L366" t="n">
-        <v>600</v>
-      </c>
       <c r="M366" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K367" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L367" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M367" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K368" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L368" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M368" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="K369" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L369" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M369" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K370" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L370" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M370" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -27069,7 +27069,7 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="K371" t="n">
         <v>650</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -27141,7 +27141,7 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K372" t="n">
         <v>550</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K373" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L373" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M373" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K374" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L374" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M374" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -27357,7 +27357,7 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K375" t="n">
         <v>850</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -27429,7 +27429,7 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K376" t="n">
         <v>750</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K377" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L377" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M377" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K378" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L378" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M378" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K379" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L379" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M379" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -27720,13 +27720,13 @@
         <v>1600</v>
       </c>
       <c r="K380" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L380" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M380" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>2460</v>
+        <v>3200</v>
       </c>
       <c r="K381" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L381" t="n">
         <v>700</v>
       </c>
       <c r="M381" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K382" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L382" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M382" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>2600</v>
+        <v>2460</v>
       </c>
       <c r="K383" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L383" t="n">
         <v>700</v>
       </c>
       <c r="M383" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K384" t="n">
+        <v>500</v>
+      </c>
+      <c r="L384" t="n">
         <v>550</v>
       </c>
-      <c r="L384" t="n">
-        <v>600</v>
-      </c>
       <c r="M384" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>3360</v>
+        <v>2600</v>
       </c>
       <c r="K385" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L385" t="n">
         <v>700</v>
       </c>
       <c r="M385" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K386" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L386" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M386" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>3000</v>
+        <v>3360</v>
       </c>
       <c r="K387" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L387" t="n">
         <v>700</v>
       </c>
       <c r="M387" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -28296,13 +28296,13 @@
         <v>1600</v>
       </c>
       <c r="K388" t="n">
+        <v>500</v>
+      </c>
+      <c r="L388" t="n">
         <v>550</v>
       </c>
-      <c r="L388" t="n">
-        <v>600</v>
-      </c>
       <c r="M388" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -28365,7 +28365,7 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K389" t="n">
         <v>650</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -28437,7 +28437,7 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K390" t="n">
         <v>550</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -28509,7 +28509,7 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>3440</v>
+        <v>2000</v>
       </c>
       <c r="K391" t="n">
         <v>650</v>
@@ -28557,58 +28557,202 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E392" t="n">
+        <v>4</v>
+      </c>
+      <c r="F392" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J392" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K392" t="n">
+        <v>550</v>
+      </c>
+      <c r="L392" t="n">
+        <v>600</v>
+      </c>
+      <c r="M392" t="n">
+        <v>575</v>
+      </c>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P392" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>1</v>
+      </c>
+      <c r="R392" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>8</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D393" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E392" t="n">
-        <v>4</v>
-      </c>
-      <c r="F392" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G392" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I392" t="inlineStr">
+      <c r="E393" t="n">
+        <v>4</v>
+      </c>
+      <c r="F393" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J393" t="n">
+        <v>3440</v>
+      </c>
+      <c r="K393" t="n">
+        <v>650</v>
+      </c>
+      <c r="L393" t="n">
+        <v>700</v>
+      </c>
+      <c r="M393" t="n">
+        <v>675</v>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P393" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>1</v>
+      </c>
+      <c r="R393" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>8</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D394" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E394" t="n">
+        <v>4</v>
+      </c>
+      <c r="F394" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J392" t="n">
+      <c r="J394" t="n">
         <v>1660</v>
       </c>
-      <c r="K392" t="n">
+      <c r="K394" t="n">
         <v>500</v>
       </c>
-      <c r="L392" t="n">
+      <c r="L394" t="n">
         <v>550</v>
       </c>
-      <c r="M392" t="n">
+      <c r="M394" t="n">
         <v>525</v>
       </c>
-      <c r="N392" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O392" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P392" t="n">
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P394" t="n">
         <v>525</v>
       </c>
-      <c r="Q392" t="n">
-        <v>1</v>
-      </c>
-      <c r="R392" t="inlineStr">
+      <c r="Q394" t="n">
+        <v>1</v>
+      </c>
+      <c r="R394" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R394"/>
+  <dimension ref="A1:R396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="K140" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L140" t="n">
         <v>700</v>
       </c>
       <c r="M140" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1480</v>
+        <v>1260</v>
       </c>
       <c r="K141" t="n">
+        <v>500</v>
+      </c>
+      <c r="L141" t="n">
         <v>550</v>
       </c>
-      <c r="L141" t="n">
-        <v>600</v>
-      </c>
       <c r="M141" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10581,7 +10581,7 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>2680</v>
+        <v>2600</v>
       </c>
       <c r="K142" t="n">
         <v>650</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="K143" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L143" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M143" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>2200</v>
+        <v>2680</v>
       </c>
       <c r="K144" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L144" t="n">
         <v>700</v>
       </c>
       <c r="M144" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="K145" t="n">
         <v>500</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44284</v>
+        <v>44385</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K146" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L146" t="n">
         <v>700</v>
       </c>
       <c r="M146" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44284</v>
+        <v>44385</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K147" t="n">
+        <v>500</v>
+      </c>
+      <c r="L147" t="n">
         <v>550</v>
       </c>
-      <c r="L147" t="n">
-        <v>600</v>
-      </c>
       <c r="M147" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44391</v>
+        <v>44284</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K148" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L148" t="n">
         <v>700</v>
       </c>
       <c r="M148" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44391</v>
+        <v>44284</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K149" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L149" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M149" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K150" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L150" t="n">
         <v>700</v>
       </c>
       <c r="M150" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1480</v>
+        <v>1800</v>
       </c>
       <c r="K151" t="n">
+        <v>500</v>
+      </c>
+      <c r="L151" t="n">
         <v>550</v>
       </c>
-      <c r="L151" t="n">
-        <v>600</v>
-      </c>
       <c r="M151" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44216</v>
+        <v>44417</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11304,13 +11304,13 @@
         <v>3200</v>
       </c>
       <c r="K152" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L152" t="n">
         <v>700</v>
       </c>
       <c r="M152" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44216</v>
+        <v>44417</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>1800</v>
+        <v>1480</v>
       </c>
       <c r="K153" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L153" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M153" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44340</v>
+        <v>44216</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>3080</v>
+        <v>3200</v>
       </c>
       <c r="K154" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L154" t="n">
         <v>700</v>
       </c>
       <c r="M154" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44340</v>
+        <v>44216</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K155" t="n">
         <v>500</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44229</v>
+        <v>44340</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11589,7 +11589,7 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>2400</v>
+        <v>3080</v>
       </c>
       <c r="K156" t="n">
         <v>650</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44229</v>
+        <v>44340</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K157" t="n">
+        <v>500</v>
+      </c>
+      <c r="L157" t="n">
         <v>550</v>
       </c>
-      <c r="L157" t="n">
-        <v>600</v>
-      </c>
       <c r="M157" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44253</v>
+        <v>44229</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K158" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L158" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M158" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44245</v>
+        <v>44229</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="K159" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L159" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M159" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11877,7 +11877,7 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>1480</v>
+        <v>1700</v>
       </c>
       <c r="K160" t="n">
         <v>750</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44334</v>
+        <v>44245</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K161" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L161" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M161" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44334</v>
+        <v>44245</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K162" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L162" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M162" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12093,7 +12093,7 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="K163" t="n">
         <v>650</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K164" t="n">
+        <v>500</v>
+      </c>
+      <c r="L164" t="n">
         <v>550</v>
       </c>
-      <c r="L164" t="n">
-        <v>600</v>
-      </c>
       <c r="M164" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44250</v>
+        <v>44419</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="K165" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L165" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M165" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44250</v>
+        <v>44419</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K166" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L166" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M166" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44281</v>
+        <v>44250</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="K167" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L167" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M167" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>725</v>
+        <v>875</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44281</v>
+        <v>44250</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>1680</v>
+        <v>1500</v>
       </c>
       <c r="K168" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L168" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M168" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>625</v>
+        <v>775</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44467</v>
+        <v>44281</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K169" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L169" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M169" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44467</v>
+        <v>44281</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>1300</v>
+        <v>1680</v>
       </c>
       <c r="K170" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L170" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M170" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>3360</v>
+        <v>2200</v>
       </c>
       <c r="K171" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L171" t="n">
         <v>700</v>
       </c>
       <c r="M171" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12741,7 +12741,7 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="K172" t="n">
         <v>500</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12813,7 +12813,7 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>3000</v>
+        <v>3360</v>
       </c>
       <c r="K173" t="n">
         <v>650</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K174" t="n">
         <v>500</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K175" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L175" t="n">
         <v>700</v>
       </c>
       <c r="M175" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K176" t="n">
         <v>500</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>2640</v>
+        <v>2200</v>
       </c>
       <c r="K177" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L177" t="n">
         <v>700</v>
       </c>
       <c r="M177" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13173,7 +13173,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K178" t="n">
         <v>500</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13245,7 +13245,7 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>3400</v>
+        <v>2640</v>
       </c>
       <c r="K179" t="n">
         <v>650</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>1800</v>
+        <v>1480</v>
       </c>
       <c r="K180" t="n">
         <v>500</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13464,13 +13464,13 @@
         <v>1800</v>
       </c>
       <c r="K182" t="n">
+        <v>500</v>
+      </c>
+      <c r="L182" t="n">
         <v>550</v>
       </c>
-      <c r="L182" t="n">
-        <v>600</v>
-      </c>
       <c r="M182" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K183" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L183" t="n">
         <v>700</v>
       </c>
       <c r="M183" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K184" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L184" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M184" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13677,7 +13677,7 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="K185" t="n">
         <v>600</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13824,13 +13824,13 @@
         <v>3000</v>
       </c>
       <c r="K187" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L187" t="n">
         <v>700</v>
       </c>
       <c r="M187" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13893,7 +13893,7 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>1640</v>
+        <v>1400</v>
       </c>
       <c r="K188" t="n">
         <v>500</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K189" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L189" t="n">
         <v>700</v>
       </c>
       <c r="M189" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14037,7 +14037,7 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>1300</v>
+        <v>1640</v>
       </c>
       <c r="K190" t="n">
         <v>500</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="K191" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L191" t="n">
         <v>700</v>
       </c>
       <c r="M191" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="K192" t="n">
+        <v>500</v>
+      </c>
+      <c r="L192" t="n">
         <v>550</v>
       </c>
-      <c r="L192" t="n">
-        <v>600</v>
-      </c>
       <c r="M192" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="K193" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L193" t="n">
         <v>700</v>
       </c>
       <c r="M193" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K194" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L194" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M194" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="K195" t="n">
         <v>600</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14469,7 +14469,7 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K196" t="n">
         <v>500</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K197" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L197" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M197" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K198" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L198" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M198" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K199" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="L199" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M199" t="n">
-        <v>475</v>
+        <v>875</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>475</v>
+        <v>875</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K200" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L200" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M200" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K201" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L201" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M201" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K202" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L202" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M202" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14976,13 +14976,13 @@
         <v>3400</v>
       </c>
       <c r="K203" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L203" t="n">
         <v>700</v>
       </c>
       <c r="M203" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K204" t="n">
+        <v>500</v>
+      </c>
+      <c r="L204" t="n">
         <v>550</v>
       </c>
-      <c r="L204" t="n">
-        <v>600</v>
-      </c>
       <c r="M204" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K205" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L205" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M205" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K206" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L206" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M206" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>2480</v>
+        <v>3000</v>
       </c>
       <c r="K207" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L207" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M207" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K208" t="n">
+        <v>450</v>
+      </c>
+      <c r="L208" t="n">
         <v>500</v>
       </c>
-      <c r="L208" t="n">
-        <v>550</v>
-      </c>
       <c r="M208" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15405,7 +15405,7 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>2560</v>
+        <v>2480</v>
       </c>
       <c r="K209" t="n">
         <v>650</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15477,7 +15477,7 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>1480</v>
+        <v>1360</v>
       </c>
       <c r="K210" t="n">
         <v>500</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>3400</v>
+        <v>2560</v>
       </c>
       <c r="K211" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L211" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M211" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>1680</v>
+        <v>1480</v>
       </c>
       <c r="K212" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L212" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="M212" t="n">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>3160</v>
+        <v>3400</v>
       </c>
       <c r="K213" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L213" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M213" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>1640</v>
+        <v>1680</v>
       </c>
       <c r="K214" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L214" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M214" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15837,7 +15837,7 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>3400</v>
+        <v>3160</v>
       </c>
       <c r="K215" t="n">
         <v>650</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>1800</v>
+        <v>1640</v>
       </c>
       <c r="K216" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L216" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M216" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15984,13 +15984,13 @@
         <v>3400</v>
       </c>
       <c r="K217" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L217" t="n">
         <v>700</v>
       </c>
       <c r="M217" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16053,7 +16053,7 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K218" t="n">
         <v>500</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16125,7 +16125,7 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="K219" t="n">
         <v>600</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16197,7 +16197,7 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K220" t="n">
         <v>500</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16269,7 +16269,7 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="K221" t="n">
         <v>600</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16341,7 +16341,7 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K222" t="n">
         <v>500</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16413,7 +16413,7 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="K223" t="n">
         <v>600</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16485,7 +16485,7 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K224" t="n">
         <v>500</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K225" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L225" t="n">
         <v>700</v>
       </c>
       <c r="M225" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>1680</v>
+        <v>1400</v>
       </c>
       <c r="K226" t="n">
+        <v>500</v>
+      </c>
+      <c r="L226" t="n">
         <v>550</v>
       </c>
-      <c r="L226" t="n">
-        <v>600</v>
-      </c>
       <c r="M226" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16701,7 +16701,7 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K227" t="n">
         <v>650</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16773,7 +16773,7 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>1600</v>
+        <v>1680</v>
       </c>
       <c r="K228" t="n">
         <v>550</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="K229" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L229" t="n">
         <v>700</v>
       </c>
       <c r="M229" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>1460</v>
+        <v>1600</v>
       </c>
       <c r="K230" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L230" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M230" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16989,7 +16989,7 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="K231" t="n">
         <v>600</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,7 +17061,7 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>1300</v>
+        <v>1460</v>
       </c>
       <c r="K232" t="n">
         <v>500</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17133,17 +17133,17 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K233" t="n">
         <v>600</v>
       </c>
       <c r="L233" t="n">
+        <v>700</v>
+      </c>
+      <c r="M233" t="n">
         <v>650</v>
       </c>
-      <c r="M233" t="n">
-        <v>625</v>
-      </c>
       <c r="N233" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K234" t="n">
         <v>500</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>3080</v>
+        <v>3000</v>
       </c>
       <c r="K235" t="n">
         <v>600</v>
       </c>
       <c r="L235" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M235" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17349,7 +17349,7 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K236" t="n">
         <v>500</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>2200</v>
+        <v>3080</v>
       </c>
       <c r="K237" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L237" t="n">
         <v>700</v>
       </c>
       <c r="M237" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17496,13 +17496,13 @@
         <v>1400</v>
       </c>
       <c r="K238" t="n">
+        <v>500</v>
+      </c>
+      <c r="L238" t="n">
         <v>550</v>
       </c>
-      <c r="L238" t="n">
-        <v>600</v>
-      </c>
       <c r="M238" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K239" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L239" t="n">
         <v>700</v>
       </c>
       <c r="M239" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K240" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L240" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M240" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K241" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L241" t="n">
         <v>700</v>
       </c>
       <c r="M241" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K242" t="n">
+        <v>500</v>
+      </c>
+      <c r="L242" t="n">
         <v>550</v>
       </c>
-      <c r="L242" t="n">
-        <v>600</v>
-      </c>
       <c r="M242" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,7 +17853,7 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="K243" t="n">
         <v>650</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17925,7 +17925,7 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>1460</v>
+        <v>2000</v>
       </c>
       <c r="K244" t="n">
         <v>550</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="K245" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L245" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M245" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="K246" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L246" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M246" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="K247" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L247" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M247" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="K248" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L248" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M248" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18285,7 +18285,7 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K249" t="n">
         <v>650</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18357,7 +18357,7 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K250" t="n">
         <v>500</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,7 +18429,7 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K251" t="n">
         <v>650</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18501,7 +18501,7 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>1520</v>
+        <v>1600</v>
       </c>
       <c r="K252" t="n">
         <v>500</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K253" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L253" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M253" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18648,13 +18648,13 @@
         <v>1520</v>
       </c>
       <c r="K254" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L254" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M254" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K255" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L255" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M255" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>1400</v>
+        <v>1520</v>
       </c>
       <c r="K256" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L256" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M256" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18861,7 +18861,7 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K257" t="n">
         <v>600</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K259" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L259" t="n">
         <v>700</v>
       </c>
       <c r="M259" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19080,13 +19080,13 @@
         <v>1400</v>
       </c>
       <c r="K260" t="n">
+        <v>500</v>
+      </c>
+      <c r="L260" t="n">
         <v>550</v>
       </c>
-      <c r="L260" t="n">
-        <v>600</v>
-      </c>
       <c r="M260" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19152,13 +19152,13 @@
         <v>2000</v>
       </c>
       <c r="K261" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L261" t="n">
         <v>700</v>
       </c>
       <c r="M261" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19224,13 +19224,13 @@
         <v>1400</v>
       </c>
       <c r="K262" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L262" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M262" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K263" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L263" t="n">
         <v>700</v>
       </c>
       <c r="M263" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K264" t="n">
+        <v>500</v>
+      </c>
+      <c r="L264" t="n">
         <v>550</v>
       </c>
-      <c r="L264" t="n">
-        <v>600</v>
-      </c>
       <c r="M264" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K265" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L265" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M265" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="K266" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L266" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M266" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K267" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L267" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M267" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K268" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L268" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M268" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="K269" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L269" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M269" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>1520</v>
+        <v>1400</v>
       </c>
       <c r="K270" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L270" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M270" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="K271" t="n">
+        <v>550</v>
+      </c>
+      <c r="L271" t="n">
         <v>600</v>
       </c>
-      <c r="L271" t="n">
-        <v>700</v>
-      </c>
       <c r="M271" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>1400</v>
+        <v>1520</v>
       </c>
       <c r="K272" t="n">
+        <v>450</v>
+      </c>
+      <c r="L272" t="n">
         <v>500</v>
       </c>
-      <c r="L272" t="n">
-        <v>550</v>
-      </c>
       <c r="M272" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K275" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L275" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M275" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K276" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L276" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M276" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="K277" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L277" t="n">
         <v>900</v>
       </c>
       <c r="M277" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>1800</v>
+        <v>1560</v>
       </c>
       <c r="K278" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L278" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M278" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="K279" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L279" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M279" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>1340</v>
+        <v>1800</v>
       </c>
       <c r="K280" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L280" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M280" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -20589,7 +20589,7 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K281" t="n">
         <v>650</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>1400</v>
+        <v>1340</v>
       </c>
       <c r="K282" t="n">
+        <v>500</v>
+      </c>
+      <c r="L282" t="n">
         <v>550</v>
       </c>
-      <c r="L282" t="n">
-        <v>600</v>
-      </c>
       <c r="M282" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="K283" t="n">
+        <v>650</v>
+      </c>
+      <c r="L283" t="n">
         <v>700</v>
       </c>
-      <c r="L283" t="n">
-        <v>750</v>
-      </c>
       <c r="M283" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -20808,13 +20808,13 @@
         <v>1400</v>
       </c>
       <c r="K284" t="n">
+        <v>550</v>
+      </c>
+      <c r="L284" t="n">
         <v>600</v>
       </c>
-      <c r="L284" t="n">
-        <v>650</v>
-      </c>
       <c r="M284" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K285" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L285" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M285" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K286" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L286" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M286" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K287" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L287" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M287" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K288" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L288" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M288" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -21165,7 +21165,7 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K289" t="n">
         <v>850</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -21237,7 +21237,7 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>1720</v>
+        <v>1360</v>
       </c>
       <c r="K290" t="n">
         <v>750</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -21309,7 +21309,7 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K291" t="n">
         <v>850</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -21381,7 +21381,7 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>1400</v>
+        <v>1720</v>
       </c>
       <c r="K292" t="n">
         <v>750</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44468</v>
+        <v>44267</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -21456,13 +21456,13 @@
         <v>3000</v>
       </c>
       <c r="K293" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L293" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M293" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44468</v>
+        <v>44267</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K294" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L294" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M294" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -21600,13 +21600,13 @@
         <v>3000</v>
       </c>
       <c r="K295" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L295" t="n">
         <v>700</v>
       </c>
       <c r="M295" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K296" t="n">
+        <v>500</v>
+      </c>
+      <c r="L296" t="n">
         <v>550</v>
       </c>
-      <c r="L296" t="n">
-        <v>600</v>
-      </c>
       <c r="M296" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="K297" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L297" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M297" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K298" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L298" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M298" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K299" t="n">
+        <v>550</v>
+      </c>
+      <c r="L299" t="n">
         <v>600</v>
       </c>
-      <c r="L299" t="n">
-        <v>700</v>
-      </c>
       <c r="M299" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -21960,13 +21960,13 @@
         <v>1400</v>
       </c>
       <c r="K300" t="n">
+        <v>450</v>
+      </c>
+      <c r="L300" t="n">
         <v>500</v>
       </c>
-      <c r="L300" t="n">
-        <v>550</v>
-      </c>
       <c r="M300" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -22029,7 +22029,7 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>3340</v>
+        <v>2000</v>
       </c>
       <c r="K301" t="n">
         <v>600</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -22101,7 +22101,7 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K302" t="n">
         <v>500</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>2400</v>
+        <v>3340</v>
       </c>
       <c r="K303" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L303" t="n">
         <v>700</v>
       </c>
       <c r="M303" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>1320</v>
+        <v>1600</v>
       </c>
       <c r="K304" t="n">
+        <v>500</v>
+      </c>
+      <c r="L304" t="n">
         <v>550</v>
       </c>
-      <c r="L304" t="n">
-        <v>600</v>
-      </c>
       <c r="M304" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K305" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L305" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M305" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>1560</v>
+        <v>1320</v>
       </c>
       <c r="K306" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L306" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M306" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>3460</v>
+        <v>3000</v>
       </c>
       <c r="K307" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L307" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M307" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>1600</v>
+        <v>1560</v>
       </c>
       <c r="K308" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L308" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M308" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>2400</v>
+        <v>3460</v>
       </c>
       <c r="K309" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L309" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M309" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K310" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L310" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M310" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K311" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L311" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M311" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K312" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L312" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M312" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="K313" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L313" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M313" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>2400</v>
+        <v>1360</v>
       </c>
       <c r="K314" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L314" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M314" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>1440</v>
+        <v>2000</v>
       </c>
       <c r="K315" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L315" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M315" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>1460</v>
+        <v>2400</v>
       </c>
       <c r="K316" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L316" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M316" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>2000</v>
+        <v>1440</v>
       </c>
       <c r="K317" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L317" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M317" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K318" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L318" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M318" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>375</v>
+        <v>775</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -23325,7 +23325,7 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K319" t="n">
         <v>450</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -23397,7 +23397,7 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K320" t="n">
         <v>350</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K321" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L321" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M321" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K322" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L322" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M322" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -23613,7 +23613,7 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>3160</v>
+        <v>2000</v>
       </c>
       <c r="K323" t="n">
         <v>600</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -23685,7 +23685,7 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>1640</v>
+        <v>1400</v>
       </c>
       <c r="K324" t="n">
         <v>500</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>3000</v>
+        <v>3160</v>
       </c>
       <c r="K325" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L325" t="n">
         <v>700</v>
       </c>
       <c r="M325" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>1600</v>
+        <v>1640</v>
       </c>
       <c r="K326" t="n">
+        <v>500</v>
+      </c>
+      <c r="L326" t="n">
         <v>550</v>
       </c>
-      <c r="L326" t="n">
-        <v>600</v>
-      </c>
       <c r="M326" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K327" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L327" t="n">
         <v>700</v>
       </c>
       <c r="M327" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>1380</v>
+        <v>1600</v>
       </c>
       <c r="K328" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L328" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M328" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K329" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L329" t="n">
         <v>700</v>
       </c>
       <c r="M329" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -24117,7 +24117,7 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>1700</v>
+        <v>1380</v>
       </c>
       <c r="K330" t="n">
         <v>500</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -24192,13 +24192,13 @@
         <v>3400</v>
       </c>
       <c r="K331" t="n">
+        <v>650</v>
+      </c>
+      <c r="L331" t="n">
         <v>700</v>
       </c>
-      <c r="L331" t="n">
-        <v>750</v>
-      </c>
       <c r="M331" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K332" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L332" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M332" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K333" t="n">
         <v>700</v>
       </c>
       <c r="L333" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M333" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="Q333" t="n">
         <v>1</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>1440</v>
+        <v>1800</v>
       </c>
       <c r="K334" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L334" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M334" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q334" t="n">
         <v>1</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>3340</v>
+        <v>2000</v>
       </c>
       <c r="K335" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L335" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M335" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -24549,17 +24549,17 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>1860</v>
+        <v>1440</v>
       </c>
       <c r="K336" t="n">
         <v>500</v>
       </c>
       <c r="L336" t="n">
+        <v>600</v>
+      </c>
+      <c r="M336" t="n">
         <v>550</v>
       </c>
-      <c r="M336" t="n">
-        <v>525</v>
-      </c>
       <c r="N336" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>2800</v>
+        <v>3340</v>
       </c>
       <c r="K337" t="n">
+        <v>600</v>
+      </c>
+      <c r="L337" t="n">
         <v>700</v>
       </c>
-      <c r="L337" t="n">
-        <v>800</v>
-      </c>
       <c r="M337" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>1400</v>
+        <v>1860</v>
       </c>
       <c r="K338" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L338" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M338" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K339" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L339" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M339" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -24840,13 +24840,13 @@
         <v>1400</v>
       </c>
       <c r="K340" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L340" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M340" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="K341" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L341" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M341" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q341" t="n">
         <v>1</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K342" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L342" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M342" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q342" t="n">
         <v>1</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K343" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L343" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M343" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K344" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L344" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M344" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -25197,7 +25197,7 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>3360</v>
+        <v>3200</v>
       </c>
       <c r="K345" t="n">
         <v>600</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -25269,7 +25269,7 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K346" t="n">
         <v>500</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>3400</v>
+        <v>3360</v>
       </c>
       <c r="K347" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L347" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M347" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K348" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L348" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M348" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K349" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L349" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M349" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -25560,13 +25560,13 @@
         <v>1800</v>
       </c>
       <c r="K350" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L350" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M350" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K351" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L351" t="n">
         <v>700</v>
       </c>
       <c r="M351" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K353" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L353" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M353" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K354" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L354" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M354" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K355" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L355" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M355" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -25992,13 +25992,13 @@
         <v>1600</v>
       </c>
       <c r="K356" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L356" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M356" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K359" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L359" t="n">
         <v>700</v>
       </c>
       <c r="M359" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K360" t="n">
+        <v>500</v>
+      </c>
+      <c r="L360" t="n">
         <v>550</v>
       </c>
-      <c r="L360" t="n">
-        <v>600</v>
-      </c>
       <c r="M360" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K361" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L361" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M361" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q361" t="n">
         <v>1</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="K362" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L362" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M362" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K363" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L363" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M363" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="K364" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L364" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M364" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K365" t="n">
+        <v>550</v>
+      </c>
+      <c r="L365" t="n">
         <v>600</v>
       </c>
-      <c r="L365" t="n">
-        <v>700</v>
-      </c>
       <c r="M365" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K366" t="n">
+        <v>450</v>
+      </c>
+      <c r="L366" t="n">
         <v>500</v>
       </c>
-      <c r="L366" t="n">
-        <v>550</v>
-      </c>
       <c r="M366" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K367" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L367" t="n">
         <v>700</v>
       </c>
       <c r="M367" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K368" t="n">
+        <v>500</v>
+      </c>
+      <c r="L368" t="n">
         <v>550</v>
       </c>
-      <c r="L368" t="n">
-        <v>600</v>
-      </c>
       <c r="M368" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K369" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L369" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M369" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K370" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L370" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M370" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="K371" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L371" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M371" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K372" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L372" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M372" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -27213,7 +27213,7 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="K373" t="n">
         <v>650</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -27285,7 +27285,7 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K374" t="n">
         <v>550</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K375" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L375" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M375" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K376" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L376" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M376" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -27501,7 +27501,7 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K377" t="n">
         <v>850</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -27573,7 +27573,7 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K378" t="n">
         <v>750</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K379" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L379" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M379" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K380" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L380" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M380" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K381" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L381" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M381" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -27864,13 +27864,13 @@
         <v>1600</v>
       </c>
       <c r="K382" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L382" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M382" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>2460</v>
+        <v>3200</v>
       </c>
       <c r="K383" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L383" t="n">
         <v>700</v>
       </c>
       <c r="M383" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K384" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L384" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M384" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>2600</v>
+        <v>2460</v>
       </c>
       <c r="K385" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L385" t="n">
         <v>700</v>
       </c>
       <c r="M385" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K386" t="n">
+        <v>500</v>
+      </c>
+      <c r="L386" t="n">
         <v>550</v>
       </c>
-      <c r="L386" t="n">
-        <v>600</v>
-      </c>
       <c r="M386" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>3360</v>
+        <v>2600</v>
       </c>
       <c r="K387" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L387" t="n">
         <v>700</v>
       </c>
       <c r="M387" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K388" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L388" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M388" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>3000</v>
+        <v>3360</v>
       </c>
       <c r="K389" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L389" t="n">
         <v>700</v>
       </c>
       <c r="M389" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -28440,13 +28440,13 @@
         <v>1600</v>
       </c>
       <c r="K390" t="n">
+        <v>500</v>
+      </c>
+      <c r="L390" t="n">
         <v>550</v>
       </c>
-      <c r="L390" t="n">
-        <v>600</v>
-      </c>
       <c r="M390" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -28509,7 +28509,7 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K391" t="n">
         <v>650</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E392" t="n">
         <v>4</v>
@@ -28581,7 +28581,7 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K392" t="n">
         <v>550</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -28653,7 +28653,7 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>3440</v>
+        <v>2000</v>
       </c>
       <c r="K393" t="n">
         <v>650</v>
@@ -28701,58 +28701,202 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E394" t="n">
+        <v>4</v>
+      </c>
+      <c r="F394" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J394" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K394" t="n">
+        <v>550</v>
+      </c>
+      <c r="L394" t="n">
+        <v>600</v>
+      </c>
+      <c r="M394" t="n">
+        <v>575</v>
+      </c>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P394" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>1</v>
+      </c>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>8</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D395" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E394" t="n">
-        <v>4</v>
-      </c>
-      <c r="F394" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I394" t="inlineStr">
+      <c r="E395" t="n">
+        <v>4</v>
+      </c>
+      <c r="F395" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J395" t="n">
+        <v>3440</v>
+      </c>
+      <c r="K395" t="n">
+        <v>650</v>
+      </c>
+      <c r="L395" t="n">
+        <v>700</v>
+      </c>
+      <c r="M395" t="n">
+        <v>675</v>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P395" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>1</v>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>8</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D396" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E396" t="n">
+        <v>4</v>
+      </c>
+      <c r="F396" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J394" t="n">
+      <c r="J396" t="n">
         <v>1660</v>
       </c>
-      <c r="K394" t="n">
+      <c r="K396" t="n">
         <v>500</v>
       </c>
-      <c r="L394" t="n">
+      <c r="L396" t="n">
         <v>550</v>
       </c>
-      <c r="M394" t="n">
+      <c r="M396" t="n">
         <v>525</v>
       </c>
-      <c r="N394" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O394" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P394" t="n">
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P396" t="n">
         <v>525</v>
       </c>
-      <c r="Q394" t="n">
-        <v>1</v>
-      </c>
-      <c r="R394" t="inlineStr">
+      <c r="Q396" t="n">
+        <v>1</v>
+      </c>
+      <c r="R396" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R398"/>
+  <dimension ref="A1:R400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="K347" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L347" t="n">
         <v>700</v>
       </c>
       <c r="M347" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>1500</v>
+        <v>1340</v>
       </c>
       <c r="K348" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L348" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M348" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -25485,7 +25485,7 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>3360</v>
+        <v>3200</v>
       </c>
       <c r="K349" t="n">
         <v>600</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -25557,7 +25557,7 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K350" t="n">
         <v>500</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>3400</v>
+        <v>3360</v>
       </c>
       <c r="K351" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L351" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M351" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K352" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L352" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M352" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>675</v>
+        <v>525</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K353" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L353" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M353" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -25848,13 +25848,13 @@
         <v>1800</v>
       </c>
       <c r="K354" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L354" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M354" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K355" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L355" t="n">
         <v>700</v>
       </c>
       <c r="M355" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K357" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L357" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M357" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K358" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L358" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M358" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K359" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L359" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M359" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -26280,13 +26280,13 @@
         <v>1600</v>
       </c>
       <c r="K360" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L360" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M360" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q360" t="n">
         <v>1</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K363" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L363" t="n">
         <v>700</v>
       </c>
       <c r="M363" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="K364" t="n">
+        <v>500</v>
+      </c>
+      <c r="L364" t="n">
         <v>550</v>
       </c>
-      <c r="L364" t="n">
-        <v>600</v>
-      </c>
       <c r="M364" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K365" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L365" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M365" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="K366" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L366" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M366" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K367" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L367" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M367" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="K368" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L368" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M368" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K369" t="n">
+        <v>550</v>
+      </c>
+      <c r="L369" t="n">
         <v>600</v>
       </c>
-      <c r="L369" t="n">
-        <v>700</v>
-      </c>
       <c r="M369" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1360</v>
+        <v>1500</v>
       </c>
       <c r="K370" t="n">
+        <v>450</v>
+      </c>
+      <c r="L370" t="n">
         <v>500</v>
       </c>
-      <c r="L370" t="n">
-        <v>550</v>
-      </c>
       <c r="M370" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K371" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L371" t="n">
         <v>700</v>
       </c>
       <c r="M371" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K372" t="n">
+        <v>500</v>
+      </c>
+      <c r="L372" t="n">
         <v>550</v>
       </c>
-      <c r="L372" t="n">
-        <v>600</v>
-      </c>
       <c r="M372" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K373" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L373" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M373" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K374" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L374" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M374" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="K375" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L375" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M375" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K376" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L376" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M376" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -27501,7 +27501,7 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="K377" t="n">
         <v>650</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -27573,7 +27573,7 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K378" t="n">
         <v>550</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K379" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L379" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M379" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K380" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L380" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M380" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -27789,7 +27789,7 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K381" t="n">
         <v>850</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -27861,7 +27861,7 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="K382" t="n">
         <v>750</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K383" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="L383" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M383" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>575</v>
+        <v>875</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K384" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L384" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M384" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>475</v>
+        <v>775</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K385" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L385" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M385" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -28152,13 +28152,13 @@
         <v>1600</v>
       </c>
       <c r="K386" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L386" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M386" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>2460</v>
+        <v>3200</v>
       </c>
       <c r="K387" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L387" t="n">
         <v>700</v>
       </c>
       <c r="M387" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K388" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L388" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M388" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>2600</v>
+        <v>2460</v>
       </c>
       <c r="K389" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L389" t="n">
         <v>700</v>
       </c>
       <c r="M389" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K390" t="n">
+        <v>500</v>
+      </c>
+      <c r="L390" t="n">
         <v>550</v>
       </c>
-      <c r="L390" t="n">
-        <v>600</v>
-      </c>
       <c r="M390" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>3360</v>
+        <v>2600</v>
       </c>
       <c r="K391" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L391" t="n">
         <v>700</v>
       </c>
       <c r="M391" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E392" t="n">
         <v>4</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K392" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L392" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M392" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>3000</v>
+        <v>3360</v>
       </c>
       <c r="K393" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L393" t="n">
         <v>700</v>
       </c>
       <c r="M393" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
@@ -28728,13 +28728,13 @@
         <v>1600</v>
       </c>
       <c r="K394" t="n">
+        <v>500</v>
+      </c>
+      <c r="L394" t="n">
         <v>550</v>
       </c>
-      <c r="L394" t="n">
-        <v>600</v>
-      </c>
       <c r="M394" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -28797,7 +28797,7 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K395" t="n">
         <v>650</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E396" t="n">
         <v>4</v>
@@ -28869,7 +28869,7 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K396" t="n">
         <v>550</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E397" t="n">
         <v>4</v>
@@ -28941,7 +28941,7 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>3440</v>
+        <v>2000</v>
       </c>
       <c r="K397" t="n">
         <v>650</v>
@@ -28989,58 +28989,202 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E398" t="n">
+        <v>4</v>
+      </c>
+      <c r="F398" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J398" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K398" t="n">
+        <v>550</v>
+      </c>
+      <c r="L398" t="n">
+        <v>600</v>
+      </c>
+      <c r="M398" t="n">
+        <v>575</v>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P398" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>1</v>
+      </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>8</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D399" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E398" t="n">
-        <v>4</v>
-      </c>
-      <c r="F398" t="n">
-        <v>100112023</v>
-      </c>
-      <c r="G398" t="inlineStr">
-        <is>
-          <t>Brócoli</t>
-        </is>
-      </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I398" t="inlineStr">
+      <c r="E399" t="n">
+        <v>4</v>
+      </c>
+      <c r="F399" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J399" t="n">
+        <v>3440</v>
+      </c>
+      <c r="K399" t="n">
+        <v>650</v>
+      </c>
+      <c r="L399" t="n">
+        <v>700</v>
+      </c>
+      <c r="M399" t="n">
+        <v>675</v>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P399" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>1</v>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>8</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D400" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E400" t="n">
+        <v>4</v>
+      </c>
+      <c r="F400" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J398" t="n">
+      <c r="J400" t="n">
         <v>1660</v>
       </c>
-      <c r="K398" t="n">
+      <c r="K400" t="n">
         <v>500</v>
       </c>
-      <c r="L398" t="n">
+      <c r="L400" t="n">
         <v>550</v>
       </c>
-      <c r="M398" t="n">
+      <c r="M400" t="n">
         <v>525</v>
       </c>
-      <c r="N398" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O398" t="inlineStr">
-        <is>
-          <t>Provincia del Elquí</t>
-        </is>
-      </c>
-      <c r="P398" t="n">
+      <c r="N400" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P400" t="n">
         <v>525</v>
       </c>
-      <c r="Q398" t="n">
-        <v>1</v>
-      </c>
-      <c r="R398" t="inlineStr">
+      <c r="Q400" t="n">
+        <v>1</v>
+      </c>
+      <c r="R400" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R402"/>
+  <dimension ref="A1:R404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K337" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L337" t="n">
         <v>700</v>
       </c>
       <c r="M337" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q337" t="n">
         <v>1</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>1600</v>
+        <v>1260</v>
       </c>
       <c r="K338" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L338" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M338" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -24765,7 +24765,7 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>3340</v>
+        <v>3000</v>
       </c>
       <c r="K339" t="n">
         <v>600</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -24909,7 +24909,7 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>3600</v>
+        <v>3340</v>
       </c>
       <c r="K341" t="n">
         <v>600</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -24981,7 +24981,7 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="K342" t="n">
         <v>500</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="K343" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L343" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M343" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q343" t="n">
         <v>1</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K344" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L344" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M344" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q344" t="n">
         <v>1</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>3340</v>
+        <v>3200</v>
       </c>
       <c r="K345" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L345" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M345" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>1860</v>
+        <v>1600</v>
       </c>
       <c r="K346" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L346" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M346" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>2600</v>
+        <v>3340</v>
       </c>
       <c r="K347" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L347" t="n">
         <v>700</v>
       </c>
       <c r="M347" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>1480</v>
+        <v>1860</v>
       </c>
       <c r="K348" t="n">
+        <v>500</v>
+      </c>
+      <c r="L348" t="n">
         <v>550</v>
       </c>
-      <c r="L348" t="n">
-        <v>600</v>
-      </c>
       <c r="M348" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K349" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L349" t="n">
         <v>700</v>
       </c>
       <c r="M349" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K350" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L350" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M350" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K351" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L351" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M351" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1520</v>
+        <v>1400</v>
       </c>
       <c r="K352" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L352" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M352" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K353" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L353" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M353" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>1360</v>
+        <v>1520</v>
       </c>
       <c r="K354" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L354" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M354" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K355" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L355" t="n">
         <v>700</v>
       </c>
       <c r="M355" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -25992,13 +25992,13 @@
         <v>1360</v>
       </c>
       <c r="K356" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L356" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M356" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K357" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L357" t="n">
         <v>700</v>
       </c>
       <c r="M357" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -26133,7 +26133,7 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K358" t="n">
         <v>500</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -26349,7 +26349,7 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K361" t="n">
         <v>650</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -26424,13 +26424,13 @@
         <v>1800</v>
       </c>
       <c r="K362" t="n">
+        <v>500</v>
+      </c>
+      <c r="L362" t="n">
         <v>550</v>
       </c>
-      <c r="L362" t="n">
-        <v>600</v>
-      </c>
       <c r="M362" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q362" t="n">
         <v>1</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -26493,7 +26493,7 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K363" t="n">
         <v>650</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26565,7 +26565,7 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>1480</v>
+        <v>1800</v>
       </c>
       <c r="K364" t="n">
         <v>550</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K365" t="n">
+        <v>650</v>
+      </c>
+      <c r="L365" t="n">
         <v>700</v>
       </c>
-      <c r="L365" t="n">
-        <v>800</v>
-      </c>
       <c r="M365" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="K366" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L366" t="n">
         <v>600</v>
       </c>
       <c r="M366" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K367" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L367" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M367" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>1600</v>
+        <v>1440</v>
       </c>
       <c r="K368" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L368" t="n">
         <v>600</v>
       </c>
       <c r="M368" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -26925,7 +26925,7 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="K369" t="n">
         <v>650</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1460</v>
+        <v>1600</v>
       </c>
       <c r="K370" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L370" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M370" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -27069,7 +27069,7 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="K371" t="n">
         <v>650</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -27141,7 +27141,7 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>1800</v>
+        <v>1460</v>
       </c>
       <c r="K372" t="n">
         <v>500</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="K373" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L373" t="n">
         <v>700</v>
       </c>
       <c r="M373" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -27285,7 +27285,7 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>1360</v>
+        <v>1800</v>
       </c>
       <c r="K374" t="n">
         <v>500</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="K375" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L375" t="n">
         <v>700</v>
       </c>
       <c r="M375" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K376" t="n">
+        <v>500</v>
+      </c>
+      <c r="L376" t="n">
         <v>550</v>
       </c>
-      <c r="L376" t="n">
-        <v>600</v>
-      </c>
       <c r="M376" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -27504,13 +27504,13 @@
         <v>2000</v>
       </c>
       <c r="K377" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L377" t="n">
         <v>700</v>
       </c>
       <c r="M377" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -27576,13 +27576,13 @@
         <v>1400</v>
       </c>
       <c r="K378" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L378" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M378" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K379" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L379" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M379" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -27720,13 +27720,13 @@
         <v>1400</v>
       </c>
       <c r="K380" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L380" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M380" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>3100</v>
+        <v>2400</v>
       </c>
       <c r="K381" t="n">
+        <v>550</v>
+      </c>
+      <c r="L381" t="n">
         <v>600</v>
       </c>
-      <c r="L381" t="n">
-        <v>700</v>
-      </c>
       <c r="M381" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -27864,13 +27864,13 @@
         <v>1400</v>
       </c>
       <c r="K382" t="n">
+        <v>450</v>
+      </c>
+      <c r="L382" t="n">
         <v>500</v>
       </c>
-      <c r="L382" t="n">
-        <v>550</v>
-      </c>
       <c r="M382" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="K383" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L383" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M383" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K384" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L384" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M384" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -28077,7 +28077,7 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="K385" t="n">
         <v>850</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -28149,7 +28149,7 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K386" t="n">
         <v>750</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K387" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L387" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M387" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -28296,13 +28296,13 @@
         <v>1500</v>
       </c>
       <c r="K388" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L388" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M388" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K389" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L389" t="n">
         <v>700</v>
       </c>
       <c r="M389" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K390" t="n">
+        <v>500</v>
+      </c>
+      <c r="L390" t="n">
         <v>550</v>
       </c>
-      <c r="L390" t="n">
-        <v>600</v>
-      </c>
       <c r="M390" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="K391" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L391" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M391" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E392" t="n">
         <v>4</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K392" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L392" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M392" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K393" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L393" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M393" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K394" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L394" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M394" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="K395" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L395" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M395" t="n">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E396" t="n">
         <v>4</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K396" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L396" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M396" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E397" t="n">
         <v>4</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K397" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L397" t="n">
         <v>700</v>
       </c>
       <c r="M397" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E398" t="n">
         <v>4</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K398" t="n">
+        <v>500</v>
+      </c>
+      <c r="L398" t="n">
         <v>550</v>
       </c>
-      <c r="L398" t="n">
-        <v>600</v>
-      </c>
       <c r="M398" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E399" t="n">
         <v>4</v>
@@ -29085,7 +29085,7 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>3220</v>
+        <v>3000</v>
       </c>
       <c r="K399" t="n">
         <v>650</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E400" t="n">
         <v>4</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="K400" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L400" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M400" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E401" t="n">
         <v>4</v>
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>2000</v>
+        <v>3220</v>
       </c>
       <c r="K401" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L401" t="n">
         <v>700</v>
       </c>
       <c r="M401" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E402" t="n">
         <v>4</v>
@@ -29301,7 +29301,7 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K402" t="n">
         <v>500</v>
@@ -29329,6 +29329,150 @@
         <v>1</v>
       </c>
       <c r="R402" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>8</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D403" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E403" t="n">
+        <v>4</v>
+      </c>
+      <c r="F403" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J403" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K403" t="n">
+        <v>600</v>
+      </c>
+      <c r="L403" t="n">
+        <v>700</v>
+      </c>
+      <c r="M403" t="n">
+        <v>650</v>
+      </c>
+      <c r="N403" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O403" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P403" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>1</v>
+      </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>8</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D404" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E404" t="n">
+        <v>4</v>
+      </c>
+      <c r="F404" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J404" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K404" t="n">
+        <v>500</v>
+      </c>
+      <c r="L404" t="n">
+        <v>550</v>
+      </c>
+      <c r="M404" t="n">
+        <v>525</v>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P404" t="n">
+        <v>525</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>1</v>
+      </c>
+      <c r="R404" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R404"/>
+  <dimension ref="A1:R406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44424</v>
+        <v>44477</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K152" t="n">
         <v>650</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44424</v>
+        <v>44477</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>1480</v>
+        <v>1520</v>
       </c>
       <c r="K153" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L153" t="n">
         <v>600</v>
       </c>
       <c r="M153" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44245</v>
+        <v>44424</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K154" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L154" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M154" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44245</v>
+        <v>44424</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11520,13 +11520,13 @@
         <v>1480</v>
       </c>
       <c r="K155" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L155" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M155" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="K156" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L156" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M156" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1800</v>
+        <v>1480</v>
       </c>
       <c r="K157" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L157" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M157" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>3120</v>
+        <v>3200</v>
       </c>
       <c r="K158" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L158" t="n">
         <v>700</v>
       </c>
       <c r="M158" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K159" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L159" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M159" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44216</v>
+        <v>44382</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11877,7 +11877,7 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>3200</v>
+        <v>3120</v>
       </c>
       <c r="K160" t="n">
         <v>600</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44216</v>
+        <v>44382</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K161" t="n">
         <v>500</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44370</v>
+        <v>44216</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K162" t="n">
         <v>600</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44370</v>
+        <v>44216</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44284</v>
+        <v>44370</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K164" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L164" t="n">
         <v>700</v>
       </c>
       <c r="M164" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44284</v>
+        <v>44370</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K165" t="n">
+        <v>500</v>
+      </c>
+      <c r="L165" t="n">
         <v>550</v>
       </c>
-      <c r="L165" t="n">
-        <v>600</v>
-      </c>
       <c r="M165" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44174</v>
+        <v>44284</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12312,13 +12312,13 @@
         <v>2800</v>
       </c>
       <c r="K166" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L166" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M166" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44174</v>
+        <v>44284</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="K167" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L167" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M167" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44244</v>
+        <v>44174</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K168" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="L168" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M168" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>875</v>
+        <v>575</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44244</v>
+        <v>44174</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>1800</v>
+        <v>1560</v>
       </c>
       <c r="K169" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L169" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M169" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>775</v>
+        <v>475</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44449</v>
+        <v>44244</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K170" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L170" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M170" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44449</v>
+        <v>44244</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K171" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L171" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M171" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K172" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L172" t="n">
         <v>700</v>
       </c>
       <c r="M172" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K173" t="n">
+        <v>500</v>
+      </c>
+      <c r="L173" t="n">
         <v>550</v>
       </c>
-      <c r="L173" t="n">
-        <v>600</v>
-      </c>
       <c r="M173" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>2480</v>
+        <v>3200</v>
       </c>
       <c r="K174" t="n">
         <v>650</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>1360</v>
+        <v>1700</v>
       </c>
       <c r="K175" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L175" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M175" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>2400</v>
+        <v>2480</v>
       </c>
       <c r="K176" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L176" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M176" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K177" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L177" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M177" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13176,13 +13176,13 @@
         <v>2400</v>
       </c>
       <c r="K178" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L178" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M178" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>1320</v>
+        <v>1400</v>
       </c>
       <c r="K179" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L179" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M179" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K180" t="n">
         <v>650</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>1680</v>
+        <v>1320</v>
       </c>
       <c r="K181" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L181" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M181" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>3460</v>
+        <v>3400</v>
       </c>
       <c r="K182" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L182" t="n">
         <v>700</v>
       </c>
       <c r="M182" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13533,7 +13533,7 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>1600</v>
+        <v>1680</v>
       </c>
       <c r="K183" t="n">
         <v>500</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>2460</v>
+        <v>3460</v>
       </c>
       <c r="K184" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L184" t="n">
         <v>700</v>
       </c>
       <c r="M184" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13677,7 +13677,7 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K185" t="n">
         <v>500</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>3600</v>
+        <v>2460</v>
       </c>
       <c r="K186" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L186" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M186" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K187" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L187" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="M187" t="n">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="K188" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L188" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M188" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K189" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L189" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M189" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14037,7 +14037,7 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K190" t="n">
         <v>650</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>1540</v>
+        <v>1600</v>
       </c>
       <c r="K191" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L191" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M191" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K192" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L192" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M192" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>1560</v>
+        <v>1540</v>
       </c>
       <c r="K193" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L193" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="M193" t="n">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="K194" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L194" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M194" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>1360</v>
+        <v>1560</v>
       </c>
       <c r="K195" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L195" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M195" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14469,7 +14469,7 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K196" t="n">
         <v>650</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K197" t="n">
+        <v>500</v>
+      </c>
+      <c r="L197" t="n">
         <v>550</v>
       </c>
-      <c r="L197" t="n">
-        <v>600</v>
-      </c>
       <c r="M197" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14613,7 +14613,7 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K198" t="n">
         <v>650</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>1340</v>
+        <v>1800</v>
       </c>
       <c r="K199" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L199" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M199" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K200" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L200" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M200" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>1600</v>
+        <v>1340</v>
       </c>
       <c r="K201" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L201" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M201" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K202" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L202" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M202" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K203" t="n">
+        <v>450</v>
+      </c>
+      <c r="L203" t="n">
         <v>500</v>
       </c>
-      <c r="L203" t="n">
-        <v>550</v>
-      </c>
       <c r="M203" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K204" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L204" t="n">
         <v>700</v>
       </c>
       <c r="M204" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15117,7 +15117,7 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K205" t="n">
         <v>500</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K206" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L206" t="n">
         <v>700</v>
       </c>
       <c r="M206" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15264,13 +15264,13 @@
         <v>1600</v>
       </c>
       <c r="K207" t="n">
+        <v>500</v>
+      </c>
+      <c r="L207" t="n">
         <v>550</v>
       </c>
-      <c r="L207" t="n">
-        <v>600</v>
-      </c>
       <c r="M207" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15333,7 +15333,7 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K208" t="n">
         <v>650</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15405,7 +15405,7 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K209" t="n">
         <v>550</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15477,7 +15477,7 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K210" t="n">
         <v>650</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15549,7 +15549,7 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>1600</v>
+        <v>1360</v>
       </c>
       <c r="K211" t="n">
         <v>550</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K212" t="n">
         <v>650</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K213" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L213" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M213" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -15768,13 +15768,13 @@
         <v>3400</v>
       </c>
       <c r="K214" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L214" t="n">
         <v>700</v>
       </c>
       <c r="M214" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -15837,7 +15837,7 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K215" t="n">
         <v>500</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K216" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L216" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M216" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K217" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L217" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M217" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="K218" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L218" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M218" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -16128,13 +16128,13 @@
         <v>1600</v>
       </c>
       <c r="K219" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L219" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M219" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="K220" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L220" t="n">
         <v>700</v>
       </c>
       <c r="M220" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K221" t="n">
+        <v>500</v>
+      </c>
+      <c r="L221" t="n">
         <v>550</v>
       </c>
-      <c r="L221" t="n">
-        <v>600</v>
-      </c>
       <c r="M221" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="K222" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L222" t="n">
         <v>700</v>
       </c>
       <c r="M222" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="K223" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L223" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M223" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -16488,13 +16488,13 @@
         <v>2200</v>
       </c>
       <c r="K224" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L224" t="n">
         <v>700</v>
       </c>
       <c r="M224" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K225" t="n">
+        <v>500</v>
+      </c>
+      <c r="L225" t="n">
         <v>550</v>
       </c>
-      <c r="L225" t="n">
-        <v>600</v>
-      </c>
       <c r="M225" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -16629,7 +16629,7 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="K226" t="n">
         <v>650</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="K227" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L227" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M227" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -16773,7 +16773,7 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="K228" t="n">
         <v>650</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -16848,13 +16848,13 @@
         <v>1440</v>
       </c>
       <c r="K229" t="n">
+        <v>500</v>
+      </c>
+      <c r="L229" t="n">
         <v>550</v>
       </c>
-      <c r="L229" t="n">
-        <v>600</v>
-      </c>
       <c r="M229" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K230" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L230" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M230" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>1360</v>
+        <v>1440</v>
       </c>
       <c r="K231" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L231" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M231" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>725</v>
+        <v>575</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K232" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L232" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M232" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K233" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L233" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M233" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K234" t="n">
         <v>650</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K235" t="n">
         <v>550</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -17352,13 +17352,13 @@
         <v>2400</v>
       </c>
       <c r="K236" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L236" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M236" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>1460</v>
+        <v>1500</v>
       </c>
       <c r="K237" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L237" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M237" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="K238" t="n">
+        <v>600</v>
+      </c>
+      <c r="L238" t="n">
         <v>650</v>
       </c>
-      <c r="L238" t="n">
-        <v>700</v>
-      </c>
       <c r="M238" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="K239" t="n">
+        <v>500</v>
+      </c>
+      <c r="L239" t="n">
         <v>550</v>
       </c>
-      <c r="L239" t="n">
-        <v>600</v>
-      </c>
       <c r="M239" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -17709,7 +17709,7 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>1460</v>
+        <v>1600</v>
       </c>
       <c r="K241" t="n">
         <v>550</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -17781,7 +17781,7 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K242" t="n">
         <v>650</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -17853,7 +17853,7 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="K243" t="n">
         <v>550</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -17925,7 +17925,7 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K244" t="n">
         <v>650</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -17997,7 +17997,7 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K245" t="n">
         <v>550</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -18069,7 +18069,7 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K246" t="n">
         <v>650</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -18213,7 +18213,7 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>3160</v>
+        <v>3000</v>
       </c>
       <c r="K248" t="n">
         <v>650</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -18285,7 +18285,7 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>1640</v>
+        <v>1400</v>
       </c>
       <c r="K249" t="n">
         <v>550</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>2100</v>
+        <v>3160</v>
       </c>
       <c r="K250" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L250" t="n">
         <v>700</v>
       </c>
       <c r="M250" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>1260</v>
+        <v>1640</v>
       </c>
       <c r="K251" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L251" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M251" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K252" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L252" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M252" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>1500</v>
+        <v>1260</v>
       </c>
       <c r="K253" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L253" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M253" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18648,13 +18648,13 @@
         <v>2200</v>
       </c>
       <c r="K254" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L254" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M254" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K255" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L255" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M255" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="K256" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L256" t="n">
         <v>700</v>
       </c>
       <c r="M256" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K257" t="n">
+        <v>500</v>
+      </c>
+      <c r="L257" t="n">
         <v>550</v>
       </c>
-      <c r="L257" t="n">
-        <v>600</v>
-      </c>
       <c r="M257" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="K258" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L258" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M258" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -19008,13 +19008,13 @@
         <v>1480</v>
       </c>
       <c r="K259" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L259" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M259" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K260" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L260" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M260" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>650</v>
+        <v>475</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="K261" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L261" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M261" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19221,17 +19221,17 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K262" t="n">
         <v>600</v>
       </c>
       <c r="L262" t="n">
+        <v>700</v>
+      </c>
+      <c r="M262" t="n">
         <v>650</v>
       </c>
-      <c r="M262" t="n">
-        <v>625</v>
-      </c>
       <c r="N262" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="K264" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L264" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M264" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K265" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L265" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M265" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K266" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L266" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M266" t="n">
-        <v>850</v>
+        <v>725</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>850</v>
+        <v>725</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>1680</v>
+        <v>1400</v>
       </c>
       <c r="K267" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L267" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M267" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>725</v>
+        <v>625</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K268" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L268" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M268" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>1500</v>
+        <v>1680</v>
       </c>
       <c r="K269" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L269" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M269" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K270" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L270" t="n">
         <v>700</v>
       </c>
       <c r="M270" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="K271" t="n">
+        <v>500</v>
+      </c>
+      <c r="L271" t="n">
         <v>550</v>
       </c>
-      <c r="L271" t="n">
-        <v>600</v>
-      </c>
       <c r="M271" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -19941,7 +19941,7 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K272" t="n">
         <v>650</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K273" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L273" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M273" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -20088,13 +20088,13 @@
         <v>3400</v>
       </c>
       <c r="K274" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L274" t="n">
         <v>700</v>
       </c>
       <c r="M274" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20229,7 +20229,7 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>3360</v>
+        <v>3400</v>
       </c>
       <c r="K276" t="n">
         <v>600</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -20373,7 +20373,7 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>3400</v>
+        <v>3360</v>
       </c>
       <c r="K278" t="n">
         <v>600</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -20445,7 +20445,7 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K279" t="n">
         <v>500</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -20520,13 +20520,13 @@
         <v>3400</v>
       </c>
       <c r="K280" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L280" t="n">
         <v>700</v>
       </c>
       <c r="M280" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K282" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L282" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M282" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>1560</v>
+        <v>1800</v>
       </c>
       <c r="K283" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L283" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M283" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>375</v>
+        <v>525</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K284" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L284" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M284" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K285" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L285" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M285" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -20949,7 +20949,7 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>2680</v>
+        <v>2400</v>
       </c>
       <c r="K286" t="n">
         <v>650</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K287" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L287" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M287" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>3400</v>
+        <v>2680</v>
       </c>
       <c r="K288" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L288" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M288" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K289" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L289" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M289" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K290" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L290" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M290" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K291" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L291" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M291" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -21381,7 +21381,7 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K292" t="n">
         <v>650</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -21453,7 +21453,7 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>1340</v>
+        <v>1600</v>
       </c>
       <c r="K293" t="n">
         <v>550</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>1460</v>
+        <v>2200</v>
       </c>
       <c r="K294" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L294" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M294" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44204</v>
+        <v>44474</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>2800</v>
+        <v>1340</v>
       </c>
       <c r="K295" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L295" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M295" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>1560</v>
+        <v>1460</v>
       </c>
       <c r="K296" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L296" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M296" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K297" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L297" t="n">
         <v>700</v>
       </c>
       <c r="M297" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>1400</v>
+        <v>1560</v>
       </c>
       <c r="K298" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L298" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M298" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K299" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L299" t="n">
         <v>700</v>
       </c>
       <c r="M299" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K300" t="n">
+        <v>500</v>
+      </c>
+      <c r="L300" t="n">
         <v>550</v>
       </c>
-      <c r="L300" t="n">
-        <v>600</v>
-      </c>
       <c r="M300" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K301" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L301" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M301" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>1560</v>
+        <v>1800</v>
       </c>
       <c r="K302" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L302" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M302" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>3360</v>
+        <v>2800</v>
       </c>
       <c r="K303" t="n">
+        <v>550</v>
+      </c>
+      <c r="L303" t="n">
         <v>600</v>
       </c>
-      <c r="L303" t="n">
-        <v>700</v>
-      </c>
       <c r="M303" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>1800</v>
+        <v>1560</v>
       </c>
       <c r="K304" t="n">
+        <v>450</v>
+      </c>
+      <c r="L304" t="n">
         <v>500</v>
       </c>
-      <c r="L304" t="n">
-        <v>550</v>
-      </c>
       <c r="M304" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -22389,7 +22389,7 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K306" t="n">
         <v>500</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -22461,7 +22461,7 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>2400</v>
+        <v>3360</v>
       </c>
       <c r="K307" t="n">
         <v>600</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -22533,7 +22533,7 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K308" t="n">
         <v>500</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -22605,7 +22605,7 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K309" t="n">
         <v>600</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K310" t="n">
         <v>500</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K311" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L311" t="n">
         <v>700</v>
       </c>
       <c r="M311" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>1440</v>
+        <v>1300</v>
       </c>
       <c r="K312" t="n">
+        <v>500</v>
+      </c>
+      <c r="L312" t="n">
         <v>550</v>
       </c>
-      <c r="L312" t="n">
-        <v>600</v>
-      </c>
       <c r="M312" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K313" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L313" t="n">
         <v>700</v>
       </c>
       <c r="M313" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>1300</v>
+        <v>1440</v>
       </c>
       <c r="K314" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L314" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M314" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -23037,7 +23037,7 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="K315" t="n">
         <v>600</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -23109,7 +23109,7 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K316" t="n">
         <v>500</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K317" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L317" t="n">
         <v>700</v>
       </c>
       <c r="M317" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K318" t="n">
+        <v>500</v>
+      </c>
+      <c r="L318" t="n">
         <v>550</v>
       </c>
-      <c r="L318" t="n">
-        <v>600</v>
-      </c>
       <c r="M318" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K319" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L319" t="n">
         <v>700</v>
       </c>
       <c r="M319" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K320" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L320" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M320" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -23469,7 +23469,7 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>13960</v>
+        <v>2000</v>
       </c>
       <c r="K321" t="n">
         <v>600</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -23541,7 +23541,7 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>7500</v>
+        <v>1400</v>
       </c>
       <c r="K322" t="n">
         <v>500</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>3200</v>
+        <v>13960</v>
       </c>
       <c r="K323" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L323" t="n">
         <v>700</v>
       </c>
       <c r="M323" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>1560</v>
+        <v>7500</v>
       </c>
       <c r="K324" t="n">
+        <v>500</v>
+      </c>
+      <c r="L324" t="n">
         <v>550</v>
       </c>
-      <c r="L324" t="n">
-        <v>600</v>
-      </c>
       <c r="M324" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K325" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L325" t="n">
         <v>700</v>
       </c>
       <c r="M325" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>1800</v>
+        <v>1560</v>
       </c>
       <c r="K326" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L326" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M326" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -23901,7 +23901,7 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>3160</v>
+        <v>3400</v>
       </c>
       <c r="K327" t="n">
         <v>600</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -23973,7 +23973,7 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>1640</v>
+        <v>1800</v>
       </c>
       <c r="K328" t="n">
         <v>500</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>3400</v>
+        <v>3160</v>
       </c>
       <c r="K329" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L329" t="n">
         <v>700</v>
       </c>
       <c r="M329" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q329" t="n">
         <v>1</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>1800</v>
+        <v>1640</v>
       </c>
       <c r="K330" t="n">
+        <v>500</v>
+      </c>
+      <c r="L330" t="n">
         <v>550</v>
       </c>
-      <c r="L330" t="n">
-        <v>600</v>
-      </c>
       <c r="M330" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q330" t="n">
         <v>1</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="K331" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L331" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M331" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="Q331" t="n">
         <v>1</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K332" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L332" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M332" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>375</v>
+        <v>575</v>
       </c>
       <c r="Q332" t="n">
         <v>1</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K335" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L335" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M335" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q335" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -24552,13 +24552,13 @@
         <v>1400</v>
       </c>
       <c r="K336" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L336" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M336" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="Q336" t="n">
         <v>1</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="K337" t="n">
         <v>650</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>1260</v>
+        <v>1400</v>
       </c>
       <c r="K338" t="n">
+        <v>500</v>
+      </c>
+      <c r="L338" t="n">
         <v>550</v>
       </c>
-      <c r="L338" t="n">
-        <v>600</v>
-      </c>
       <c r="M338" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q338" t="n">
         <v>1</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="K339" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L339" t="n">
         <v>700</v>
       </c>
       <c r="M339" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q339" t="n">
         <v>1</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>1600</v>
+        <v>1260</v>
       </c>
       <c r="K340" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L340" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M340" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q340" t="n">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -24909,7 +24909,7 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>3340</v>
+        <v>3000</v>
       </c>
       <c r="K341" t="n">
         <v>600</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -25053,7 +25053,7 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>3600</v>
+        <v>3340</v>
       </c>
       <c r="K343" t="n">
         <v>600</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -25125,7 +25125,7 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="K344" t="n">
         <v>500</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="K345" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L345" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M345" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q345" t="n">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K346" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L346" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M346" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>3340</v>
+        <v>3200</v>
       </c>
       <c r="K347" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L347" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M347" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q347" t="n">
         <v>1</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>1860</v>
+        <v>1600</v>
       </c>
       <c r="K348" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L348" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M348" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q348" t="n">
         <v>1</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>2600</v>
+        <v>3340</v>
       </c>
       <c r="K349" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L349" t="n">
         <v>700</v>
       </c>
       <c r="M349" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q349" t="n">
         <v>1</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>1480</v>
+        <v>1860</v>
       </c>
       <c r="K350" t="n">
+        <v>500</v>
+      </c>
+      <c r="L350" t="n">
         <v>550</v>
       </c>
-      <c r="L350" t="n">
-        <v>600</v>
-      </c>
       <c r="M350" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q350" t="n">
         <v>1</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K351" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L351" t="n">
         <v>700</v>
       </c>
       <c r="M351" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q351" t="n">
         <v>1</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="K352" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L352" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M352" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q352" t="n">
         <v>1</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -25773,16 +25773,16 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K353" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L353" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M353" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q353" t="n">
         <v>1</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>1520</v>
+        <v>1400</v>
       </c>
       <c r="K354" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L354" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M354" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q354" t="n">
         <v>1</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K355" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L355" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M355" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q355" t="n">
         <v>1</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>1360</v>
+        <v>1520</v>
       </c>
       <c r="K356" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L356" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M356" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q356" t="n">
         <v>1</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K357" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L357" t="n">
         <v>700</v>
       </c>
       <c r="M357" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q357" t="n">
         <v>1</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -26136,13 +26136,13 @@
         <v>1360</v>
       </c>
       <c r="K358" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L358" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M358" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q358" t="n">
         <v>1</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K359" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L359" t="n">
         <v>700</v>
       </c>
       <c r="M359" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q359" t="n">
         <v>1</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -26277,7 +26277,7 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K360" t="n">
         <v>500</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -26493,7 +26493,7 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K363" t="n">
         <v>650</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26568,13 +26568,13 @@
         <v>1800</v>
       </c>
       <c r="K364" t="n">
+        <v>500</v>
+      </c>
+      <c r="L364" t="n">
         <v>550</v>
       </c>
-      <c r="L364" t="n">
-        <v>600</v>
-      </c>
       <c r="M364" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26637,7 +26637,7 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K365" t="n">
         <v>650</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -26709,7 +26709,7 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>1480</v>
+        <v>1800</v>
       </c>
       <c r="K366" t="n">
         <v>550</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K367" t="n">
+        <v>650</v>
+      </c>
+      <c r="L367" t="n">
         <v>700</v>
       </c>
-      <c r="L367" t="n">
-        <v>800</v>
-      </c>
       <c r="M367" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="K368" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L368" t="n">
         <v>600</v>
       </c>
       <c r="M368" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="K369" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L369" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M369" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>675</v>
+        <v>750</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1600</v>
+        <v>1440</v>
       </c>
       <c r="K370" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L370" t="n">
         <v>600</v>
       </c>
       <c r="M370" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -27069,7 +27069,7 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="K371" t="n">
         <v>650</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>1460</v>
+        <v>1600</v>
       </c>
       <c r="K372" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L372" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M372" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -27213,7 +27213,7 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="K373" t="n">
         <v>650</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -27285,7 +27285,7 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>1800</v>
+        <v>1460</v>
       </c>
       <c r="K374" t="n">
         <v>500</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="K375" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L375" t="n">
         <v>700</v>
       </c>
       <c r="M375" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -27429,7 +27429,7 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>1360</v>
+        <v>1800</v>
       </c>
       <c r="K376" t="n">
         <v>500</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="K377" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L377" t="n">
         <v>700</v>
       </c>
       <c r="M377" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K378" t="n">
+        <v>500</v>
+      </c>
+      <c r="L378" t="n">
         <v>550</v>
       </c>
-      <c r="L378" t="n">
-        <v>600</v>
-      </c>
       <c r="M378" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -27648,13 +27648,13 @@
         <v>2000</v>
       </c>
       <c r="K379" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L379" t="n">
         <v>700</v>
       </c>
       <c r="M379" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -27720,13 +27720,13 @@
         <v>1400</v>
       </c>
       <c r="K380" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L380" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M380" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K381" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L381" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M381" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -27864,13 +27864,13 @@
         <v>1400</v>
       </c>
       <c r="K382" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L382" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M382" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>3100</v>
+        <v>2400</v>
       </c>
       <c r="K383" t="n">
+        <v>550</v>
+      </c>
+      <c r="L383" t="n">
         <v>600</v>
       </c>
-      <c r="L383" t="n">
-        <v>700</v>
-      </c>
       <c r="M383" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -28008,13 +28008,13 @@
         <v>1400</v>
       </c>
       <c r="K384" t="n">
+        <v>450</v>
+      </c>
+      <c r="L384" t="n">
         <v>500</v>
       </c>
-      <c r="L384" t="n">
-        <v>550</v>
-      </c>
       <c r="M384" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="K385" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="L385" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M385" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>875</v>
+        <v>650</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="K386" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L386" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M386" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -28221,7 +28221,7 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="K387" t="n">
         <v>850</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -28293,7 +28293,7 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>1500</v>
+        <v>1360</v>
       </c>
       <c r="K388" t="n">
         <v>750</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K389" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L389" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M389" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>650</v>
+        <v>875</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -28440,13 +28440,13 @@
         <v>1500</v>
       </c>
       <c r="K390" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L390" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M390" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K391" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L391" t="n">
         <v>700</v>
       </c>
       <c r="M391" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E392" t="n">
         <v>4</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K392" t="n">
+        <v>500</v>
+      </c>
+      <c r="L392" t="n">
         <v>550</v>
       </c>
-      <c r="L392" t="n">
-        <v>600</v>
-      </c>
       <c r="M392" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="K393" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L393" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M393" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K394" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L394" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M394" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K395" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L395" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M395" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E396" t="n">
         <v>4</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K396" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="L396" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M396" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E397" t="n">
         <v>4</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="K397" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L397" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M397" t="n">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>650</v>
+        <v>775</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E398" t="n">
         <v>4</v>
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K398" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L398" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M398" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E399" t="n">
         <v>4</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K399" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L399" t="n">
         <v>700</v>
       </c>
       <c r="M399" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E400" t="n">
         <v>4</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="K400" t="n">
+        <v>500</v>
+      </c>
+      <c r="L400" t="n">
         <v>550</v>
       </c>
-      <c r="L400" t="n">
-        <v>600</v>
-      </c>
       <c r="M400" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E401" t="n">
         <v>4</v>
@@ -29229,7 +29229,7 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>3220</v>
+        <v>3000</v>
       </c>
       <c r="K401" t="n">
         <v>650</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E402" t="n">
         <v>4</v>
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="K402" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L402" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M402" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E403" t="n">
         <v>4</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>2000</v>
+        <v>3220</v>
       </c>
       <c r="K403" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L403" t="n">
         <v>700</v>
       </c>
       <c r="M403" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E404" t="n">
         <v>4</v>
@@ -29445,7 +29445,7 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="K404" t="n">
         <v>500</v>
@@ -29473,6 +29473,150 @@
         <v>1</v>
       </c>
       <c r="R404" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>8</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D405" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E405" t="n">
+        <v>4</v>
+      </c>
+      <c r="F405" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J405" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K405" t="n">
+        <v>600</v>
+      </c>
+      <c r="L405" t="n">
+        <v>700</v>
+      </c>
+      <c r="M405" t="n">
+        <v>650</v>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P405" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>1</v>
+      </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>8</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D406" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E406" t="n">
+        <v>4</v>
+      </c>
+      <c r="F406" t="n">
+        <v>100112023</v>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>Brócoli</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J406" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K406" t="n">
+        <v>500</v>
+      </c>
+      <c r="L406" t="n">
+        <v>550</v>
+      </c>
+      <c r="M406" t="n">
+        <v>525</v>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P406" t="n">
+        <v>525</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>1</v>
+      </c>
+      <c r="R406" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Brócoli.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R406"/>
+  <dimension ref="A1:R408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44449</v>
+        <v>44482</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12741,7 +12741,7 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K172" t="n">
         <v>600</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44449</v>
+        <v>44482</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12813,7 +12813,7 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>1600</v>
+        <v>1640</v>
       </c>
       <c r="K173" t="n">
         <v>500</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="K174" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L174" t="n">
         <v>700</v>
       </c>
       <c r="M174" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K175" t="n">
+        <v>500</v>
+      </c>
+      <c r="L175" t="n">
         <v>550</v>
       </c>
-      <c r="L175" t="n">
-        <v>600</v>
-      </c>
       <c r="M175" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>2480</v>
+        <v>3200</v>
       </c>
       <c r="K176" t="n">
         <v>650</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>1360</v>
+        <v>1700</v>
       </c>
       <c r="K177" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L177" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M177" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>2400</v>
+        <v>2480</v>
       </c>
       <c r="K178" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="L178" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M178" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="K179" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L179" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M179" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -13320,13 +13320,13 @@
         <v>2400</v>
       </c>
       <c r="K180" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L180" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M180" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>1320</v>
+        <v>1400</v>
       </c>
       <c r="K181" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L181" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M181" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -13461,7 +13461,7 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="K182" t="n">
         <v>650</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>1680</v>
+        <v>1320</v>
       </c>
       <c r="K183" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L183" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M183" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>3460</v>
+        <v>3400</v>
       </c>
       <c r="K184" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L184" t="n">
         <v>700</v>
       </c>
       <c r="M184" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -13677,7 +13677,7 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>1600</v>
+        <v>1680</v>
       </c>
       <c r="K185" t="n">
         <v>500</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>2460</v>
+        <v>3460</v>
       </c>
       <c r="K186" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L186" t="n">
         <v>700</v>
       </c>
       <c r="M186" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K187" t="n">
         <v>500</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>3600</v>
+        <v>2460</v>
       </c>
       <c r="K188" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L188" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M188" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K189" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L189" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="M189" t="n">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="K190" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L190" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M190" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K191" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L191" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M191" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>575</v>
+        <v>725</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -14181,7 +14181,7 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K192" t="n">
         <v>650</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>1540</v>
+        <v>1600</v>
       </c>
       <c r="K193" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L193" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M193" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K194" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L194" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M194" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>850</v>
+        <v>675</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>1560</v>
+        <v>1540</v>
       </c>
       <c r="K195" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L195" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="M195" t="n">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="K196" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L196" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M196" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>1360</v>
+        <v>1560</v>
       </c>
       <c r="K197" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L197" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M197" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>525</v>
+        <v>725</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -14613,7 +14613,7 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K198" t="n">
         <v>650</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>1800</v>
+        <v>1360</v>
       </c>
       <c r="K199" t="n">
+        <v>500</v>
+      </c>
+      <c r="L199" t="n">
         <v>550</v>
       </c>
-      <c r="L199" t="n">
-        <v>600</v>
-      </c>
       <c r="M199" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -14757,7 +14757,7 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K200" t="n">
         <v>650</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>1340</v>
+        <v>1800</v>
       </c>
       <c r="K201" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L201" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M201" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="K202" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L202" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M202" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>1600</v>
+        <v>1340</v>
       </c>
       <c r="K203" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L203" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M203" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K204" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L204" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M204" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K205" t="n">
+        <v>450</v>
+      </c>
+      <c r="L205" t="n">
         <v>500</v>
       </c>
-      <c r="L205" t="n">
-        <v>550</v>
-      </c>
       <c r="M205" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K206" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L206" t="n">
         <v>700</v>
       </c>
       <c r="M206" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -15261,7 +15261,7 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K207" t="n">
         <v>500</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K208" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L208" t="n">
         <v>700</v>
       </c>
       <c r="M208" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -15408,13 +15408,13 @@
         <v>1600</v>
       </c>
       <c r="K209" t="n">
+        <v>500</v>
+      </c>
+      <c r="L209" t="n">
         <v>550</v>
       </c>
-      <c r="L209" t="n">
-        <v>600</v>
-      </c>
       <c r="M209" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -15477,7 +15477,7 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="K210" t="n">
         <v>650</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -15549,7 +15549,7 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>1360</v>
+        <v>1600</v>
       </c>
       <c r="K211" t="n">
         <v>550</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44232</v